--- a/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
+++ b/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Espacios" sheetId="1" r:id="rId1"/>
+    <sheet name="Combo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espacios!$A$122:$A$125</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="167">
   <si>
     <t xml:space="preserve">        /        /</t>
   </si>
@@ -518,6 +519,15 @@
   </si>
   <si>
     <t>2.5.8.) Araña histórica colgante</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Malo</t>
   </si>
 </sst>
 </file>
@@ -1460,570 +1470,609 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,57 +2081,20 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3723,823 +3735,823 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L203" sqref="L203"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="32" style="26" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="26" customWidth="1"/>
-    <col min="12" max="28" width="9.42578125" style="26" customWidth="1"/>
-    <col min="29" max="16384" width="15.140625" style="26"/>
+    <col min="1" max="1" width="24" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="3" customWidth="1"/>
+    <col min="12" max="28" width="9.42578125" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="33"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="205"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="207"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59" t="s">
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="59" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="104"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="122"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90" t="s">
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="145"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="90" t="s">
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="155"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="140"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="98" t="s">
+      <c r="B40" s="147"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="108"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="131"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="131"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="111"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="134"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="115"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="125"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="119"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="137"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="115"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="125"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="119"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="137"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="115"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="125"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="115"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="125"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="115"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="125"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="115"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="125"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="92"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="126"/>
       <c r="H52" s="127"/>
       <c r="I52" s="127"/>
@@ -4547,14 +4559,14 @@
       <c r="K52" s="128"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="92"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="126"/>
       <c r="H53" s="127"/>
       <c r="I53" s="127"/>
@@ -4562,2163 +4574,2163 @@
       <c r="K53" s="128"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="61"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="131" t="s">
+      <c r="A55" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="134" t="s">
+      <c r="B55" s="173"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="102" t="s">
+      <c r="F55" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="135" t="s">
+      <c r="G55" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="137"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="171"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="69"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="142"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="110"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="71"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="104"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="71"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="104"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="61"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="59" t="s">
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="143" t="s">
+      <c r="G61" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="144"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="168"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="84"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="119"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="145"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="107"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="71"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="104"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="59" t="s">
+      <c r="B66" s="147"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="143" t="s">
+      <c r="G66" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="143"/>
-      <c r="I66" s="143"/>
-      <c r="J66" s="143"/>
-      <c r="K66" s="144"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="167"/>
+      <c r="K66" s="168"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="148"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="158"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="160"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="149"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="101"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="59" t="s">
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="143" t="s">
+      <c r="G69" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="144"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="167"/>
+      <c r="K69" s="168"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="61"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="71"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="103"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="104"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="141"/>
-      <c r="K72" s="142"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="110"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="71"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="149"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="104"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="142"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="109"/>
+      <c r="I74" s="109"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="110"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="69"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="71"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="104"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="141"/>
-      <c r="J77" s="141"/>
-      <c r="K77" s="142"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="110"/>
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="68"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="71"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
+      <c r="K78" s="104"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="141"/>
-      <c r="I79" s="141"/>
-      <c r="J79" s="141"/>
-      <c r="K79" s="142"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="109"/>
+      <c r="K79" s="110"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="68"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="71"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="103"/>
+      <c r="J80" s="103"/>
+      <c r="K80" s="104"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="141"/>
-      <c r="I81" s="141"/>
-      <c r="J81" s="141"/>
-      <c r="K81" s="142"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="110"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70"/>
-      <c r="K82" s="71"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="103"/>
+      <c r="J82" s="103"/>
+      <c r="K82" s="104"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="141"/>
-      <c r="I83" s="141"/>
-      <c r="J83" s="141"/>
-      <c r="K83" s="142"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="109"/>
+      <c r="I83" s="109"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="110"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="71"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="104"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
-      <c r="J85" s="141"/>
-      <c r="K85" s="142"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="110"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="71"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="103"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="104"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="140"/>
-      <c r="H87" s="141"/>
-      <c r="I87" s="141"/>
-      <c r="J87" s="141"/>
-      <c r="K87" s="142"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="110"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="95"/>
-      <c r="E88" s="95"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="71"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="103"/>
+      <c r="K88" s="104"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="140"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="141"/>
-      <c r="J89" s="141"/>
-      <c r="K89" s="142"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="109"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="109"/>
+      <c r="K89" s="110"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="71"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="103"/>
+      <c r="I90" s="103"/>
+      <c r="J90" s="103"/>
+      <c r="K90" s="104"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="140"/>
-      <c r="H91" s="141"/>
-      <c r="I91" s="141"/>
-      <c r="J91" s="141"/>
-      <c r="K91" s="142"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="109"/>
+      <c r="I91" s="109"/>
+      <c r="J91" s="109"/>
+      <c r="K91" s="110"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="71"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="102"/>
+      <c r="H92" s="103"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="103"/>
+      <c r="K92" s="104"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="67"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="69"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="64"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="150"/>
-      <c r="E94" s="59" t="s">
+      <c r="B94" s="147"/>
+      <c r="C94" s="148"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="59" t="s">
+      <c r="F94" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G94" s="143" t="s">
+      <c r="G94" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="143"/>
-      <c r="I94" s="143"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="144"/>
+      <c r="H94" s="167"/>
+      <c r="I94" s="167"/>
+      <c r="J94" s="167"/>
+      <c r="K94" s="168"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="67" t="s">
+      <c r="A95" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="68"/>
-      <c r="C95" s="138"/>
-      <c r="D95" s="95"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="69"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="161"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="64"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="67" t="s">
+      <c r="A96" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="68"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="96"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="71"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="161"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="103"/>
+      <c r="J96" s="103"/>
+      <c r="K96" s="104"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="139"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="100"/>
-      <c r="G97" s="145"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="63"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="163"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="106"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="107"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="67" t="s">
+      <c r="A98" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B98" s="68"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="95"/>
-      <c r="E98" s="96"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="71"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="161"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="103"/>
+      <c r="J98" s="103"/>
+      <c r="K98" s="104"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="139"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="140"/>
-      <c r="H99" s="141"/>
-      <c r="I99" s="141"/>
-      <c r="J99" s="141"/>
-      <c r="K99" s="142"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="163"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="109"/>
+      <c r="K99" s="110"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="151"/>
-      <c r="D100" s="152"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="145"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="63"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="106"/>
+      <c r="K100" s="107"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="68"/>
-      <c r="C101" s="138"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="71"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="104"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="155"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="156"/>
-      <c r="H102" s="157"/>
-      <c r="I102" s="157"/>
-      <c r="J102" s="157"/>
-      <c r="K102" s="158"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="162"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="112"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="112"/>
+      <c r="K102" s="113"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="67"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="69"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="64"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="75" t="s">
+      <c r="A104" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="76"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="59" t="s">
+      <c r="B104" s="147"/>
+      <c r="C104" s="148"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="59" t="s">
+      <c r="F104" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="60" t="s">
+      <c r="G104" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="61"/>
+      <c r="H104" s="144"/>
+      <c r="I104" s="144"/>
+      <c r="J104" s="144"/>
+      <c r="K104" s="145"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="141"/>
-      <c r="C105" s="159"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="15"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="165"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="61"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="68"/>
-      <c r="I106" s="68"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="69"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="166"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="64"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="160"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="68"/>
-      <c r="I107" s="68"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="69"/>
+      <c r="B107" s="103"/>
+      <c r="C107" s="166"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="64"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="67" t="s">
+      <c r="A108" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="68"/>
-      <c r="I108" s="68"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="69"/>
+      <c r="B108" s="103"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="64"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="67"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="68"/>
-      <c r="I109" s="68"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="69"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="75" t="s">
+      <c r="A110" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="76"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="59" t="s">
+      <c r="B110" s="147"/>
+      <c r="C110" s="148"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F110" s="59" t="s">
+      <c r="F110" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G110" s="60" t="s">
+      <c r="G110" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H110" s="60"/>
-      <c r="I110" s="60"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="61"/>
+      <c r="H110" s="144"/>
+      <c r="I110" s="144"/>
+      <c r="J110" s="144"/>
+      <c r="K110" s="145"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="C111" s="139"/>
-      <c r="D111" s="91"/>
-      <c r="E111" s="91"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="15"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="163"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="61"/>
     </row>
     <row r="112" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="67" t="s">
+      <c r="A112" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="95"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="68"/>
-      <c r="I112" s="68"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="69"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="69"/>
+      <c r="B113" s="103"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="64"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="67"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="69"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="64"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="75" t="s">
+      <c r="A115" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="76"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="59" t="s">
+      <c r="B115" s="147"/>
+      <c r="C115" s="148"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F115" s="59" t="s">
+      <c r="F115" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="60" t="s">
+      <c r="G115" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H115" s="60"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
-      <c r="K115" s="61"/>
+      <c r="H115" s="144"/>
+      <c r="I115" s="144"/>
+      <c r="J115" s="144"/>
+      <c r="K115" s="145"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="91"/>
-      <c r="E116" s="91"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="15"/>
+      <c r="B116" s="100"/>
+      <c r="C116" s="100"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="60"/>
+      <c r="K116" s="61"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="67" t="s">
+      <c r="A117" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="68"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="69"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="63"/>
+      <c r="K117" s="64"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="67" t="s">
+      <c r="A118" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="68"/>
-      <c r="I118" s="68"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="69"/>
+      <c r="B118" s="103"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="15"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="60"/>
+      <c r="J119" s="60"/>
+      <c r="K119" s="61"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="76"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="90" t="s">
+      <c r="B120" s="147"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F120" s="59" t="s">
+      <c r="F120" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G120" s="60" t="s">
+      <c r="G120" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H120" s="60"/>
-      <c r="I120" s="60"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="61"/>
+      <c r="H120" s="144"/>
+      <c r="I120" s="144"/>
+      <c r="J120" s="144"/>
+      <c r="K120" s="145"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="152"/>
-      <c r="E121" s="152"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="15"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="67" t="s">
+      <c r="A122" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B122" s="68"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="95"/>
-      <c r="E122" s="95"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="68"/>
-      <c r="I122" s="68"/>
-      <c r="J122" s="68"/>
-      <c r="K122" s="69"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="67" t="s">
+      <c r="A123" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="68"/>
-      <c r="I123" s="68"/>
-      <c r="J123" s="68"/>
-      <c r="K123" s="69"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="63"/>
+      <c r="I123" s="63"/>
+      <c r="J123" s="63"/>
+      <c r="K123" s="64"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="91"/>
-      <c r="E124" s="91"/>
-      <c r="F124" s="100"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="149"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="100"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="100"/>
+      <c r="I124" s="100"/>
+      <c r="J124" s="100"/>
+      <c r="K124" s="101"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="67" t="s">
+      <c r="A125" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="68"/>
-      <c r="C125" s="68"/>
-      <c r="D125" s="95"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="68"/>
-      <c r="I125" s="68"/>
-      <c r="J125" s="68"/>
-      <c r="K125" s="69"/>
+      <c r="B125" s="63"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="63"/>
+      <c r="I125" s="63"/>
+      <c r="J125" s="63"/>
+      <c r="K125" s="64"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="91"/>
-      <c r="F126" s="100"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="149"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="100"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="100"/>
+      <c r="I126" s="100"/>
+      <c r="J126" s="100"/>
+      <c r="K126" s="101"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="67" t="s">
+      <c r="A127" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="95"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="68"/>
-      <c r="I127" s="68"/>
-      <c r="J127" s="68"/>
-      <c r="K127" s="69"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="63"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="63"/>
+      <c r="K127" s="64"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B128" s="157"/>
-      <c r="C128" s="157"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="92"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="18"/>
+      <c r="B128" s="112"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="66"/>
+      <c r="K128" s="67"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="15"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="61"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="75" t="s">
+      <c r="A130" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="76"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="90" t="s">
+      <c r="B130" s="147"/>
+      <c r="C130" s="148"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F130" s="59" t="s">
+      <c r="F130" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G130" s="161" t="s">
+      <c r="G130" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="H130" s="60"/>
-      <c r="I130" s="60"/>
-      <c r="J130" s="60"/>
-      <c r="K130" s="61"/>
+      <c r="H130" s="144"/>
+      <c r="I130" s="144"/>
+      <c r="J130" s="144"/>
+      <c r="K130" s="145"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="91"/>
-      <c r="E131" s="91"/>
-      <c r="F131" s="100"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="149"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="100"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="100"/>
+      <c r="I131" s="100"/>
+      <c r="J131" s="100"/>
+      <c r="K131" s="101"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="67" t="s">
+      <c r="A132" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="95"/>
-      <c r="E132" s="95"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="68"/>
-      <c r="I132" s="68"/>
-      <c r="J132" s="68"/>
-      <c r="K132" s="69"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="64"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="116"/>
-      <c r="E133" s="91"/>
-      <c r="F133" s="100"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="149"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="99"/>
+      <c r="H133" s="100"/>
+      <c r="I133" s="100"/>
+      <c r="J133" s="100"/>
+      <c r="K133" s="101"/>
     </row>
     <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="67" t="s">
+      <c r="A134" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B134" s="68"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="95"/>
-      <c r="E134" s="95"/>
-      <c r="F134" s="74"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="68"/>
-      <c r="I134" s="68"/>
-      <c r="J134" s="68"/>
-      <c r="K134" s="69"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="63"/>
+      <c r="I134" s="63"/>
+      <c r="J134" s="63"/>
+      <c r="K134" s="64"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="91"/>
-      <c r="E135" s="91"/>
-      <c r="F135" s="100"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="149"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="100"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="99"/>
+      <c r="H135" s="100"/>
+      <c r="I135" s="100"/>
+      <c r="J135" s="100"/>
+      <c r="K135" s="101"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="67" t="s">
+      <c r="A136" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="68"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="69"/>
+      <c r="B136" s="103"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="64"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="67"/>
-      <c r="B137" s="68"/>
-      <c r="C137" s="68"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
-      <c r="J137" s="68"/>
-      <c r="K137" s="69"/>
+      <c r="A137" s="62"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
+      <c r="H137" s="63"/>
+      <c r="I137" s="63"/>
+      <c r="J137" s="63"/>
+      <c r="K137" s="64"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="75" t="s">
+      <c r="A138" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="76"/>
-      <c r="C138" s="77"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="90" t="s">
+      <c r="B138" s="147"/>
+      <c r="C138" s="148"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F138" s="59" t="s">
+      <c r="F138" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="60" t="s">
+      <c r="G138" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H138" s="60"/>
-      <c r="I138" s="60"/>
-      <c r="J138" s="60"/>
-      <c r="K138" s="61"/>
+      <c r="H138" s="144"/>
+      <c r="I138" s="144"/>
+      <c r="J138" s="144"/>
+      <c r="K138" s="145"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="91"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="15"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="100"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="61"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="67" t="s">
+      <c r="A140" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="68"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="68"/>
-      <c r="I140" s="68"/>
-      <c r="J140" s="68"/>
-      <c r="K140" s="69"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="63"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="64"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="162"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="91"/>
-      <c r="F141" s="100"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="149"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="175"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="99"/>
+      <c r="H141" s="100"/>
+      <c r="I141" s="100"/>
+      <c r="J141" s="100"/>
+      <c r="K141" s="101"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="67" t="s">
+      <c r="A142" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="68"/>
-      <c r="C142" s="99"/>
-      <c r="D142" s="95"/>
-      <c r="E142" s="95"/>
-      <c r="F142" s="74"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="68"/>
-      <c r="I142" s="68"/>
-      <c r="J142" s="68"/>
-      <c r="K142" s="69"/>
+      <c r="B142" s="63"/>
+      <c r="C142" s="149"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="63"/>
+      <c r="I142" s="63"/>
+      <c r="J142" s="63"/>
+      <c r="K142" s="64"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="162"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="91"/>
-      <c r="F143" s="100"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="149"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="175"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="99"/>
+      <c r="H143" s="100"/>
+      <c r="I143" s="100"/>
+      <c r="J143" s="100"/>
+      <c r="K143" s="101"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="67" t="s">
+      <c r="A144" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="79"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="69"/>
+      <c r="B144" s="103"/>
+      <c r="C144" s="103"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="63"/>
+      <c r="I144" s="63"/>
+      <c r="J144" s="63"/>
+      <c r="K144" s="64"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="K145" s="15"/>
+      <c r="A145" s="59"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="61"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="75" t="s">
+      <c r="A146" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="B146" s="76"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="78"/>
-      <c r="E146" s="59" t="s">
+      <c r="B146" s="147"/>
+      <c r="C146" s="148"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F146" s="59" t="s">
+      <c r="F146" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="163" t="s">
+      <c r="G146" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="H146" s="163"/>
-      <c r="I146" s="163"/>
-      <c r="J146" s="163"/>
-      <c r="K146" s="164"/>
+      <c r="H146" s="176"/>
+      <c r="I146" s="176"/>
+      <c r="J146" s="176"/>
+      <c r="K146" s="177"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="139"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="91"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="15"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="163"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="61"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="67" t="s">
+      <c r="A148" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B148" s="68"/>
-      <c r="C148" s="138"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="68"/>
-      <c r="I148" s="68"/>
-      <c r="J148" s="68"/>
-      <c r="K148" s="69"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="161"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="63"/>
+      <c r="J148" s="63"/>
+      <c r="K148" s="64"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="67" t="s">
+      <c r="A149" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="79"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="67"/>
-      <c r="H149" s="68"/>
-      <c r="I149" s="68"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="69"/>
+      <c r="B149" s="103"/>
+      <c r="C149" s="103"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="63"/>
+      <c r="K149" s="64"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="13"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="15"/>
+      <c r="A150" s="59"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="60"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="60"/>
+      <c r="K150" s="61"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="75" t="s">
+      <c r="A151" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="B151" s="76"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="78"/>
-      <c r="E151" s="59" t="s">
+      <c r="B151" s="147"/>
+      <c r="C151" s="148"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F151" s="59" t="s">
+      <c r="F151" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G151" s="163" t="s">
+      <c r="G151" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="H151" s="163"/>
-      <c r="I151" s="163"/>
-      <c r="J151" s="163"/>
-      <c r="K151" s="164"/>
+      <c r="H151" s="176"/>
+      <c r="I151" s="176"/>
+      <c r="J151" s="176"/>
+      <c r="K151" s="177"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="139"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="91"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="145"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
-      <c r="J152" s="62"/>
-      <c r="K152" s="63"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="163"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="106"/>
+      <c r="I152" s="106"/>
+      <c r="J152" s="106"/>
+      <c r="K152" s="107"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="67" t="s">
+      <c r="A153" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="70"/>
-      <c r="C153" s="70"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="79"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="70"/>
-      <c r="I153" s="70"/>
-      <c r="J153" s="70"/>
-      <c r="K153" s="71"/>
+      <c r="B153" s="103"/>
+      <c r="C153" s="103"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="102"/>
+      <c r="H153" s="103"/>
+      <c r="I153" s="103"/>
+      <c r="J153" s="103"/>
+      <c r="K153" s="104"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-      <c r="K154" s="15"/>
+      <c r="A154" s="59"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="61"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="165" t="s">
+      <c r="A155" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="B155" s="166"/>
-      <c r="C155" s="166"/>
-      <c r="D155" s="167"/>
-      <c r="E155" s="90" t="s">
+      <c r="B155" s="179"/>
+      <c r="C155" s="179"/>
+      <c r="D155" s="49"/>
+      <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F155" s="59" t="s">
+      <c r="F155" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G155" s="60" t="s">
+      <c r="G155" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H155" s="60"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="61"/>
+      <c r="H155" s="144"/>
+      <c r="I155" s="144"/>
+      <c r="J155" s="144"/>
+      <c r="K155" s="145"/>
     </row>
     <row r="156" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="139"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="168"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="169"/>
-      <c r="H156" s="170"/>
-      <c r="I156" s="170"/>
-      <c r="J156" s="170"/>
-      <c r="K156" s="171"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="163"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="180"/>
+      <c r="H156" s="181"/>
+      <c r="I156" s="181"/>
+      <c r="J156" s="181"/>
+      <c r="K156" s="182"/>
     </row>
     <row r="157" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="67" t="s">
+      <c r="A157" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B157" s="68"/>
-      <c r="C157" s="138"/>
-      <c r="D157" s="96"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="106"/>
-      <c r="H157" s="107"/>
-      <c r="I157" s="107"/>
-      <c r="J157" s="107"/>
-      <c r="K157" s="108"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="161"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="129"/>
+      <c r="H157" s="130"/>
+      <c r="I157" s="130"/>
+      <c r="J157" s="130"/>
+      <c r="K157" s="131"/>
     </row>
     <row r="158" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="139"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="100"/>
-      <c r="F158" s="100"/>
-      <c r="G158" s="109"/>
-      <c r="H158" s="110"/>
-      <c r="I158" s="110"/>
-      <c r="J158" s="110"/>
-      <c r="K158" s="111"/>
+      <c r="B158" s="100"/>
+      <c r="C158" s="163"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="132"/>
+      <c r="H158" s="133"/>
+      <c r="I158" s="133"/>
+      <c r="J158" s="133"/>
+      <c r="K158" s="134"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="67" t="s">
+      <c r="A159" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="68"/>
-      <c r="C159" s="138"/>
-      <c r="D159" s="172"/>
-      <c r="E159" s="112"/>
-      <c r="F159" s="74"/>
-      <c r="G159" s="106"/>
-      <c r="H159" s="107"/>
-      <c r="I159" s="107"/>
-      <c r="J159" s="107"/>
-      <c r="K159" s="108"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="161"/>
+      <c r="D159" s="51"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="129"/>
+      <c r="H159" s="130"/>
+      <c r="I159" s="130"/>
+      <c r="J159" s="130"/>
+      <c r="K159" s="131"/>
     </row>
     <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="162"/>
-      <c r="D160" s="91"/>
-      <c r="E160" s="91"/>
-      <c r="F160" s="100"/>
-      <c r="G160" s="109"/>
-      <c r="H160" s="110"/>
-      <c r="I160" s="110"/>
-      <c r="J160" s="110"/>
-      <c r="K160" s="111"/>
+      <c r="B160" s="100"/>
+      <c r="C160" s="175"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="132"/>
+      <c r="H160" s="133"/>
+      <c r="I160" s="133"/>
+      <c r="J160" s="133"/>
+      <c r="K160" s="134"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="67" t="s">
+      <c r="A161" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="70"/>
-      <c r="C161" s="70"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="79"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="106"/>
-      <c r="H161" s="107"/>
-      <c r="I161" s="107"/>
-      <c r="J161" s="107"/>
-      <c r="K161" s="108"/>
+      <c r="B161" s="103"/>
+      <c r="C161" s="103"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="129"/>
+      <c r="H161" s="130"/>
+      <c r="I161" s="130"/>
+      <c r="J161" s="130"/>
+      <c r="K161" s="131"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="15"/>
+      <c r="A162" s="59"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="61"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="165" t="s">
+      <c r="A163" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="166"/>
-      <c r="C163" s="166"/>
-      <c r="D163" s="167"/>
-      <c r="E163" s="90" t="s">
+      <c r="B163" s="179"/>
+      <c r="C163" s="179"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="59" t="s">
+      <c r="F163" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G163" s="60" t="s">
+      <c r="G163" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H163" s="60"/>
-      <c r="I163" s="60"/>
-      <c r="J163" s="60"/>
-      <c r="K163" s="61"/>
+      <c r="H163" s="144"/>
+      <c r="I163" s="144"/>
+      <c r="J163" s="144"/>
+      <c r="K163" s="145"/>
     </row>
     <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="11"/>
-      <c r="C164" s="162"/>
-      <c r="D164" s="91"/>
-      <c r="E164" s="91"/>
-      <c r="F164" s="66"/>
-      <c r="G164" s="173"/>
-      <c r="H164" s="174"/>
-      <c r="I164" s="174"/>
-      <c r="J164" s="174"/>
-      <c r="K164" s="175"/>
+      <c r="B164" s="100"/>
+      <c r="C164" s="175"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="183"/>
+      <c r="H164" s="184"/>
+      <c r="I164" s="184"/>
+      <c r="J164" s="184"/>
+      <c r="K164" s="185"/>
     </row>
     <row r="165" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="67" t="s">
+      <c r="A165" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="68"/>
-      <c r="C165" s="138"/>
-      <c r="D165" s="95"/>
-      <c r="E165" s="123"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="113"/>
-      <c r="H165" s="114"/>
-      <c r="I165" s="114"/>
-      <c r="J165" s="114"/>
-      <c r="K165" s="115"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="161"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="123"/>
+      <c r="H165" s="124"/>
+      <c r="I165" s="124"/>
+      <c r="J165" s="124"/>
+      <c r="K165" s="125"/>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="67" t="s">
+      <c r="A166" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="70"/>
-      <c r="C166" s="70"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="79"/>
-      <c r="F166" s="74"/>
-      <c r="G166" s="113"/>
-      <c r="H166" s="114"/>
-      <c r="I166" s="114"/>
-      <c r="J166" s="114"/>
-      <c r="K166" s="115"/>
+      <c r="B166" s="103"/>
+      <c r="C166" s="103"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="123"/>
+      <c r="H166" s="124"/>
+      <c r="I166" s="124"/>
+      <c r="J166" s="124"/>
+      <c r="K166" s="125"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="13"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="14"/>
-      <c r="K167" s="15"/>
+      <c r="A167" s="59"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="60"/>
+      <c r="F167" s="60"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
+      <c r="I167" s="60"/>
+      <c r="J167" s="60"/>
+      <c r="K167" s="61"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="165" t="s">
+      <c r="A168" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="166"/>
-      <c r="C168" s="166"/>
-      <c r="D168" s="167"/>
-      <c r="E168" s="90" t="s">
+      <c r="B168" s="179"/>
+      <c r="C168" s="179"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F168" s="59" t="s">
+      <c r="F168" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G168" s="60" t="s">
+      <c r="G168" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H168" s="60"/>
-      <c r="I168" s="60"/>
-      <c r="J168" s="60"/>
-      <c r="K168" s="61"/>
+      <c r="H168" s="144"/>
+      <c r="I168" s="144"/>
+      <c r="J168" s="144"/>
+      <c r="K168" s="145"/>
     </row>
     <row r="169" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="139"/>
-      <c r="D169" s="176"/>
-      <c r="E169" s="177"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="173"/>
-      <c r="H169" s="174"/>
-      <c r="I169" s="174"/>
-      <c r="J169" s="174"/>
-      <c r="K169" s="175"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="163"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="183"/>
+      <c r="H169" s="184"/>
+      <c r="I169" s="184"/>
+      <c r="J169" s="184"/>
+      <c r="K169" s="185"/>
     </row>
     <row r="170" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="14"/>
-      <c r="C170" s="151"/>
-      <c r="D170" s="152"/>
-      <c r="E170" s="178"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="173"/>
-      <c r="H170" s="174"/>
-      <c r="I170" s="174"/>
-      <c r="J170" s="174"/>
-      <c r="K170" s="175"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="164"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="54"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="183"/>
+      <c r="H170" s="184"/>
+      <c r="I170" s="184"/>
+      <c r="J170" s="184"/>
+      <c r="K170" s="185"/>
     </row>
     <row r="171" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="67" t="s">
+      <c r="A171" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="68"/>
-      <c r="C171" s="138"/>
-      <c r="D171" s="95"/>
-      <c r="E171" s="123"/>
-      <c r="F171" s="74"/>
-      <c r="G171" s="113"/>
-      <c r="H171" s="114"/>
-      <c r="I171" s="114"/>
-      <c r="J171" s="114"/>
-      <c r="K171" s="115"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="161"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="38"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="123"/>
+      <c r="H171" s="124"/>
+      <c r="I171" s="124"/>
+      <c r="J171" s="124"/>
+      <c r="K171" s="125"/>
     </row>
     <row r="172" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="67" t="s">
+      <c r="A172" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="68"/>
-      <c r="C172" s="138"/>
-      <c r="D172" s="95"/>
-      <c r="E172" s="123"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="113"/>
-      <c r="H172" s="114"/>
-      <c r="I172" s="114"/>
-      <c r="J172" s="114"/>
-      <c r="K172" s="115"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="161"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="123"/>
+      <c r="H172" s="124"/>
+      <c r="I172" s="124"/>
+      <c r="J172" s="124"/>
+      <c r="K172" s="125"/>
     </row>
     <row r="173" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="139"/>
-      <c r="D173" s="176"/>
-      <c r="E173" s="179"/>
-      <c r="F173" s="100"/>
-      <c r="G173" s="117"/>
-      <c r="H173" s="118"/>
-      <c r="I173" s="118"/>
-      <c r="J173" s="118"/>
-      <c r="K173" s="119"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="163"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="135"/>
+      <c r="H173" s="136"/>
+      <c r="I173" s="136"/>
+      <c r="J173" s="136"/>
+      <c r="K173" s="137"/>
     </row>
     <row r="174" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="67" t="s">
+      <c r="A174" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B174" s="68"/>
-      <c r="C174" s="99"/>
-      <c r="D174" s="95"/>
-      <c r="E174" s="123"/>
-      <c r="F174" s="74"/>
-      <c r="G174" s="113"/>
-      <c r="H174" s="114"/>
-      <c r="I174" s="114"/>
-      <c r="J174" s="114"/>
-      <c r="K174" s="115"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="149"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="123"/>
+      <c r="H174" s="124"/>
+      <c r="I174" s="124"/>
+      <c r="J174" s="124"/>
+      <c r="K174" s="125"/>
     </row>
     <row r="175" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="B175" s="11"/>
-      <c r="C175" s="162"/>
-      <c r="D175" s="91"/>
-      <c r="E175" s="120"/>
-      <c r="F175" s="100"/>
-      <c r="G175" s="117"/>
-      <c r="H175" s="118"/>
-      <c r="I175" s="118"/>
-      <c r="J175" s="118"/>
-      <c r="K175" s="119"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="175"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="135"/>
+      <c r="H175" s="136"/>
+      <c r="I175" s="136"/>
+      <c r="J175" s="136"/>
+      <c r="K175" s="137"/>
     </row>
     <row r="176" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="67" t="s">
+      <c r="A176" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B176" s="68"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="180"/>
-      <c r="E176" s="122"/>
-      <c r="F176" s="74"/>
-      <c r="G176" s="113"/>
-      <c r="H176" s="114"/>
-      <c r="I176" s="114"/>
-      <c r="J176" s="114"/>
-      <c r="K176" s="115"/>
+      <c r="B176" s="63"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="56"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="123"/>
+      <c r="H176" s="124"/>
+      <c r="I176" s="124"/>
+      <c r="J176" s="124"/>
+      <c r="K176" s="125"/>
     </row>
     <row r="177" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="181"/>
-      <c r="E177" s="179"/>
-      <c r="F177" s="100"/>
-      <c r="G177" s="117"/>
-      <c r="H177" s="118"/>
-      <c r="I177" s="118"/>
-      <c r="J177" s="118"/>
-      <c r="K177" s="119"/>
+      <c r="B177" s="100"/>
+      <c r="C177" s="100"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="135"/>
+      <c r="H177" s="136"/>
+      <c r="I177" s="136"/>
+      <c r="J177" s="136"/>
+      <c r="K177" s="137"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="67" t="s">
+      <c r="A178" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B178" s="70"/>
-      <c r="C178" s="70"/>
-      <c r="D178" s="74"/>
-      <c r="E178" s="79"/>
-      <c r="F178" s="74"/>
-      <c r="G178" s="113"/>
-      <c r="H178" s="114"/>
-      <c r="I178" s="114"/>
-      <c r="J178" s="114"/>
-      <c r="K178" s="115"/>
+      <c r="B178" s="103"/>
+      <c r="C178" s="103"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="124"/>
+      <c r="I178" s="124"/>
+      <c r="J178" s="124"/>
+      <c r="K178" s="125"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="14"/>
-      <c r="K179" s="15"/>
+      <c r="A179" s="59"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="60"/>
+      <c r="D179" s="60"/>
+      <c r="E179" s="60"/>
+      <c r="F179" s="60"/>
+      <c r="G179" s="60"/>
+      <c r="H179" s="60"/>
+      <c r="I179" s="60"/>
+      <c r="J179" s="60"/>
+      <c r="K179" s="61"/>
     </row>
     <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="75" t="s">
+      <c r="A180" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="B180" s="76"/>
-      <c r="C180" s="77"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="59" t="s">
+      <c r="B180" s="147"/>
+      <c r="C180" s="148"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F180" s="59" t="s">
+      <c r="F180" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G180" s="163" t="s">
+      <c r="G180" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="H180" s="163"/>
-      <c r="I180" s="163"/>
-      <c r="J180" s="163"/>
-      <c r="K180" s="164"/>
+      <c r="H180" s="176"/>
+      <c r="I180" s="176"/>
+      <c r="J180" s="176"/>
+      <c r="K180" s="177"/>
     </row>
     <row r="181" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="67" t="s">
+      <c r="A181" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B181" s="68"/>
-      <c r="C181" s="69"/>
-      <c r="D181" s="80"/>
-      <c r="E181" s="81"/>
-      <c r="F181" s="74"/>
-      <c r="G181" s="67"/>
-      <c r="H181" s="68"/>
-      <c r="I181" s="68"/>
-      <c r="J181" s="68"/>
-      <c r="K181" s="69"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="64"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="62"/>
+      <c r="H181" s="63"/>
+      <c r="I181" s="63"/>
+      <c r="J181" s="63"/>
+      <c r="K181" s="64"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="67" t="s">
+      <c r="A182" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B182" s="70"/>
-      <c r="C182" s="71"/>
-      <c r="D182" s="74"/>
-      <c r="E182" s="79"/>
-      <c r="F182" s="74"/>
-      <c r="G182" s="16"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="18"/>
+      <c r="B182" s="103"/>
+      <c r="C182" s="104"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="65"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="66"/>
+      <c r="J182" s="66"/>
+      <c r="K182" s="67"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="13"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
-      <c r="K183" s="15"/>
+      <c r="A183" s="59"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="60"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="60"/>
+      <c r="H183" s="60"/>
+      <c r="I183" s="60"/>
+      <c r="J183" s="60"/>
+      <c r="K183" s="61"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="75" t="s">
+      <c r="A184" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="B184" s="76"/>
-      <c r="C184" s="77"/>
-      <c r="D184" s="78"/>
-      <c r="E184" s="59" t="s">
+      <c r="B184" s="147"/>
+      <c r="C184" s="148"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F184" s="59" t="s">
+      <c r="F184" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G184" s="163" t="s">
+      <c r="G184" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="H184" s="163"/>
-      <c r="I184" s="163"/>
-      <c r="J184" s="163"/>
-      <c r="K184" s="164"/>
+      <c r="H184" s="176"/>
+      <c r="I184" s="176"/>
+      <c r="J184" s="176"/>
+      <c r="K184" s="177"/>
     </row>
     <row r="185" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="B185" s="11"/>
-      <c r="C185" s="139"/>
-      <c r="D185" s="91"/>
-      <c r="E185" s="91"/>
-      <c r="F185" s="66"/>
-      <c r="G185" s="145"/>
-      <c r="H185" s="62"/>
-      <c r="I185" s="62"/>
-      <c r="J185" s="62"/>
-      <c r="K185" s="63"/>
+      <c r="B185" s="100"/>
+      <c r="C185" s="163"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="105"/>
+      <c r="H185" s="106"/>
+      <c r="I185" s="106"/>
+      <c r="J185" s="106"/>
+      <c r="K185" s="107"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="67" t="s">
+      <c r="A186" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B186" s="70"/>
-      <c r="C186" s="70"/>
-      <c r="D186" s="74"/>
-      <c r="E186" s="79"/>
-      <c r="F186" s="74"/>
-      <c r="G186" s="85"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
-      <c r="J186" s="70"/>
-      <c r="K186" s="71"/>
+      <c r="B186" s="103"/>
+      <c r="C186" s="103"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="102"/>
+      <c r="H186" s="103"/>
+      <c r="I186" s="103"/>
+      <c r="J186" s="103"/>
+      <c r="K186" s="104"/>
     </row>
     <row r="187" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="13"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
-      <c r="K187" s="15"/>
+      <c r="A187" s="59"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="60"/>
+      <c r="D187" s="60"/>
+      <c r="E187" s="60"/>
+      <c r="F187" s="60"/>
+      <c r="G187" s="60"/>
+      <c r="H187" s="60"/>
+      <c r="I187" s="60"/>
+      <c r="J187" s="60"/>
+      <c r="K187" s="61"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="182" t="s">
+      <c r="A188" s="195" t="s">
         <v>151</v>
       </c>
-      <c r="B188" s="183"/>
-      <c r="C188" s="183"/>
-      <c r="D188" s="133"/>
-      <c r="E188" s="184" t="s">
+      <c r="B188" s="196"/>
+      <c r="C188" s="196"/>
+      <c r="D188" s="43"/>
+      <c r="E188" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F188" s="59" t="s">
+      <c r="F188" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G188" s="163" t="s">
+      <c r="G188" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="H188" s="163"/>
-      <c r="I188" s="163"/>
-      <c r="J188" s="163"/>
-      <c r="K188" s="164"/>
+      <c r="H188" s="176"/>
+      <c r="I188" s="176"/>
+      <c r="J188" s="176"/>
+      <c r="K188" s="177"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="82" t="s">
+      <c r="A189" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="B189" s="83"/>
-      <c r="C189" s="185"/>
-      <c r="D189" s="91"/>
-      <c r="E189" s="91"/>
-      <c r="F189" s="66"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
-      <c r="K189" s="15"/>
+      <c r="B189" s="118"/>
+      <c r="C189" s="197"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="59"/>
+      <c r="H189" s="60"/>
+      <c r="I189" s="60"/>
+      <c r="J189" s="60"/>
+      <c r="K189" s="61"/>
     </row>
     <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="67" t="s">
+      <c r="A190" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B190" s="70"/>
-      <c r="C190" s="70"/>
-      <c r="D190" s="74"/>
-      <c r="E190" s="79"/>
-      <c r="F190" s="74"/>
-      <c r="G190" s="67"/>
-      <c r="H190" s="68"/>
-      <c r="I190" s="68"/>
-      <c r="J190" s="68"/>
-      <c r="K190" s="69"/>
+      <c r="B190" s="103"/>
+      <c r="C190" s="103"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="62"/>
+      <c r="H190" s="63"/>
+      <c r="I190" s="63"/>
+      <c r="J190" s="63"/>
+      <c r="K190" s="64"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="67"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="68"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="68"/>
-      <c r="F191" s="68"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="68"/>
-      <c r="I191" s="68"/>
-      <c r="J191" s="68"/>
-      <c r="K191" s="69"/>
+      <c r="A191" s="62"/>
+      <c r="B191" s="63"/>
+      <c r="C191" s="63"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="63"/>
+      <c r="F191" s="63"/>
+      <c r="G191" s="63"/>
+      <c r="H191" s="63"/>
+      <c r="I191" s="63"/>
+      <c r="J191" s="63"/>
+      <c r="K191" s="64"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="B192" s="44"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="44"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="44"/>
-      <c r="I192" s="44"/>
-      <c r="J192" s="44"/>
-      <c r="K192" s="45"/>
+      <c r="B192" s="79"/>
+      <c r="C192" s="79"/>
+      <c r="D192" s="79"/>
+      <c r="E192" s="79"/>
+      <c r="F192" s="79"/>
+      <c r="G192" s="79"/>
+      <c r="H192" s="79"/>
+      <c r="I192" s="79"/>
+      <c r="J192" s="79"/>
+      <c r="K192" s="80"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="186" t="s">
@@ -6736,49 +6748,49 @@
       <c r="K193" s="188"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="189" t="s">
+      <c r="A194" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="B194" s="190"/>
-      <c r="C194" s="190"/>
-      <c r="D194" s="191"/>
-      <c r="E194" s="191"/>
-      <c r="F194" s="191"/>
-      <c r="G194" s="191"/>
-      <c r="H194" s="191"/>
-      <c r="I194" s="191"/>
-      <c r="J194" s="191"/>
-      <c r="K194" s="192"/>
+      <c r="B194" s="203"/>
+      <c r="C194" s="203"/>
+      <c r="D194" s="189"/>
+      <c r="E194" s="189"/>
+      <c r="F194" s="189"/>
+      <c r="G194" s="189"/>
+      <c r="H194" s="189"/>
+      <c r="I194" s="189"/>
+      <c r="J194" s="189"/>
+      <c r="K194" s="190"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="193" t="s">
+      <c r="A195" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="194"/>
-      <c r="C195" s="194"/>
-      <c r="D195" s="195"/>
-      <c r="E195" s="195"/>
-      <c r="F195" s="195"/>
-      <c r="G195" s="195"/>
-      <c r="H195" s="195"/>
-      <c r="I195" s="195"/>
-      <c r="J195" s="195"/>
-      <c r="K195" s="196"/>
+      <c r="B195" s="205"/>
+      <c r="C195" s="205"/>
+      <c r="D195" s="191"/>
+      <c r="E195" s="191"/>
+      <c r="F195" s="191"/>
+      <c r="G195" s="191"/>
+      <c r="H195" s="191"/>
+      <c r="I195" s="191"/>
+      <c r="J195" s="191"/>
+      <c r="K195" s="192"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="197" t="s">
+      <c r="A196" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B196" s="198"/>
-      <c r="C196" s="198"/>
-      <c r="D196" s="199"/>
-      <c r="E196" s="199"/>
-      <c r="F196" s="199"/>
-      <c r="G196" s="199"/>
-      <c r="H196" s="199"/>
-      <c r="I196" s="199"/>
-      <c r="J196" s="199"/>
-      <c r="K196" s="200"/>
+      <c r="B196" s="207"/>
+      <c r="C196" s="207"/>
+      <c r="D196" s="193"/>
+      <c r="E196" s="193"/>
+      <c r="F196" s="193"/>
+      <c r="G196" s="193"/>
+      <c r="H196" s="193"/>
+      <c r="I196" s="193"/>
+      <c r="J196" s="193"/>
+      <c r="K196" s="194"/>
     </row>
     <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="186" t="s">
@@ -6796,49 +6808,49 @@
       <c r="K197" s="188"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="189" t="s">
+      <c r="A198" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="B198" s="190"/>
-      <c r="C198" s="190"/>
-      <c r="D198" s="191"/>
-      <c r="E198" s="191"/>
-      <c r="F198" s="191"/>
-      <c r="G198" s="191"/>
-      <c r="H198" s="191"/>
-      <c r="I198" s="191"/>
-      <c r="J198" s="191"/>
-      <c r="K198" s="192"/>
+      <c r="B198" s="203"/>
+      <c r="C198" s="203"/>
+      <c r="D198" s="189"/>
+      <c r="E198" s="189"/>
+      <c r="F198" s="189"/>
+      <c r="G198" s="189"/>
+      <c r="H198" s="189"/>
+      <c r="I198" s="189"/>
+      <c r="J198" s="189"/>
+      <c r="K198" s="190"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="193" t="s">
+      <c r="A199" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="194"/>
-      <c r="C199" s="194"/>
-      <c r="D199" s="195"/>
-      <c r="E199" s="195"/>
-      <c r="F199" s="195"/>
-      <c r="G199" s="195"/>
-      <c r="H199" s="195"/>
-      <c r="I199" s="195"/>
-      <c r="J199" s="195"/>
-      <c r="K199" s="196"/>
+      <c r="B199" s="205"/>
+      <c r="C199" s="205"/>
+      <c r="D199" s="191"/>
+      <c r="E199" s="191"/>
+      <c r="F199" s="191"/>
+      <c r="G199" s="191"/>
+      <c r="H199" s="191"/>
+      <c r="I199" s="191"/>
+      <c r="J199" s="191"/>
+      <c r="K199" s="192"/>
     </row>
     <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="197" t="s">
+      <c r="A200" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="198"/>
-      <c r="C200" s="198"/>
-      <c r="D200" s="199"/>
-      <c r="E200" s="199"/>
-      <c r="F200" s="199"/>
-      <c r="G200" s="199"/>
-      <c r="H200" s="199"/>
-      <c r="I200" s="199"/>
-      <c r="J200" s="199"/>
-      <c r="K200" s="200"/>
+      <c r="B200" s="207"/>
+      <c r="C200" s="207"/>
+      <c r="D200" s="193"/>
+      <c r="E200" s="193"/>
+      <c r="F200" s="193"/>
+      <c r="G200" s="193"/>
+      <c r="H200" s="193"/>
+      <c r="I200" s="193"/>
+      <c r="J200" s="193"/>
+      <c r="K200" s="194"/>
     </row>
     <row r="201" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="186" t="s">
@@ -6856,124 +6868,304 @@
       <c r="K201" s="188"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="189" t="s">
+      <c r="A202" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="B202" s="190"/>
-      <c r="C202" s="190"/>
-      <c r="D202" s="191"/>
-      <c r="E202" s="191"/>
-      <c r="F202" s="191"/>
-      <c r="G202" s="191"/>
-      <c r="H202" s="191"/>
-      <c r="I202" s="191"/>
-      <c r="J202" s="191"/>
-      <c r="K202" s="192"/>
+      <c r="B202" s="203"/>
+      <c r="C202" s="203"/>
+      <c r="D202" s="189"/>
+      <c r="E202" s="189"/>
+      <c r="F202" s="189"/>
+      <c r="G202" s="189"/>
+      <c r="H202" s="189"/>
+      <c r="I202" s="189"/>
+      <c r="J202" s="189"/>
+      <c r="K202" s="190"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="193" t="s">
+      <c r="A203" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="194"/>
-      <c r="C203" s="194"/>
-      <c r="D203" s="195"/>
-      <c r="E203" s="195"/>
-      <c r="F203" s="195"/>
-      <c r="G203" s="195"/>
-      <c r="H203" s="195"/>
-      <c r="I203" s="195"/>
-      <c r="J203" s="195"/>
-      <c r="K203" s="196"/>
+      <c r="B203" s="205"/>
+      <c r="C203" s="205"/>
+      <c r="D203" s="191"/>
+      <c r="E203" s="191"/>
+      <c r="F203" s="191"/>
+      <c r="G203" s="191"/>
+      <c r="H203" s="191"/>
+      <c r="I203" s="191"/>
+      <c r="J203" s="191"/>
+      <c r="K203" s="192"/>
     </row>
     <row r="204" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="201" t="s">
+      <c r="A204" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="202"/>
-      <c r="C204" s="202"/>
-      <c r="D204" s="203"/>
-      <c r="E204" s="203"/>
-      <c r="F204" s="203"/>
-      <c r="G204" s="203"/>
-      <c r="H204" s="203"/>
-      <c r="I204" s="203"/>
-      <c r="J204" s="203"/>
-      <c r="K204" s="204"/>
+      <c r="B204" s="199"/>
+      <c r="C204" s="199"/>
+      <c r="D204" s="200"/>
+      <c r="E204" s="200"/>
+      <c r="F204" s="200"/>
+      <c r="G204" s="200"/>
+      <c r="H204" s="200"/>
+      <c r="I204" s="200"/>
+      <c r="J204" s="200"/>
+      <c r="K204" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="373">
-    <mergeCell ref="A145:K145"/>
-    <mergeCell ref="A150:K150"/>
-    <mergeCell ref="A154:K154"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A167:K167"/>
-    <mergeCell ref="G181:K181"/>
-    <mergeCell ref="G182:K182"/>
-    <mergeCell ref="A191:K191"/>
-    <mergeCell ref="A187:K187"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A179:K179"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="G133:K133"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A119:K119"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="A137:K137"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D203:K203"/>
+    <mergeCell ref="D204:K204"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D199:K199"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="A192:K192"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="G189:K189"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="G180:K180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="G185:K185"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="G173:K173"/>
+    <mergeCell ref="G174:K174"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="G175:K175"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="G155:K155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="G156:K156"/>
+    <mergeCell ref="G157:K157"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="G165:K165"/>
+    <mergeCell ref="G166:K166"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="G138:K138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="G139:K139"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="G141:K141"/>
+    <mergeCell ref="G143:K143"/>
+    <mergeCell ref="G142:K142"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A114:K114"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="G78:K78"/>
     <mergeCell ref="G77:K77"/>
     <mergeCell ref="G76:K76"/>
@@ -6998,126 +7190,29 @@
     <mergeCell ref="G56:K56"/>
     <mergeCell ref="G57:K57"/>
     <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A119:K119"/>
     <mergeCell ref="A129:K129"/>
     <mergeCell ref="G130:K130"/>
     <mergeCell ref="A115:C115"/>
@@ -7128,33 +7223,57 @@
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="G110:K110"/>
     <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A114:K114"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="G138:K138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="G139:K139"/>
-    <mergeCell ref="G140:K140"/>
-    <mergeCell ref="G141:K141"/>
-    <mergeCell ref="G143:K143"/>
-    <mergeCell ref="G142:K142"/>
-    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="A150:K150"/>
+    <mergeCell ref="A154:K154"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A167:K167"/>
+    <mergeCell ref="G181:K181"/>
+    <mergeCell ref="G182:K182"/>
+    <mergeCell ref="A191:K191"/>
+    <mergeCell ref="A187:K187"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A179:K179"/>
     <mergeCell ref="A151:C151"/>
     <mergeCell ref="G151:K151"/>
     <mergeCell ref="A152:C152"/>
@@ -7168,113 +7287,6 @@
     <mergeCell ref="G148:K148"/>
     <mergeCell ref="G149:K149"/>
     <mergeCell ref="G152:K152"/>
-    <mergeCell ref="G153:K153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="G155:K155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="G156:K156"/>
-    <mergeCell ref="G157:K157"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="G164:K164"/>
-    <mergeCell ref="G165:K165"/>
-    <mergeCell ref="G166:K166"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="G173:K173"/>
-    <mergeCell ref="G174:K174"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="G175:K175"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="G184:K184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="G180:K180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="G185:K185"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="A193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="A192:K192"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="G188:K188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="G189:K189"/>
-    <mergeCell ref="G190:K190"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D203:K203"/>
-    <mergeCell ref="D204:K204"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D199:K199"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A137:K137"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
   </mergeCells>
   <pageMargins left="0.4375" right="0.35416666666666669" top="1.6875" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7286,4 +7298,39 @@
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="209" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="208" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="208" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="208" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
+++ b/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
@@ -1677,73 +1677,358 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1774,15 +2059,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,292 +2115,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3768,7 +3768,7 @@
   <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3789,206 +3789,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="163"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="169"/>
+      <c r="D3" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="185"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="119"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="188"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>2</v>
@@ -3996,123 +3996,123 @@
       <c r="F14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="10"/>
       <c r="E16" s="48"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="10"/>
       <c r="E17" s="44"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="10"/>
       <c r="E18" s="48"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="10"/>
       <c r="E19" s="48"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="104"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="10"/>
       <c r="E20" s="48"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="11"/>
       <c r="E22" s="6" t="s">
         <v>2</v>
@@ -4120,108 +4120,108 @@
       <c r="F22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="123"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="150"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="10"/>
       <c r="E25" s="47"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="10"/>
       <c r="E26" s="48"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="10"/>
       <c r="E27" s="48"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
         <v>2</v>
@@ -4229,213 +4229,213 @@
       <c r="F29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="10"/>
       <c r="E31" s="17"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="139"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="10"/>
       <c r="E32" s="18"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="139"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="10"/>
       <c r="E33" s="18"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="139"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="10"/>
       <c r="E34" s="18"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="139"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="139"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="139"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="139"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="10"/>
       <c r="E38" s="18"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="139"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="10"/>
       <c r="E39" s="19"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="48"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="48"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="20"/>
       <c r="E43" s="15" t="s">
         <v>2</v>
@@ -4443,123 +4443,123 @@
       <c r="F43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="143" t="s">
+      <c r="G43" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="145"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="142"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="139"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="10"/>
       <c r="E44" s="16"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="53"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="139"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="53"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="139"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="53"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="139"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="10"/>
       <c r="E47" s="18"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="48"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="56"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="48"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="136"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="138"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="145"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="23"/>
       <c r="E51" s="21" t="s">
         <v>2</v>
@@ -4567,258 +4567,258 @@
       <c r="F51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="152" t="s">
+      <c r="G51" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="153"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="133"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="10"/>
       <c r="E52" s="25"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="135"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="124"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="135"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="124"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="10"/>
       <c r="E54" s="22"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="148"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="127"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="10"/>
       <c r="E55" s="26"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="129"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="110"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="149"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="151"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="113"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="10"/>
       <c r="E57" s="18"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="129"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="110"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="10"/>
       <c r="E58" s="27"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="151"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="112"/>
+      <c r="K58" s="113"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="10"/>
       <c r="E59" s="28"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="129"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="110"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="10"/>
       <c r="E60" s="29"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="129"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="110"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="10"/>
       <c r="E61" s="29"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="129"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="110"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="10"/>
       <c r="E62" s="29"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="128"/>
-      <c r="J62" s="128"/>
-      <c r="K62" s="129"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="110"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="10"/>
       <c r="E63" s="30"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="131"/>
-      <c r="J63" s="131"/>
-      <c r="K63" s="132"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="156"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="10"/>
       <c r="E64" s="31"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="132"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="156"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="10"/>
       <c r="E65" s="48"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="56"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="104"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="10"/>
       <c r="E66" s="48"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="56"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="104"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="59"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="57"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
       <c r="D68" s="32"/>
       <c r="E68" s="33" t="s">
         <v>2</v>
@@ -4826,123 +4826,123 @@
       <c r="F68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="163" t="s">
+      <c r="G68" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="164"/>
-      <c r="I68" s="164"/>
-      <c r="J68" s="164"/>
-      <c r="K68" s="165"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
+      <c r="J68" s="158"/>
+      <c r="K68" s="159"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="68"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="117"/>
       <c r="D69" s="10"/>
       <c r="E69" s="18"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="53"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="54"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="98"/>
       <c r="D70" s="10"/>
       <c r="E70" s="16"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="112"/>
-      <c r="K70" s="113"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="148"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="68"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="117"/>
       <c r="D71" s="10"/>
       <c r="E71" s="18"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="110"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="51"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="66"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="68"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="117"/>
       <c r="D72" s="10"/>
       <c r="E72" s="18"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="110"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="66"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="10"/>
       <c r="E73" s="48"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="56"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="104"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="10"/>
       <c r="E74" s="48"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="56"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="104"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="59"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="57"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="61"/>
-      <c r="C76" s="62"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="11"/>
       <c r="E76" s="6" t="s">
         <v>2</v>
@@ -4950,108 +4950,108 @@
       <c r="F76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="161" t="s">
+      <c r="G76" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="161"/>
-      <c r="I76" s="161"/>
-      <c r="J76" s="161"/>
-      <c r="K76" s="162"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="128"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="129"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="10"/>
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="123"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="150"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="10"/>
       <c r="E78" s="18"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="71"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
+      <c r="K78" s="101"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="10"/>
       <c r="E79" s="18"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="110"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="51"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="66"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="10"/>
       <c r="E80" s="48"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="56"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="103"/>
+      <c r="J80" s="103"/>
+      <c r="K80" s="104"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="10"/>
       <c r="E81" s="48"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="104"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="59"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="57"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="62"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="11"/>
       <c r="E83" s="6" t="s">
         <v>2</v>
@@ -5059,78 +5059,78 @@
       <c r="F83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="161" t="s">
+      <c r="G83" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="161"/>
-      <c r="I83" s="161"/>
-      <c r="J83" s="161"/>
-      <c r="K83" s="162"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="128"/>
+      <c r="K83" s="129"/>
     </row>
     <row r="84" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="10"/>
       <c r="E84" s="47"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="155"/>
-      <c r="I84" s="155"/>
-      <c r="J84" s="155"/>
-      <c r="K84" s="156"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="135"/>
+      <c r="I84" s="135"/>
+      <c r="J84" s="135"/>
+      <c r="K84" s="136"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="10"/>
       <c r="E85" s="48"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="56"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="103"/>
+      <c r="J85" s="103"/>
+      <c r="K85" s="104"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="10"/>
       <c r="E86" s="48"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="56"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="103"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="104"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="65"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="109"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="61"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="60" t="s">
+      <c r="A88" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="11"/>
       <c r="E88" s="6" t="s">
         <v>2</v>
@@ -5138,408 +5138,408 @@
       <c r="F88" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="161" t="s">
+      <c r="G88" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="161"/>
-      <c r="I88" s="161"/>
-      <c r="J88" s="161"/>
-      <c r="K88" s="162"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
+      <c r="K88" s="129"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="139"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="58"/>
       <c r="D89" s="10"/>
       <c r="E89" s="16"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="59"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="57"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="52"/>
-      <c r="C90" s="139"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="10"/>
       <c r="E90" s="18"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="110"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="51"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="66"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="49" t="s">
+      <c r="A91" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B91" s="52"/>
-      <c r="C91" s="139"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="10"/>
       <c r="E91" s="16"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="112"/>
-      <c r="I91" s="112"/>
-      <c r="J91" s="112"/>
-      <c r="K91" s="113"/>
+      <c r="G91" s="146"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="147"/>
+      <c r="J91" s="147"/>
+      <c r="K91" s="148"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="52"/>
-      <c r="C92" s="139"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="10"/>
       <c r="E92" s="18"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="110"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="51"/>
+      <c r="G92" s="149"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="66"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="65" t="s">
+      <c r="A93" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="10"/>
       <c r="E93" s="16"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="112"/>
-      <c r="I93" s="112"/>
-      <c r="J93" s="112"/>
-      <c r="K93" s="113"/>
+      <c r="G93" s="146"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="147"/>
+      <c r="J93" s="147"/>
+      <c r="K93" s="148"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="10"/>
       <c r="E94" s="18"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="53"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="54"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
       <c r="D95" s="10"/>
       <c r="E95" s="18"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="110"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51"/>
+      <c r="G95" s="149"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="66"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="65" t="s">
+      <c r="A96" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="10"/>
       <c r="E96" s="16"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="112"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="112"/>
-      <c r="K96" s="113"/>
+      <c r="G96" s="146"/>
+      <c r="H96" s="147"/>
+      <c r="I96" s="147"/>
+      <c r="J96" s="147"/>
+      <c r="K96" s="148"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="10"/>
       <c r="E97" s="18"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="110"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="51"/>
+      <c r="G97" s="149"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="66"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="10"/>
       <c r="E98" s="16"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="112"/>
-      <c r="I98" s="112"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="113"/>
+      <c r="G98" s="146"/>
+      <c r="H98" s="147"/>
+      <c r="I98" s="147"/>
+      <c r="J98" s="147"/>
+      <c r="K98" s="148"/>
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
       <c r="D99" s="10"/>
       <c r="E99" s="18"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="51"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="66"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="10"/>
       <c r="E100" s="16"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="113"/>
+      <c r="G100" s="146"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="147"/>
+      <c r="J100" s="147"/>
+      <c r="K100" s="148"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="10"/>
       <c r="E101" s="18"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="110"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="51"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="66"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
       <c r="D102" s="10"/>
       <c r="E102" s="16"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="112"/>
-      <c r="I102" s="112"/>
-      <c r="J102" s="112"/>
-      <c r="K102" s="113"/>
+      <c r="G102" s="146"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="147"/>
+      <c r="J102" s="147"/>
+      <c r="K102" s="148"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="10"/>
       <c r="E103" s="18"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="110"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="51"/>
+      <c r="G103" s="149"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="66"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="65" t="s">
+      <c r="A104" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="10"/>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="112"/>
-      <c r="I104" s="112"/>
-      <c r="J104" s="112"/>
-      <c r="K104" s="113"/>
+      <c r="G104" s="146"/>
+      <c r="H104" s="147"/>
+      <c r="I104" s="147"/>
+      <c r="J104" s="147"/>
+      <c r="K104" s="148"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="10"/>
       <c r="E105" s="18"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="51"/>
+      <c r="G105" s="149"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="66"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="10"/>
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="112"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="113"/>
+      <c r="G106" s="146"/>
+      <c r="H106" s="147"/>
+      <c r="I106" s="147"/>
+      <c r="J106" s="147"/>
+      <c r="K106" s="148"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
       <c r="D107" s="10"/>
       <c r="E107" s="18"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="51"/>
+      <c r="G107" s="149"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="66"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="65" t="s">
+      <c r="A108" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="10"/>
       <c r="E108" s="16"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="112"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="112"/>
-      <c r="K108" s="113"/>
+      <c r="G108" s="146"/>
+      <c r="H108" s="147"/>
+      <c r="I108" s="147"/>
+      <c r="J108" s="147"/>
+      <c r="K108" s="148"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
       <c r="D109" s="10"/>
       <c r="E109" s="18"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="110"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="51"/>
+      <c r="G109" s="149"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="66"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="65" t="s">
+      <c r="A110" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="10"/>
       <c r="E110" s="16"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="112"/>
-      <c r="I110" s="112"/>
-      <c r="J110" s="112"/>
-      <c r="K110" s="113"/>
+      <c r="G110" s="146"/>
+      <c r="H110" s="147"/>
+      <c r="I110" s="147"/>
+      <c r="J110" s="147"/>
+      <c r="K110" s="148"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="49" t="s">
+      <c r="A111" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
       <c r="D111" s="10"/>
       <c r="E111" s="18"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="110"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="51"/>
+      <c r="G111" s="149"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="66"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="51"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="66"/>
       <c r="D112" s="10"/>
       <c r="E112" s="48"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="55"/>
-      <c r="J112" s="55"/>
-      <c r="K112" s="56"/>
+      <c r="G112" s="102"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="103"/>
+      <c r="J112" s="103"/>
+      <c r="K112" s="104"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="51"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="66"/>
       <c r="D113" s="10"/>
       <c r="E113" s="48"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="55"/>
-      <c r="K113" s="56"/>
+      <c r="G113" s="102"/>
+      <c r="H113" s="103"/>
+      <c r="I113" s="103"/>
+      <c r="J113" s="103"/>
+      <c r="K113" s="104"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="49"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="53"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="53"/>
+      <c r="J114" s="53"/>
+      <c r="K114" s="54"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B115" s="61"/>
-      <c r="C115" s="62"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="64"/>
       <c r="D115" s="34"/>
       <c r="E115" s="6" t="s">
         <v>2</v>
@@ -5547,183 +5547,183 @@
       <c r="F115" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="161" t="s">
+      <c r="G115" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="H115" s="161"/>
-      <c r="I115" s="161"/>
-      <c r="J115" s="161"/>
-      <c r="K115" s="162"/>
+      <c r="H115" s="128"/>
+      <c r="I115" s="128"/>
+      <c r="J115" s="128"/>
+      <c r="K115" s="129"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="68"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="117"/>
       <c r="D116" s="10"/>
       <c r="E116" s="19"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="52"/>
-      <c r="J116" s="52"/>
-      <c r="K116" s="53"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="68"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="117"/>
       <c r="D117" s="10"/>
       <c r="E117" s="19"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="110"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="51"/>
+      <c r="G117" s="149"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="66"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="65" t="s">
+      <c r="A118" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="66"/>
-      <c r="C118" s="67"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="98"/>
       <c r="D118" s="10"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
-      <c r="K118" s="71"/>
+      <c r="G118" s="99"/>
+      <c r="H118" s="100"/>
+      <c r="I118" s="100"/>
+      <c r="J118" s="100"/>
+      <c r="K118" s="101"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="68"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="117"/>
       <c r="D119" s="10"/>
       <c r="E119" s="19"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="110"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="51"/>
+      <c r="G119" s="149"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="65"/>
+      <c r="J119" s="65"/>
+      <c r="K119" s="66"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="65" t="s">
+      <c r="A120" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="66"/>
-      <c r="C120" s="67"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="98"/>
       <c r="D120" s="10"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="111"/>
-      <c r="H120" s="112"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="113"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="147"/>
+      <c r="I120" s="147"/>
+      <c r="J120" s="147"/>
+      <c r="K120" s="148"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B121" s="58"/>
-      <c r="C121" s="158"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="116"/>
       <c r="D121" s="10"/>
       <c r="E121" s="36"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
-      <c r="J121" s="70"/>
-      <c r="K121" s="71"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="100"/>
+      <c r="I121" s="100"/>
+      <c r="J121" s="100"/>
+      <c r="K121" s="101"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B122" s="52"/>
-      <c r="C122" s="68"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="117"/>
       <c r="D122" s="10"/>
       <c r="E122" s="19"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="110"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="50"/>
-      <c r="K122" s="51"/>
+      <c r="G122" s="149"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="66"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="157"/>
+      <c r="B123" s="103"/>
+      <c r="C123" s="195"/>
       <c r="D123" s="10"/>
       <c r="E123" s="37"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="114"/>
-      <c r="H123" s="115"/>
-      <c r="I123" s="115"/>
-      <c r="J123" s="115"/>
-      <c r="K123" s="116"/>
+      <c r="G123" s="164"/>
+      <c r="H123" s="165"/>
+      <c r="I123" s="165"/>
+      <c r="J123" s="165"/>
+      <c r="K123" s="166"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="66"/>
       <c r="D124" s="10"/>
       <c r="E124" s="48"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="56"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="103"/>
+      <c r="I124" s="103"/>
+      <c r="J124" s="103"/>
+      <c r="K124" s="104"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="10"/>
       <c r="E125" s="48"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="56"/>
+      <c r="G125" s="102"/>
+      <c r="H125" s="103"/>
+      <c r="I125" s="103"/>
+      <c r="J125" s="103"/>
+      <c r="K125" s="104"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="49"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="52"/>
-      <c r="J126" s="52"/>
-      <c r="K126" s="53"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="60" t="s">
+      <c r="A127" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B127" s="61"/>
-      <c r="C127" s="62"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="64"/>
       <c r="D127" s="14"/>
       <c r="E127" s="6" t="s">
         <v>2</v>
@@ -5731,108 +5731,108 @@
       <c r="F127" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G127" s="103" t="s">
+      <c r="G127" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H127" s="103"/>
-      <c r="I127" s="103"/>
-      <c r="J127" s="103"/>
-      <c r="K127" s="104"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="68"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="65" t="s">
+      <c r="A128" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="112"/>
-      <c r="C128" s="159"/>
+      <c r="B128" s="147"/>
+      <c r="C128" s="196"/>
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="58"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="59"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="56"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="56"/>
+      <c r="K128" s="57"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="49" t="s">
+      <c r="A129" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="50"/>
-      <c r="C129" s="160"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="197"/>
       <c r="D129" s="10"/>
       <c r="E129" s="19"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="53"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="53"/>
+      <c r="K129" s="54"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="50"/>
-      <c r="C130" s="160"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="197"/>
       <c r="D130" s="10"/>
       <c r="E130" s="12"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="53"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="53"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="53"/>
+      <c r="K130" s="54"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="49" t="s">
+      <c r="A131" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B131" s="50"/>
-      <c r="C131" s="51"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="66"/>
       <c r="D131" s="10"/>
       <c r="E131" s="48"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="55"/>
-      <c r="I131" s="55"/>
-      <c r="J131" s="55"/>
-      <c r="K131" s="56"/>
+      <c r="G131" s="102"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="103"/>
+      <c r="J131" s="103"/>
+      <c r="K131" s="104"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="49" t="s">
+      <c r="A132" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="66"/>
       <c r="D132" s="10"/>
       <c r="E132" s="48"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
-      <c r="K132" s="56"/>
+      <c r="G132" s="102"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="103"/>
+      <c r="J132" s="103"/>
+      <c r="K132" s="104"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="52"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
-      <c r="J133" s="52"/>
-      <c r="K133" s="53"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="53"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+      <c r="K133" s="54"/>
     </row>
     <row r="134" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="60" t="s">
+      <c r="A134" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="61"/>
-      <c r="C134" s="62"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="64"/>
       <c r="D134" s="14"/>
       <c r="E134" s="6" t="s">
         <v>2</v>
@@ -5840,93 +5840,93 @@
       <c r="F134" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="103" t="s">
+      <c r="G134" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="103"/>
-      <c r="I134" s="103"/>
-      <c r="J134" s="103"/>
-      <c r="K134" s="104"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="68"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="65" t="s">
+      <c r="A135" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B135" s="112"/>
-      <c r="C135" s="67"/>
+      <c r="B135" s="147"/>
+      <c r="C135" s="98"/>
       <c r="D135" s="10"/>
       <c r="E135" s="16"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="58"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="59"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="56"/>
+      <c r="J135" s="56"/>
+      <c r="K135" s="57"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="52"/>
-      <c r="C136" s="52"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
       <c r="D136" s="10"/>
       <c r="E136" s="18"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="52"/>
-      <c r="I136" s="52"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="53"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="54"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="49" t="s">
+      <c r="A137" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="66"/>
       <c r="D137" s="10"/>
       <c r="E137" s="48"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="55"/>
-      <c r="K137" s="56"/>
+      <c r="G137" s="102"/>
+      <c r="H137" s="103"/>
+      <c r="I137" s="103"/>
+      <c r="J137" s="103"/>
+      <c r="K137" s="104"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="49" t="s">
+      <c r="A138" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="66"/>
       <c r="D138" s="10"/>
       <c r="E138" s="48"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="55"/>
-      <c r="J138" s="55"/>
-      <c r="K138" s="56"/>
+      <c r="G138" s="102"/>
+      <c r="H138" s="103"/>
+      <c r="I138" s="103"/>
+      <c r="J138" s="103"/>
+      <c r="K138" s="104"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="49"/>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="53"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="53"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="54"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="60" t="s">
+      <c r="A140" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B140" s="61"/>
-      <c r="C140" s="62"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="14"/>
       <c r="E140" s="6" t="s">
         <v>2</v>
@@ -5934,93 +5934,93 @@
       <c r="F140" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="103" t="s">
+      <c r="G140" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H140" s="103"/>
-      <c r="I140" s="103"/>
-      <c r="J140" s="103"/>
-      <c r="K140" s="104"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="68"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="65" t="s">
+      <c r="A141" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
       <c r="D141" s="10"/>
       <c r="E141" s="16"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="58"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="59"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="56"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="57"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="49" t="s">
+      <c r="A142" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B142" s="52"/>
-      <c r="C142" s="52"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
       <c r="D142" s="10"/>
       <c r="E142" s="18"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="52"/>
-      <c r="J142" s="52"/>
-      <c r="K142" s="53"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="54"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B143" s="50"/>
-      <c r="C143" s="51"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="66"/>
       <c r="D143" s="10"/>
       <c r="E143" s="48"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="55"/>
-      <c r="J143" s="55"/>
-      <c r="K143" s="56"/>
+      <c r="G143" s="102"/>
+      <c r="H143" s="103"/>
+      <c r="I143" s="103"/>
+      <c r="J143" s="103"/>
+      <c r="K143" s="104"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="50"/>
-      <c r="C144" s="51"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="66"/>
       <c r="D144" s="10"/>
       <c r="E144" s="48"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="55"/>
-      <c r="J144" s="55"/>
-      <c r="K144" s="56"/>
+      <c r="G144" s="102"/>
+      <c r="H144" s="103"/>
+      <c r="I144" s="103"/>
+      <c r="J144" s="103"/>
+      <c r="K144" s="104"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="57"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="58"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="59"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="56"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="57"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="60" t="s">
+      <c r="A146" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B146" s="61"/>
-      <c r="C146" s="62"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
         <v>2</v>
@@ -6028,168 +6028,168 @@
       <c r="F146" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="103" t="s">
+      <c r="G146" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H146" s="103"/>
-      <c r="I146" s="103"/>
-      <c r="J146" s="103"/>
-      <c r="K146" s="104"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
+      <c r="J146" s="67"/>
+      <c r="K146" s="68"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="57" t="s">
+      <c r="A147" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="56"/>
       <c r="D147" s="10"/>
       <c r="E147" s="35"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="59"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="56"/>
+      <c r="K147" s="57"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="49" t="s">
+      <c r="A148" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B148" s="52"/>
-      <c r="C148" s="52"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
       <c r="D148" s="10"/>
       <c r="E148" s="18"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="52"/>
-      <c r="I148" s="52"/>
-      <c r="J148" s="52"/>
-      <c r="K148" s="53"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="53"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="54"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="49" t="s">
+      <c r="A149" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
       <c r="D149" s="10"/>
       <c r="E149" s="18"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="52"/>
-      <c r="I149" s="52"/>
-      <c r="J149" s="52"/>
-      <c r="K149" s="53"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="53"/>
+      <c r="I149" s="53"/>
+      <c r="J149" s="53"/>
+      <c r="K149" s="54"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="65" t="s">
+      <c r="A150" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
       <c r="D150" s="10"/>
       <c r="E150" s="16"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="109"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="60"/>
+      <c r="K150" s="61"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="52"/>
-      <c r="C151" s="52"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
       <c r="D151" s="10"/>
       <c r="E151" s="18"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="49"/>
-      <c r="H151" s="52"/>
-      <c r="I151" s="52"/>
-      <c r="J151" s="52"/>
-      <c r="K151" s="53"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="53"/>
+      <c r="I151" s="53"/>
+      <c r="J151" s="53"/>
+      <c r="K151" s="54"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="65" t="s">
+      <c r="A152" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B152" s="66"/>
-      <c r="C152" s="66"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
       <c r="D152" s="10"/>
       <c r="E152" s="16"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="66"/>
-      <c r="I152" s="66"/>
-      <c r="J152" s="66"/>
-      <c r="K152" s="109"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="60"/>
+      <c r="K152" s="61"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B153" s="52"/>
-      <c r="C153" s="52"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
       <c r="D153" s="10"/>
       <c r="E153" s="18"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="49"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
-      <c r="K153" s="53"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="53"/>
+      <c r="I153" s="53"/>
+      <c r="J153" s="53"/>
+      <c r="K153" s="54"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="49" t="s">
+      <c r="A154" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B154" s="50"/>
-      <c r="C154" s="51"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="66"/>
       <c r="D154" s="10"/>
       <c r="E154" s="48"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="54"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="55"/>
-      <c r="K154" s="56"/>
+      <c r="G154" s="102"/>
+      <c r="H154" s="103"/>
+      <c r="I154" s="103"/>
+      <c r="J154" s="103"/>
+      <c r="K154" s="104"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="49" t="s">
+      <c r="A155" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B155" s="50"/>
-      <c r="C155" s="51"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="66"/>
       <c r="D155" s="10"/>
       <c r="E155" s="48"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="54"/>
-      <c r="H155" s="55"/>
-      <c r="I155" s="55"/>
-      <c r="J155" s="55"/>
-      <c r="K155" s="56"/>
+      <c r="G155" s="102"/>
+      <c r="H155" s="103"/>
+      <c r="I155" s="103"/>
+      <c r="J155" s="103"/>
+      <c r="K155" s="104"/>
     </row>
     <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="57"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="58"/>
-      <c r="F156" s="58"/>
-      <c r="G156" s="58"/>
-      <c r="H156" s="58"/>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="59"/>
+      <c r="A156" s="55"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="56"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56"/>
+      <c r="H156" s="56"/>
+      <c r="I156" s="56"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="57"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="60" t="s">
+      <c r="A157" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B157" s="61"/>
-      <c r="C157" s="62"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="64"/>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
         <v>2</v>
@@ -6197,138 +6197,138 @@
       <c r="F157" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="120" t="s">
+      <c r="G157" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="H157" s="103"/>
-      <c r="I157" s="103"/>
-      <c r="J157" s="103"/>
-      <c r="K157" s="104"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="67"/>
+      <c r="K157" s="68"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="65" t="s">
+      <c r="A158" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B158" s="66"/>
-      <c r="C158" s="66"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
       <c r="D158" s="10"/>
       <c r="E158" s="16"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="65"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="66"/>
-      <c r="K158" s="109"/>
+      <c r="G158" s="59"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="61"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B159" s="52"/>
-      <c r="C159" s="52"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
       <c r="D159" s="10"/>
       <c r="E159" s="18"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="52"/>
-      <c r="I159" s="52"/>
-      <c r="J159" s="52"/>
-      <c r="K159" s="53"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="53"/>
+      <c r="I159" s="53"/>
+      <c r="J159" s="53"/>
+      <c r="K159" s="54"/>
     </row>
     <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="65" t="s">
+      <c r="A160" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B160" s="66"/>
-      <c r="C160" s="66"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
       <c r="D160" s="10"/>
       <c r="E160" s="16"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="65"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="66"/>
-      <c r="J160" s="66"/>
-      <c r="K160" s="109"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="61"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="49" t="s">
+      <c r="A161" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
       <c r="D161" s="10"/>
       <c r="E161" s="18"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="52"/>
-      <c r="I161" s="52"/>
-      <c r="J161" s="52"/>
-      <c r="K161" s="53"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="53"/>
+      <c r="I161" s="53"/>
+      <c r="J161" s="53"/>
+      <c r="K161" s="54"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="65" t="s">
+      <c r="A162" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B162" s="66"/>
-      <c r="C162" s="66"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
       <c r="D162" s="10"/>
       <c r="E162" s="16"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="52"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="52"/>
-      <c r="K162" s="53"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="53"/>
+      <c r="I162" s="53"/>
+      <c r="J162" s="53"/>
+      <c r="K162" s="54"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="49" t="s">
+      <c r="A163" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="50"/>
-      <c r="C163" s="51"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="66"/>
       <c r="D163" s="10"/>
       <c r="E163" s="48"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="55"/>
-      <c r="I163" s="55"/>
-      <c r="J163" s="55"/>
-      <c r="K163" s="56"/>
+      <c r="G163" s="102"/>
+      <c r="H163" s="103"/>
+      <c r="I163" s="103"/>
+      <c r="J163" s="103"/>
+      <c r="K163" s="104"/>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="51"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="66"/>
       <c r="D164" s="10"/>
       <c r="E164" s="48"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="55"/>
-      <c r="I164" s="55"/>
-      <c r="J164" s="55"/>
-      <c r="K164" s="56"/>
+      <c r="G164" s="102"/>
+      <c r="H164" s="103"/>
+      <c r="I164" s="103"/>
+      <c r="J164" s="103"/>
+      <c r="K164" s="104"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="49"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="52"/>
-      <c r="E165" s="52"/>
-      <c r="F165" s="52"/>
-      <c r="G165" s="52"/>
-      <c r="H165" s="52"/>
-      <c r="I165" s="52"/>
-      <c r="J165" s="52"/>
-      <c r="K165" s="53"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="53"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="53"/>
+      <c r="I165" s="53"/>
+      <c r="J165" s="53"/>
+      <c r="K165" s="54"/>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="60" t="s">
+      <c r="A166" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B166" s="61"/>
-      <c r="C166" s="62"/>
+      <c r="B166" s="63"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="14"/>
       <c r="E166" s="15" t="s">
         <v>2</v>
@@ -6336,138 +6336,138 @@
       <c r="F166" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G166" s="103" t="s">
+      <c r="G166" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H166" s="103"/>
-      <c r="I166" s="103"/>
-      <c r="J166" s="103"/>
-      <c r="K166" s="104"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
+      <c r="J166" s="67"/>
+      <c r="K166" s="68"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="65" t="s">
+      <c r="A167" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="66"/>
-      <c r="C167" s="66"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
       <c r="D167" s="10"/>
       <c r="E167" s="16"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="58"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="59"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="56"/>
+      <c r="I167" s="56"/>
+      <c r="J167" s="56"/>
+      <c r="K167" s="57"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="52"/>
-      <c r="C168" s="52"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
       <c r="D168" s="10"/>
       <c r="E168" s="18"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="52"/>
-      <c r="J168" s="52"/>
-      <c r="K168" s="53"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="53"/>
+      <c r="I168" s="53"/>
+      <c r="J168" s="53"/>
+      <c r="K168" s="54"/>
     </row>
     <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="65" t="s">
+      <c r="A169" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="168"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="118"/>
       <c r="D169" s="10"/>
       <c r="E169" s="16"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="65"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="66"/>
-      <c r="K169" s="109"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="61"/>
     </row>
     <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="49" t="s">
+      <c r="A170" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B170" s="52"/>
-      <c r="C170" s="139"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="10"/>
       <c r="E170" s="18"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="52"/>
-      <c r="I170" s="52"/>
-      <c r="J170" s="52"/>
-      <c r="K170" s="53"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="53"/>
+      <c r="J170" s="53"/>
+      <c r="K170" s="54"/>
     </row>
     <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="65" t="s">
+      <c r="A171" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B171" s="66"/>
-      <c r="C171" s="168"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="118"/>
       <c r="D171" s="10"/>
       <c r="E171" s="16"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="65"/>
-      <c r="H171" s="66"/>
-      <c r="I171" s="66"/>
-      <c r="J171" s="66"/>
-      <c r="K171" s="109"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="60"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="60"/>
+      <c r="K171" s="61"/>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="49" t="s">
+      <c r="A172" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="50"/>
-      <c r="C172" s="51"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="66"/>
       <c r="D172" s="10"/>
       <c r="E172" s="48"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="52"/>
-      <c r="I172" s="52"/>
-      <c r="J172" s="52"/>
-      <c r="K172" s="53"/>
+      <c r="G172" s="52"/>
+      <c r="H172" s="53"/>
+      <c r="I172" s="53"/>
+      <c r="J172" s="53"/>
+      <c r="K172" s="54"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="49" t="s">
+      <c r="A173" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="50"/>
-      <c r="C173" s="51"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="66"/>
       <c r="D173" s="10"/>
       <c r="E173" s="48"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="54"/>
-      <c r="H173" s="55"/>
-      <c r="I173" s="55"/>
-      <c r="J173" s="55"/>
-      <c r="K173" s="56"/>
+      <c r="G173" s="102"/>
+      <c r="H173" s="103"/>
+      <c r="I173" s="103"/>
+      <c r="J173" s="103"/>
+      <c r="K173" s="104"/>
     </row>
     <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="57"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="59"/>
+      <c r="A174" s="55"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="56"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+      <c r="G174" s="56"/>
+      <c r="H174" s="56"/>
+      <c r="I174" s="56"/>
+      <c r="J174" s="56"/>
+      <c r="K174" s="57"/>
     </row>
     <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="60" t="s">
+      <c r="A175" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="B175" s="61"/>
-      <c r="C175" s="62"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="64"/>
       <c r="D175" s="11"/>
       <c r="E175" s="6" t="s">
         <v>2</v>
@@ -6475,93 +6475,93 @@
       <c r="F175" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G175" s="63" t="s">
+      <c r="G175" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H175" s="63"/>
-      <c r="I175" s="63"/>
-      <c r="J175" s="63"/>
-      <c r="K175" s="64"/>
+      <c r="H175" s="93"/>
+      <c r="I175" s="93"/>
+      <c r="J175" s="93"/>
+      <c r="K175" s="94"/>
     </row>
     <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="65" t="s">
+      <c r="A176" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B176" s="66"/>
-      <c r="C176" s="67"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="98"/>
       <c r="D176" s="10"/>
       <c r="E176" s="16"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="59"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="56"/>
+      <c r="I176" s="56"/>
+      <c r="J176" s="56"/>
+      <c r="K176" s="57"/>
     </row>
     <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B177" s="52"/>
-      <c r="C177" s="68"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="117"/>
       <c r="D177" s="10"/>
       <c r="E177" s="18"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="49"/>
-      <c r="H177" s="52"/>
-      <c r="I177" s="52"/>
-      <c r="J177" s="52"/>
-      <c r="K177" s="53"/>
+      <c r="G177" s="52"/>
+      <c r="H177" s="53"/>
+      <c r="I177" s="53"/>
+      <c r="J177" s="53"/>
+      <c r="K177" s="54"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="49" t="s">
+      <c r="A178" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="50"/>
-      <c r="C178" s="51"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="66"/>
       <c r="D178" s="10"/>
       <c r="E178" s="48"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="54"/>
-      <c r="H178" s="55"/>
-      <c r="I178" s="55"/>
-      <c r="J178" s="55"/>
-      <c r="K178" s="56"/>
+      <c r="G178" s="102"/>
+      <c r="H178" s="103"/>
+      <c r="I178" s="103"/>
+      <c r="J178" s="103"/>
+      <c r="K178" s="104"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="49" t="s">
+      <c r="A179" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="50"/>
-      <c r="C179" s="51"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="66"/>
       <c r="D179" s="10"/>
       <c r="E179" s="48"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="55"/>
-      <c r="K179" s="56"/>
+      <c r="G179" s="102"/>
+      <c r="H179" s="103"/>
+      <c r="I179" s="103"/>
+      <c r="J179" s="103"/>
+      <c r="K179" s="104"/>
     </row>
     <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="57"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="59"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="56"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="56"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="56"/>
+      <c r="G180" s="56"/>
+      <c r="H180" s="56"/>
+      <c r="I180" s="56"/>
+      <c r="J180" s="56"/>
+      <c r="K180" s="57"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="60" t="s">
+      <c r="A181" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B181" s="61"/>
-      <c r="C181" s="62"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="64"/>
       <c r="D181" s="11"/>
       <c r="E181" s="6" t="s">
         <v>2</v>
@@ -6569,78 +6569,78 @@
       <c r="F181" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G181" s="63" t="s">
+      <c r="G181" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H181" s="63"/>
-      <c r="I181" s="63"/>
-      <c r="J181" s="63"/>
-      <c r="K181" s="64"/>
+      <c r="H181" s="93"/>
+      <c r="I181" s="93"/>
+      <c r="J181" s="93"/>
+      <c r="K181" s="94"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="65" t="s">
+      <c r="A182" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B182" s="66"/>
-      <c r="C182" s="67"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="98"/>
       <c r="D182" s="10"/>
       <c r="E182" s="16"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="69"/>
-      <c r="H182" s="70"/>
-      <c r="I182" s="70"/>
-      <c r="J182" s="70"/>
-      <c r="K182" s="71"/>
+      <c r="G182" s="99"/>
+      <c r="H182" s="100"/>
+      <c r="I182" s="100"/>
+      <c r="J182" s="100"/>
+      <c r="K182" s="101"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="49" t="s">
+      <c r="A183" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="50"/>
-      <c r="C183" s="51"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="66"/>
       <c r="D183" s="10"/>
       <c r="E183" s="48"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="49"/>
-      <c r="H183" s="52"/>
-      <c r="I183" s="52"/>
-      <c r="J183" s="52"/>
-      <c r="K183" s="53"/>
+      <c r="G183" s="52"/>
+      <c r="H183" s="53"/>
+      <c r="I183" s="53"/>
+      <c r="J183" s="53"/>
+      <c r="K183" s="54"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="49" t="s">
+      <c r="A184" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="50"/>
-      <c r="C184" s="51"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="66"/>
       <c r="D184" s="10"/>
       <c r="E184" s="48"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="55"/>
-      <c r="J184" s="55"/>
-      <c r="K184" s="56"/>
+      <c r="G184" s="102"/>
+      <c r="H184" s="103"/>
+      <c r="I184" s="103"/>
+      <c r="J184" s="103"/>
+      <c r="K184" s="104"/>
     </row>
     <row r="185" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="57"/>
-      <c r="B185" s="58"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="58"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="58"/>
-      <c r="H185" s="58"/>
-      <c r="I185" s="58"/>
-      <c r="J185" s="58"/>
-      <c r="K185" s="59"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="56"/>
+      <c r="H185" s="56"/>
+      <c r="I185" s="56"/>
+      <c r="J185" s="56"/>
+      <c r="K185" s="57"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="169" t="s">
+      <c r="A186" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="B186" s="170"/>
-      <c r="C186" s="170"/>
+      <c r="B186" s="115"/>
+      <c r="C186" s="115"/>
       <c r="D186" s="38"/>
       <c r="E186" s="15" t="s">
         <v>2</v>
@@ -6648,138 +6648,138 @@
       <c r="F186" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G186" s="103" t="s">
+      <c r="G186" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H186" s="103"/>
-      <c r="I186" s="103"/>
-      <c r="J186" s="103"/>
-      <c r="K186" s="104"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="67"/>
+      <c r="J186" s="67"/>
+      <c r="K186" s="68"/>
     </row>
     <row r="187" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="65" t="s">
+      <c r="A187" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B187" s="66"/>
-      <c r="C187" s="67"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="98"/>
       <c r="D187" s="10"/>
       <c r="E187" s="39"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="171"/>
-      <c r="H187" s="172"/>
-      <c r="I187" s="172"/>
-      <c r="J187" s="172"/>
-      <c r="K187" s="173"/>
+      <c r="G187" s="119"/>
+      <c r="H187" s="120"/>
+      <c r="I187" s="120"/>
+      <c r="J187" s="120"/>
+      <c r="K187" s="121"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="49" t="s">
+      <c r="A188" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B188" s="52"/>
-      <c r="C188" s="68"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="117"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="133"/>
-      <c r="H188" s="134"/>
-      <c r="I188" s="134"/>
-      <c r="J188" s="134"/>
-      <c r="K188" s="135"/>
+      <c r="G188" s="122"/>
+      <c r="H188" s="123"/>
+      <c r="I188" s="123"/>
+      <c r="J188" s="123"/>
+      <c r="K188" s="124"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="65" t="s">
+      <c r="A189" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B189" s="66"/>
-      <c r="C189" s="67"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="98"/>
       <c r="D189" s="10"/>
       <c r="E189" s="22"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="146"/>
-      <c r="H189" s="147"/>
-      <c r="I189" s="147"/>
-      <c r="J189" s="147"/>
-      <c r="K189" s="148"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="126"/>
+      <c r="I189" s="126"/>
+      <c r="J189" s="126"/>
+      <c r="K189" s="127"/>
     </row>
     <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="49" t="s">
+      <c r="A190" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B190" s="52"/>
-      <c r="C190" s="68"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="117"/>
       <c r="D190" s="10"/>
       <c r="E190" s="26"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="133"/>
-      <c r="H190" s="134"/>
-      <c r="I190" s="134"/>
-      <c r="J190" s="134"/>
-      <c r="K190" s="135"/>
+      <c r="G190" s="122"/>
+      <c r="H190" s="123"/>
+      <c r="I190" s="123"/>
+      <c r="J190" s="123"/>
+      <c r="K190" s="124"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="65" t="s">
+      <c r="A191" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B191" s="66"/>
-      <c r="C191" s="168"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="118"/>
       <c r="D191" s="10"/>
       <c r="E191" s="16"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="146"/>
-      <c r="H191" s="147"/>
-      <c r="I191" s="147"/>
-      <c r="J191" s="147"/>
-      <c r="K191" s="148"/>
+      <c r="G191" s="125"/>
+      <c r="H191" s="126"/>
+      <c r="I191" s="126"/>
+      <c r="J191" s="126"/>
+      <c r="K191" s="127"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="49" t="s">
+      <c r="A192" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="50"/>
-      <c r="C192" s="51"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="66"/>
       <c r="D192" s="10"/>
       <c r="E192" s="48"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="49"/>
-      <c r="H192" s="52"/>
-      <c r="I192" s="52"/>
-      <c r="J192" s="52"/>
-      <c r="K192" s="53"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="53"/>
+      <c r="I192" s="53"/>
+      <c r="J192" s="53"/>
+      <c r="K192" s="54"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="49" t="s">
+      <c r="A193" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B193" s="50"/>
-      <c r="C193" s="51"/>
+      <c r="B193" s="65"/>
+      <c r="C193" s="66"/>
       <c r="D193" s="10"/>
       <c r="E193" s="48"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="55"/>
-      <c r="I193" s="55"/>
-      <c r="J193" s="55"/>
-      <c r="K193" s="56"/>
+      <c r="G193" s="102"/>
+      <c r="H193" s="103"/>
+      <c r="I193" s="103"/>
+      <c r="J193" s="103"/>
+      <c r="K193" s="104"/>
     </row>
     <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="57"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="59"/>
+      <c r="A194" s="55"/>
+      <c r="B194" s="56"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="56"/>
+      <c r="I194" s="56"/>
+      <c r="J194" s="56"/>
+      <c r="K194" s="57"/>
     </row>
     <row r="195" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="169" t="s">
+      <c r="A195" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="B195" s="170"/>
-      <c r="C195" s="170"/>
+      <c r="B195" s="115"/>
+      <c r="C195" s="115"/>
       <c r="D195" s="38"/>
       <c r="E195" s="15" t="s">
         <v>2</v>
@@ -6787,93 +6787,93 @@
       <c r="F195" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G195" s="103" t="s">
+      <c r="G195" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H195" s="103"/>
-      <c r="I195" s="103"/>
-      <c r="J195" s="103"/>
-      <c r="K195" s="104"/>
+      <c r="H195" s="67"/>
+      <c r="I195" s="67"/>
+      <c r="J195" s="67"/>
+      <c r="K195" s="68"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="65" t="s">
+      <c r="A196" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B196" s="66"/>
-      <c r="C196" s="168"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="118"/>
       <c r="D196" s="10"/>
       <c r="E196" s="16"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="174"/>
-      <c r="H196" s="175"/>
-      <c r="I196" s="175"/>
-      <c r="J196" s="175"/>
-      <c r="K196" s="176"/>
+      <c r="G196" s="105"/>
+      <c r="H196" s="106"/>
+      <c r="I196" s="106"/>
+      <c r="J196" s="106"/>
+      <c r="K196" s="107"/>
     </row>
     <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="49" t="s">
+      <c r="A197" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B197" s="52"/>
-      <c r="C197" s="68"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="117"/>
       <c r="D197" s="10"/>
       <c r="E197" s="29"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="127"/>
-      <c r="H197" s="128"/>
-      <c r="I197" s="128"/>
-      <c r="J197" s="128"/>
-      <c r="K197" s="129"/>
+      <c r="G197" s="108"/>
+      <c r="H197" s="109"/>
+      <c r="I197" s="109"/>
+      <c r="J197" s="109"/>
+      <c r="K197" s="110"/>
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="49" t="s">
+      <c r="A198" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="50"/>
-      <c r="C198" s="51"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="66"/>
       <c r="D198" s="10"/>
       <c r="E198" s="48"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="49"/>
-      <c r="H198" s="52"/>
-      <c r="I198" s="52"/>
-      <c r="J198" s="52"/>
-      <c r="K198" s="53"/>
+      <c r="G198" s="52"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
+      <c r="J198" s="53"/>
+      <c r="K198" s="54"/>
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49" t="s">
+      <c r="A199" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="50"/>
-      <c r="C199" s="51"/>
+      <c r="B199" s="65"/>
+      <c r="C199" s="66"/>
       <c r="D199" s="10"/>
       <c r="E199" s="48"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="56"/>
+      <c r="G199" s="102"/>
+      <c r="H199" s="103"/>
+      <c r="I199" s="103"/>
+      <c r="J199" s="103"/>
+      <c r="K199" s="104"/>
     </row>
     <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="57"/>
-      <c r="B200" s="58"/>
-      <c r="C200" s="58"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="58"/>
-      <c r="G200" s="58"/>
-      <c r="H200" s="58"/>
-      <c r="I200" s="58"/>
-      <c r="J200" s="58"/>
-      <c r="K200" s="59"/>
+      <c r="A200" s="55"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="56"/>
+      <c r="I200" s="56"/>
+      <c r="J200" s="56"/>
+      <c r="K200" s="57"/>
     </row>
     <row r="201" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="169" t="s">
+      <c r="A201" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="B201" s="170"/>
-      <c r="C201" s="170"/>
+      <c r="B201" s="115"/>
+      <c r="C201" s="115"/>
       <c r="D201" s="38"/>
       <c r="E201" s="15" t="s">
         <v>2</v>
@@ -6881,198 +6881,198 @@
       <c r="F201" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G201" s="103" t="s">
+      <c r="G201" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H201" s="103"/>
-      <c r="I201" s="103"/>
-      <c r="J201" s="103"/>
-      <c r="K201" s="104"/>
+      <c r="H201" s="67"/>
+      <c r="I201" s="67"/>
+      <c r="J201" s="67"/>
+      <c r="K201" s="68"/>
     </row>
     <row r="202" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="65" t="s">
+      <c r="A202" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B202" s="66"/>
-      <c r="C202" s="67"/>
+      <c r="B202" s="60"/>
+      <c r="C202" s="98"/>
       <c r="D202" s="10"/>
       <c r="E202" s="40"/>
       <c r="F202" s="9"/>
-      <c r="G202" s="174"/>
-      <c r="H202" s="175"/>
-      <c r="I202" s="175"/>
-      <c r="J202" s="175"/>
-      <c r="K202" s="176"/>
+      <c r="G202" s="105"/>
+      <c r="H202" s="106"/>
+      <c r="I202" s="106"/>
+      <c r="J202" s="106"/>
+      <c r="K202" s="107"/>
     </row>
     <row r="203" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="57" t="s">
+      <c r="A203" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="B203" s="58"/>
-      <c r="C203" s="158"/>
+      <c r="B203" s="56"/>
+      <c r="C203" s="116"/>
       <c r="D203" s="10"/>
       <c r="E203" s="41"/>
       <c r="F203" s="9"/>
-      <c r="G203" s="174"/>
-      <c r="H203" s="175"/>
-      <c r="I203" s="175"/>
-      <c r="J203" s="175"/>
-      <c r="K203" s="176"/>
+      <c r="G203" s="105"/>
+      <c r="H203" s="106"/>
+      <c r="I203" s="106"/>
+      <c r="J203" s="106"/>
+      <c r="K203" s="107"/>
     </row>
     <row r="204" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="49" t="s">
+      <c r="A204" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B204" s="52"/>
-      <c r="C204" s="68"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="117"/>
       <c r="D204" s="10"/>
       <c r="E204" s="29"/>
       <c r="F204" s="9"/>
-      <c r="G204" s="127"/>
-      <c r="H204" s="128"/>
-      <c r="I204" s="128"/>
-      <c r="J204" s="128"/>
-      <c r="K204" s="129"/>
+      <c r="G204" s="108"/>
+      <c r="H204" s="109"/>
+      <c r="I204" s="109"/>
+      <c r="J204" s="109"/>
+      <c r="K204" s="110"/>
     </row>
     <row r="205" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="49" t="s">
+      <c r="A205" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B205" s="52"/>
-      <c r="C205" s="68"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="117"/>
       <c r="D205" s="10"/>
       <c r="E205" s="29"/>
       <c r="F205" s="9"/>
-      <c r="G205" s="127"/>
-      <c r="H205" s="128"/>
-      <c r="I205" s="128"/>
-      <c r="J205" s="128"/>
-      <c r="K205" s="129"/>
+      <c r="G205" s="108"/>
+      <c r="H205" s="109"/>
+      <c r="I205" s="109"/>
+      <c r="J205" s="109"/>
+      <c r="K205" s="110"/>
     </row>
     <row r="206" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="65" t="s">
+      <c r="A206" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B206" s="66"/>
-      <c r="C206" s="67"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="98"/>
       <c r="D206" s="10"/>
       <c r="E206" s="42"/>
       <c r="F206" s="9"/>
-      <c r="G206" s="149"/>
-      <c r="H206" s="150"/>
-      <c r="I206" s="150"/>
-      <c r="J206" s="150"/>
-      <c r="K206" s="151"/>
+      <c r="G206" s="111"/>
+      <c r="H206" s="112"/>
+      <c r="I206" s="112"/>
+      <c r="J206" s="112"/>
+      <c r="K206" s="113"/>
     </row>
     <row r="207" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="49" t="s">
+      <c r="A207" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B207" s="52"/>
-      <c r="C207" s="139"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="58"/>
       <c r="D207" s="10"/>
       <c r="E207" s="29"/>
       <c r="F207" s="9"/>
-      <c r="G207" s="127"/>
-      <c r="H207" s="128"/>
-      <c r="I207" s="128"/>
-      <c r="J207" s="128"/>
-      <c r="K207" s="129"/>
+      <c r="G207" s="108"/>
+      <c r="H207" s="109"/>
+      <c r="I207" s="109"/>
+      <c r="J207" s="109"/>
+      <c r="K207" s="110"/>
     </row>
     <row r="208" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="65" t="s">
+      <c r="A208" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B208" s="66"/>
-      <c r="C208" s="168"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="118"/>
       <c r="D208" s="10"/>
       <c r="E208" s="27"/>
       <c r="F208" s="9"/>
-      <c r="G208" s="149"/>
-      <c r="H208" s="150"/>
-      <c r="I208" s="150"/>
-      <c r="J208" s="150"/>
-      <c r="K208" s="151"/>
+      <c r="G208" s="111"/>
+      <c r="H208" s="112"/>
+      <c r="I208" s="112"/>
+      <c r="J208" s="112"/>
+      <c r="K208" s="113"/>
     </row>
     <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="49" t="s">
+      <c r="A209" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B209" s="52"/>
-      <c r="C209" s="52"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
       <c r="D209" s="10"/>
       <c r="E209" s="28"/>
       <c r="F209" s="9"/>
-      <c r="G209" s="127"/>
-      <c r="H209" s="128"/>
-      <c r="I209" s="128"/>
-      <c r="J209" s="128"/>
-      <c r="K209" s="129"/>
+      <c r="G209" s="108"/>
+      <c r="H209" s="109"/>
+      <c r="I209" s="109"/>
+      <c r="J209" s="109"/>
+      <c r="K209" s="110"/>
     </row>
     <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="65" t="s">
+      <c r="A210" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B210" s="66"/>
-      <c r="C210" s="66"/>
+      <c r="B210" s="60"/>
+      <c r="C210" s="60"/>
       <c r="D210" s="10"/>
       <c r="E210" s="42"/>
       <c r="F210" s="9"/>
-      <c r="G210" s="149"/>
-      <c r="H210" s="150"/>
-      <c r="I210" s="150"/>
-      <c r="J210" s="150"/>
-      <c r="K210" s="151"/>
+      <c r="G210" s="111"/>
+      <c r="H210" s="112"/>
+      <c r="I210" s="112"/>
+      <c r="J210" s="112"/>
+      <c r="K210" s="113"/>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="49" t="s">
+      <c r="A211" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="50"/>
-      <c r="C211" s="51"/>
+      <c r="B211" s="65"/>
+      <c r="C211" s="66"/>
       <c r="D211" s="10"/>
       <c r="E211" s="48"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="49"/>
-      <c r="H211" s="52"/>
-      <c r="I211" s="52"/>
-      <c r="J211" s="52"/>
-      <c r="K211" s="53"/>
+      <c r="G211" s="52"/>
+      <c r="H211" s="53"/>
+      <c r="I211" s="53"/>
+      <c r="J211" s="53"/>
+      <c r="K211" s="54"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="49" t="s">
+      <c r="A212" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="51"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="66"/>
       <c r="D212" s="10"/>
       <c r="E212" s="48"/>
       <c r="F212" s="10"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="55"/>
-      <c r="I212" s="55"/>
-      <c r="J212" s="55"/>
-      <c r="K212" s="56"/>
+      <c r="G212" s="102"/>
+      <c r="H212" s="103"/>
+      <c r="I212" s="103"/>
+      <c r="J212" s="103"/>
+      <c r="K212" s="104"/>
     </row>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="57"/>
-      <c r="B213" s="58"/>
-      <c r="C213" s="58"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="58"/>
-      <c r="F213" s="58"/>
-      <c r="G213" s="58"/>
-      <c r="H213" s="58"/>
-      <c r="I213" s="58"/>
-      <c r="J213" s="58"/>
-      <c r="K213" s="59"/>
+      <c r="A213" s="55"/>
+      <c r="B213" s="56"/>
+      <c r="C213" s="56"/>
+      <c r="D213" s="56"/>
+      <c r="E213" s="56"/>
+      <c r="F213" s="56"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="56"/>
+      <c r="I213" s="56"/>
+      <c r="J213" s="56"/>
+      <c r="K213" s="57"/>
     </row>
     <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="60" t="s">
+      <c r="A214" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B214" s="61"/>
-      <c r="C214" s="62"/>
+      <c r="B214" s="63"/>
+      <c r="C214" s="64"/>
       <c r="D214" s="11"/>
       <c r="E214" s="6" t="s">
         <v>2</v>
@@ -7080,78 +7080,78 @@
       <c r="F214" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G214" s="63" t="s">
+      <c r="G214" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H214" s="63"/>
-      <c r="I214" s="63"/>
-      <c r="J214" s="63"/>
-      <c r="K214" s="64"/>
+      <c r="H214" s="93"/>
+      <c r="I214" s="93"/>
+      <c r="J214" s="93"/>
+      <c r="K214" s="94"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="49" t="s">
+      <c r="A215" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B215" s="52"/>
-      <c r="C215" s="53"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="54"/>
       <c r="D215" s="10"/>
       <c r="E215" s="13"/>
       <c r="F215" s="9"/>
-      <c r="G215" s="49"/>
-      <c r="H215" s="52"/>
-      <c r="I215" s="52"/>
-      <c r="J215" s="52"/>
-      <c r="K215" s="53"/>
+      <c r="G215" s="52"/>
+      <c r="H215" s="53"/>
+      <c r="I215" s="53"/>
+      <c r="J215" s="53"/>
+      <c r="K215" s="54"/>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="49" t="s">
+      <c r="A216" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B216" s="50"/>
-      <c r="C216" s="51"/>
+      <c r="B216" s="65"/>
+      <c r="C216" s="66"/>
       <c r="D216" s="10"/>
       <c r="E216" s="48"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="49"/>
-      <c r="H216" s="52"/>
-      <c r="I216" s="52"/>
-      <c r="J216" s="52"/>
-      <c r="K216" s="53"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="53"/>
+      <c r="I216" s="53"/>
+      <c r="J216" s="53"/>
+      <c r="K216" s="54"/>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="49" t="s">
+      <c r="A217" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B217" s="50"/>
-      <c r="C217" s="51"/>
+      <c r="B217" s="65"/>
+      <c r="C217" s="66"/>
       <c r="D217" s="10"/>
       <c r="E217" s="48"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="54"/>
-      <c r="H217" s="55"/>
-      <c r="I217" s="55"/>
-      <c r="J217" s="55"/>
-      <c r="K217" s="56"/>
+      <c r="G217" s="102"/>
+      <c r="H217" s="103"/>
+      <c r="I217" s="103"/>
+      <c r="J217" s="103"/>
+      <c r="K217" s="104"/>
     </row>
     <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="57"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="58"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="58"/>
-      <c r="F218" s="58"/>
-      <c r="G218" s="58"/>
-      <c r="H218" s="58"/>
-      <c r="I218" s="58"/>
-      <c r="J218" s="58"/>
-      <c r="K218" s="59"/>
+      <c r="A218" s="55"/>
+      <c r="B218" s="56"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="56"/>
+      <c r="I218" s="56"/>
+      <c r="J218" s="56"/>
+      <c r="K218" s="57"/>
     </row>
     <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="60" t="s">
+      <c r="A219" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B219" s="61"/>
-      <c r="C219" s="62"/>
+      <c r="B219" s="63"/>
+      <c r="C219" s="64"/>
       <c r="D219" s="11"/>
       <c r="E219" s="6" t="s">
         <v>2</v>
@@ -7159,78 +7159,78 @@
       <c r="F219" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G219" s="63" t="s">
+      <c r="G219" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="63"/>
-      <c r="I219" s="63"/>
-      <c r="J219" s="63"/>
-      <c r="K219" s="64"/>
+      <c r="H219" s="93"/>
+      <c r="I219" s="93"/>
+      <c r="J219" s="93"/>
+      <c r="K219" s="94"/>
     </row>
     <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="65" t="s">
+      <c r="A220" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B220" s="66"/>
-      <c r="C220" s="67"/>
+      <c r="B220" s="60"/>
+      <c r="C220" s="98"/>
       <c r="D220" s="10"/>
       <c r="E220" s="16"/>
       <c r="F220" s="9"/>
-      <c r="G220" s="69"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="70"/>
-      <c r="J220" s="70"/>
-      <c r="K220" s="71"/>
+      <c r="G220" s="99"/>
+      <c r="H220" s="100"/>
+      <c r="I220" s="100"/>
+      <c r="J220" s="100"/>
+      <c r="K220" s="101"/>
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="49" t="s">
+      <c r="A221" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B221" s="50"/>
-      <c r="C221" s="51"/>
+      <c r="B221" s="65"/>
+      <c r="C221" s="66"/>
       <c r="D221" s="10"/>
       <c r="E221" s="48"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="52"/>
-      <c r="I221" s="52"/>
-      <c r="J221" s="52"/>
-      <c r="K221" s="53"/>
+      <c r="G221" s="52"/>
+      <c r="H221" s="53"/>
+      <c r="I221" s="53"/>
+      <c r="J221" s="53"/>
+      <c r="K221" s="54"/>
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="49" t="s">
+      <c r="A222" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B222" s="50"/>
-      <c r="C222" s="51"/>
+      <c r="B222" s="65"/>
+      <c r="C222" s="66"/>
       <c r="D222" s="10"/>
       <c r="E222" s="48"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="54"/>
-      <c r="H222" s="55"/>
-      <c r="I222" s="55"/>
-      <c r="J222" s="55"/>
-      <c r="K222" s="56"/>
+      <c r="G222" s="102"/>
+      <c r="H222" s="103"/>
+      <c r="I222" s="103"/>
+      <c r="J222" s="103"/>
+      <c r="K222" s="104"/>
     </row>
     <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="57"/>
-      <c r="B223" s="58"/>
-      <c r="C223" s="58"/>
-      <c r="D223" s="58"/>
-      <c r="E223" s="58"/>
-      <c r="F223" s="58"/>
-      <c r="G223" s="58"/>
-      <c r="H223" s="58"/>
-      <c r="I223" s="58"/>
-      <c r="J223" s="58"/>
-      <c r="K223" s="59"/>
+      <c r="A223" s="55"/>
+      <c r="B223" s="56"/>
+      <c r="C223" s="56"/>
+      <c r="D223" s="56"/>
+      <c r="E223" s="56"/>
+      <c r="F223" s="56"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="56"/>
+      <c r="I223" s="56"/>
+      <c r="J223" s="56"/>
+      <c r="K223" s="57"/>
     </row>
     <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="186" t="s">
+      <c r="A224" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="B224" s="187"/>
-      <c r="C224" s="187"/>
+      <c r="B224" s="92"/>
+      <c r="C224" s="92"/>
       <c r="D224" s="32"/>
       <c r="E224" s="43" t="s">
         <v>2</v>
@@ -7238,269 +7238,689 @@
       <c r="F224" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G224" s="63" t="s">
+      <c r="G224" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="63"/>
-      <c r="I224" s="63"/>
-      <c r="J224" s="63"/>
-      <c r="K224" s="64"/>
+      <c r="H224" s="93"/>
+      <c r="I224" s="93"/>
+      <c r="J224" s="93"/>
+      <c r="K224" s="94"/>
     </row>
     <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="121" t="s">
+      <c r="A225" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B225" s="122"/>
-      <c r="C225" s="188"/>
+      <c r="B225" s="96"/>
+      <c r="C225" s="97"/>
       <c r="D225" s="10"/>
       <c r="E225" s="16"/>
       <c r="F225" s="9"/>
-      <c r="G225" s="57"/>
-      <c r="H225" s="58"/>
-      <c r="I225" s="58"/>
-      <c r="J225" s="58"/>
-      <c r="K225" s="59"/>
+      <c r="G225" s="55"/>
+      <c r="H225" s="56"/>
+      <c r="I225" s="56"/>
+      <c r="J225" s="56"/>
+      <c r="K225" s="57"/>
     </row>
     <row r="226" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="49" t="s">
+      <c r="A226" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B226" s="50"/>
-      <c r="C226" s="51"/>
+      <c r="B226" s="65"/>
+      <c r="C226" s="66"/>
       <c r="D226" s="10"/>
       <c r="E226" s="48"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="49"/>
-      <c r="H226" s="52"/>
-      <c r="I226" s="52"/>
-      <c r="J226" s="52"/>
-      <c r="K226" s="53"/>
+      <c r="G226" s="52"/>
+      <c r="H226" s="53"/>
+      <c r="I226" s="53"/>
+      <c r="J226" s="53"/>
+      <c r="K226" s="54"/>
     </row>
     <row r="227" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="49" t="s">
+      <c r="A227" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B227" s="50"/>
-      <c r="C227" s="51"/>
+      <c r="B227" s="65"/>
+      <c r="C227" s="66"/>
       <c r="D227" s="10"/>
       <c r="E227" s="48"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="54"/>
-      <c r="H227" s="55"/>
-      <c r="I227" s="55"/>
-      <c r="J227" s="55"/>
-      <c r="K227" s="56"/>
+      <c r="G227" s="102"/>
+      <c r="H227" s="103"/>
+      <c r="I227" s="103"/>
+      <c r="J227" s="103"/>
+      <c r="K227" s="104"/>
     </row>
     <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="49"/>
-      <c r="B228" s="52"/>
-      <c r="C228" s="52"/>
-      <c r="D228" s="52"/>
-      <c r="E228" s="52"/>
-      <c r="F228" s="52"/>
-      <c r="G228" s="52"/>
-      <c r="H228" s="52"/>
-      <c r="I228" s="52"/>
-      <c r="J228" s="52"/>
-      <c r="K228" s="53"/>
+      <c r="A228" s="52"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="53"/>
+      <c r="E228" s="53"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="53"/>
+      <c r="H228" s="53"/>
+      <c r="I228" s="53"/>
+      <c r="J228" s="53"/>
+      <c r="K228" s="54"/>
     </row>
     <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="82" t="s">
+      <c r="A229" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="B229" s="83"/>
-      <c r="C229" s="83"/>
-      <c r="D229" s="83"/>
-      <c r="E229" s="83"/>
-      <c r="F229" s="83"/>
-      <c r="G229" s="83"/>
-      <c r="H229" s="83"/>
-      <c r="I229" s="83"/>
-      <c r="J229" s="83"/>
-      <c r="K229" s="84"/>
+      <c r="B229" s="89"/>
+      <c r="C229" s="89"/>
+      <c r="D229" s="89"/>
+      <c r="E229" s="89"/>
+      <c r="F229" s="89"/>
+      <c r="G229" s="89"/>
+      <c r="H229" s="89"/>
+      <c r="I229" s="89"/>
+      <c r="J229" s="89"/>
+      <c r="K229" s="90"/>
     </row>
     <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="177" t="s">
+      <c r="A230" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B230" s="178"/>
-      <c r="C230" s="178"/>
-      <c r="D230" s="178"/>
-      <c r="E230" s="178"/>
-      <c r="F230" s="178"/>
-      <c r="G230" s="178"/>
-      <c r="H230" s="178"/>
-      <c r="I230" s="178"/>
-      <c r="J230" s="178"/>
-      <c r="K230" s="179"/>
+      <c r="B230" s="84"/>
+      <c r="C230" s="84"/>
+      <c r="D230" s="84"/>
+      <c r="E230" s="84"/>
+      <c r="F230" s="84"/>
+      <c r="G230" s="84"/>
+      <c r="H230" s="84"/>
+      <c r="I230" s="84"/>
+      <c r="J230" s="84"/>
+      <c r="K230" s="85"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="193" t="s">
+      <c r="A231" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B231" s="194"/>
-      <c r="C231" s="194"/>
-      <c r="D231" s="180"/>
-      <c r="E231" s="180"/>
-      <c r="F231" s="180"/>
-      <c r="G231" s="180"/>
-      <c r="H231" s="180"/>
-      <c r="I231" s="180"/>
-      <c r="J231" s="180"/>
-      <c r="K231" s="181"/>
+      <c r="B231" s="78"/>
+      <c r="C231" s="78"/>
+      <c r="D231" s="71"/>
+      <c r="E231" s="71"/>
+      <c r="F231" s="71"/>
+      <c r="G231" s="71"/>
+      <c r="H231" s="71"/>
+      <c r="I231" s="71"/>
+      <c r="J231" s="71"/>
+      <c r="K231" s="72"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="195" t="s">
+      <c r="A232" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B232" s="196"/>
-      <c r="C232" s="196"/>
-      <c r="D232" s="182"/>
-      <c r="E232" s="182"/>
-      <c r="F232" s="182"/>
-      <c r="G232" s="182"/>
-      <c r="H232" s="182"/>
-      <c r="I232" s="182"/>
-      <c r="J232" s="182"/>
-      <c r="K232" s="183"/>
+      <c r="B232" s="80"/>
+      <c r="C232" s="80"/>
+      <c r="D232" s="73"/>
+      <c r="E232" s="73"/>
+      <c r="F232" s="73"/>
+      <c r="G232" s="73"/>
+      <c r="H232" s="73"/>
+      <c r="I232" s="73"/>
+      <c r="J232" s="73"/>
+      <c r="K232" s="74"/>
     </row>
     <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="197" t="s">
+      <c r="A233" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="198"/>
-      <c r="C233" s="198"/>
-      <c r="D233" s="184"/>
-      <c r="E233" s="184"/>
-      <c r="F233" s="184"/>
-      <c r="G233" s="184"/>
-      <c r="H233" s="184"/>
-      <c r="I233" s="184"/>
-      <c r="J233" s="184"/>
-      <c r="K233" s="185"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="82"/>
+      <c r="D233" s="86"/>
+      <c r="E233" s="86"/>
+      <c r="F233" s="86"/>
+      <c r="G233" s="86"/>
+      <c r="H233" s="86"/>
+      <c r="I233" s="86"/>
+      <c r="J233" s="86"/>
+      <c r="K233" s="87"/>
     </row>
     <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="177" t="s">
+      <c r="A234" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B234" s="178"/>
-      <c r="C234" s="178"/>
-      <c r="D234" s="178"/>
-      <c r="E234" s="178"/>
-      <c r="F234" s="178"/>
-      <c r="G234" s="178"/>
-      <c r="H234" s="178"/>
-      <c r="I234" s="178"/>
-      <c r="J234" s="178"/>
-      <c r="K234" s="179"/>
+      <c r="B234" s="84"/>
+      <c r="C234" s="84"/>
+      <c r="D234" s="84"/>
+      <c r="E234" s="84"/>
+      <c r="F234" s="84"/>
+      <c r="G234" s="84"/>
+      <c r="H234" s="84"/>
+      <c r="I234" s="84"/>
+      <c r="J234" s="84"/>
+      <c r="K234" s="85"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="193" t="s">
+      <c r="A235" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B235" s="194"/>
-      <c r="C235" s="194"/>
-      <c r="D235" s="180"/>
-      <c r="E235" s="180"/>
-      <c r="F235" s="180"/>
-      <c r="G235" s="180"/>
-      <c r="H235" s="180"/>
-      <c r="I235" s="180"/>
-      <c r="J235" s="180"/>
-      <c r="K235" s="181"/>
+      <c r="B235" s="78"/>
+      <c r="C235" s="78"/>
+      <c r="D235" s="71"/>
+      <c r="E235" s="71"/>
+      <c r="F235" s="71"/>
+      <c r="G235" s="71"/>
+      <c r="H235" s="71"/>
+      <c r="I235" s="71"/>
+      <c r="J235" s="71"/>
+      <c r="K235" s="72"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="195" t="s">
+      <c r="A236" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="196"/>
-      <c r="C236" s="196"/>
-      <c r="D236" s="182"/>
-      <c r="E236" s="182"/>
-      <c r="F236" s="182"/>
-      <c r="G236" s="182"/>
-      <c r="H236" s="182"/>
-      <c r="I236" s="182"/>
-      <c r="J236" s="182"/>
-      <c r="K236" s="183"/>
+      <c r="B236" s="80"/>
+      <c r="C236" s="80"/>
+      <c r="D236" s="73"/>
+      <c r="E236" s="73"/>
+      <c r="F236" s="73"/>
+      <c r="G236" s="73"/>
+      <c r="H236" s="73"/>
+      <c r="I236" s="73"/>
+      <c r="J236" s="73"/>
+      <c r="K236" s="74"/>
     </row>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="197" t="s">
+      <c r="A237" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="198"/>
-      <c r="C237" s="198"/>
-      <c r="D237" s="184"/>
-      <c r="E237" s="184"/>
-      <c r="F237" s="184"/>
-      <c r="G237" s="184"/>
-      <c r="H237" s="184"/>
-      <c r="I237" s="184"/>
-      <c r="J237" s="184"/>
-      <c r="K237" s="185"/>
+      <c r="B237" s="82"/>
+      <c r="C237" s="82"/>
+      <c r="D237" s="86"/>
+      <c r="E237" s="86"/>
+      <c r="F237" s="86"/>
+      <c r="G237" s="86"/>
+      <c r="H237" s="86"/>
+      <c r="I237" s="86"/>
+      <c r="J237" s="86"/>
+      <c r="K237" s="87"/>
     </row>
     <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="177" t="s">
+      <c r="A238" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B238" s="178"/>
-      <c r="C238" s="178"/>
-      <c r="D238" s="178"/>
-      <c r="E238" s="178"/>
-      <c r="F238" s="178"/>
-      <c r="G238" s="178"/>
-      <c r="H238" s="178"/>
-      <c r="I238" s="178"/>
-      <c r="J238" s="178"/>
-      <c r="K238" s="179"/>
+      <c r="B238" s="84"/>
+      <c r="C238" s="84"/>
+      <c r="D238" s="84"/>
+      <c r="E238" s="84"/>
+      <c r="F238" s="84"/>
+      <c r="G238" s="84"/>
+      <c r="H238" s="84"/>
+      <c r="I238" s="84"/>
+      <c r="J238" s="84"/>
+      <c r="K238" s="85"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="193" t="s">
+      <c r="A239" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="194"/>
-      <c r="C239" s="194"/>
-      <c r="D239" s="180"/>
-      <c r="E239" s="180"/>
-      <c r="F239" s="180"/>
-      <c r="G239" s="180"/>
-      <c r="H239" s="180"/>
-      <c r="I239" s="180"/>
-      <c r="J239" s="180"/>
-      <c r="K239" s="181"/>
+      <c r="B239" s="78"/>
+      <c r="C239" s="78"/>
+      <c r="D239" s="71"/>
+      <c r="E239" s="71"/>
+      <c r="F239" s="71"/>
+      <c r="G239" s="71"/>
+      <c r="H239" s="71"/>
+      <c r="I239" s="71"/>
+      <c r="J239" s="71"/>
+      <c r="K239" s="72"/>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="195" t="s">
+      <c r="A240" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="196"/>
-      <c r="C240" s="196"/>
-      <c r="D240" s="182"/>
-      <c r="E240" s="182"/>
-      <c r="F240" s="182"/>
-      <c r="G240" s="182"/>
-      <c r="H240" s="182"/>
-      <c r="I240" s="182"/>
-      <c r="J240" s="182"/>
-      <c r="K240" s="183"/>
+      <c r="B240" s="80"/>
+      <c r="C240" s="80"/>
+      <c r="D240" s="73"/>
+      <c r="E240" s="73"/>
+      <c r="F240" s="73"/>
+      <c r="G240" s="73"/>
+      <c r="H240" s="73"/>
+      <c r="I240" s="73"/>
+      <c r="J240" s="73"/>
+      <c r="K240" s="74"/>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="189" t="s">
+      <c r="A241" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="190"/>
-      <c r="C241" s="190"/>
-      <c r="D241" s="191"/>
-      <c r="E241" s="191"/>
-      <c r="F241" s="191"/>
-      <c r="G241" s="191"/>
-      <c r="H241" s="191"/>
-      <c r="I241" s="191"/>
-      <c r="J241" s="191"/>
-      <c r="K241" s="192"/>
+      <c r="B241" s="70"/>
+      <c r="C241" s="70"/>
+      <c r="D241" s="75"/>
+      <c r="E241" s="75"/>
+      <c r="F241" s="75"/>
+      <c r="G241" s="75"/>
+      <c r="H241" s="75"/>
+      <c r="I241" s="75"/>
+      <c r="J241" s="75"/>
+      <c r="K241" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="444">
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="G227:K227"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="G199:K199"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="G211:K211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="G212:K212"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="G193:K193"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="G195:K195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="G155:K155"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="G173:K173"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="G157:K157"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="G166:K166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="A174:K174"/>
+    <mergeCell ref="A180:K180"/>
+    <mergeCell ref="A185:K185"/>
+    <mergeCell ref="A194:K194"/>
+    <mergeCell ref="A200:K200"/>
+    <mergeCell ref="G215:K215"/>
+    <mergeCell ref="G216:K216"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A213:K213"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="G181:K181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="G175:K175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G182:K182"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="G142:K142"/>
+    <mergeCell ref="G143:K143"/>
+    <mergeCell ref="G141:K141"/>
+    <mergeCell ref="A133:K133"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="A156:K156"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A139:K139"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="A126:K126"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G147:K147"/>
+    <mergeCell ref="G148:K148"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="G151:K151"/>
+    <mergeCell ref="G150:K150"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="G138:K138"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="G187:K187"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="G189:K189"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="G191:K191"/>
+    <mergeCell ref="G198:K198"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="G201:K201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="G202:K202"/>
+    <mergeCell ref="G203:K203"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="G205:K205"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="G209:K209"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="G210:K210"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="G219:K219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="G214:K214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="G220:K220"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="G217:K217"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="G221:K221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="G222:K222"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D239:K239"/>
+    <mergeCell ref="D240:K240"/>
+    <mergeCell ref="D241:K241"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="D235:K235"/>
+    <mergeCell ref="D236:K236"/>
+    <mergeCell ref="D237:K237"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="D231:K231"/>
+    <mergeCell ref="D232:K232"/>
+    <mergeCell ref="D233:K233"/>
+    <mergeCell ref="A229:K229"/>
+    <mergeCell ref="A224:C224"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="A165:K165"/>
     <mergeCell ref="A53:C53"/>
@@ -7525,426 +7945,6 @@
     <mergeCell ref="G146:K146"/>
     <mergeCell ref="A147:C147"/>
     <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D239:K239"/>
-    <mergeCell ref="D240:K240"/>
-    <mergeCell ref="D241:K241"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A234:K234"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="D235:K235"/>
-    <mergeCell ref="D236:K236"/>
-    <mergeCell ref="D237:K237"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="D231:K231"/>
-    <mergeCell ref="D232:K232"/>
-    <mergeCell ref="D233:K233"/>
-    <mergeCell ref="A229:K229"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="G219:K219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="G214:K214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="G220:K220"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="G217:K217"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="G202:K202"/>
-    <mergeCell ref="G203:K203"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="G205:K205"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="G209:K209"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="G210:K210"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="G201:K201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="G187:K187"/>
-    <mergeCell ref="G188:K188"/>
-    <mergeCell ref="G189:K189"/>
-    <mergeCell ref="G190:K190"/>
-    <mergeCell ref="G191:K191"/>
-    <mergeCell ref="G198:K198"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="G197:K197"/>
-    <mergeCell ref="G147:K147"/>
-    <mergeCell ref="G148:K148"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="G151:K151"/>
-    <mergeCell ref="G150:K150"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="G138:K138"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="G144:K144"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="A126:K126"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="G142:K142"/>
-    <mergeCell ref="G143:K143"/>
-    <mergeCell ref="G141:K141"/>
-    <mergeCell ref="A133:K133"/>
-    <mergeCell ref="A145:K145"/>
-    <mergeCell ref="A156:K156"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="G140:K140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A139:K139"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="G153:K153"/>
-    <mergeCell ref="G154:K154"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="A174:K174"/>
-    <mergeCell ref="A180:K180"/>
-    <mergeCell ref="A185:K185"/>
-    <mergeCell ref="A194:K194"/>
-    <mergeCell ref="A200:K200"/>
-    <mergeCell ref="G215:K215"/>
-    <mergeCell ref="G216:K216"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="A223:K223"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A213:K213"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="G181:K181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="G175:K175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G182:K182"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="G129:K129"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="G155:K155"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="G164:K164"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="G173:K173"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="G157:K157"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="G166:K166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="G221:K221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="G222:K222"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="G227:K227"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="G184:K184"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="G199:K199"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="G211:K211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="G212:K212"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="G193:K193"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="G195:K195"/>
-    <mergeCell ref="A196:C196"/>
   </mergeCells>
   <pageMargins left="0.4375" right="0.35416666666666669" top="1.6875" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
+++ b/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Espacios" sheetId="1" r:id="rId1"/>
-    <sheet name="Combo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espacios!$A$148:$A$151</definedName>
@@ -1677,6 +1676,243 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1686,260 +1922,68 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1959,172 +2003,127 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3765,10 +3764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:P241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3784,211 +3783,291 @@
     <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="28" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="28" width="9.42578125" style="1" customWidth="1"/>
     <col min="29" max="16384" width="15.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="163"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="124"/>
+      <c r="M1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="M2" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="177" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="185"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="176"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111"/>
+      <c r="M3" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="M4" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="N5" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="128"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
+      <c r="P6" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
+      <c r="P7" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="P8" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="172"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="P9" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="P10" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="188"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="P11" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="P12" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="192" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102"/>
+      <c r="P13" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>2</v>
@@ -3996,123 +4075,147 @@
       <c r="F14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="P14" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="P15" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="10"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="P16" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="10"/>
       <c r="E17" s="44"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="P17" s="45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10"/>
       <c r="E18" s="48"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="P18" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="10"/>
       <c r="E19" s="48"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="P19" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="10"/>
       <c r="E20" s="48"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="P20" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="P21" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="11"/>
       <c r="E22" s="6" t="s">
         <v>2</v>
@@ -4120,108 +4223,111 @@
       <c r="F22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="189" t="s">
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="P22" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="190"/>
-      <c r="C23" s="191"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="150"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="189" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="133"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="190"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="189" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="190"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="10"/>
       <c r="E25" s="47"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="10"/>
       <c r="E26" s="48"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="10"/>
       <c r="E27" s="48"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="104"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="104"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
         <v>2</v>
@@ -4229,213 +4335,213 @@
       <c r="F29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="67" t="s">
+      <c r="G29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="10"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="10"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="58"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="10"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="58"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="10"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="58"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="58"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="58"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="10"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="58"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="10"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="10"/>
       <c r="E40" s="48"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="10"/>
       <c r="E41" s="48"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="104"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="56"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="137" t="s">
+      <c r="A43" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="138"/>
-      <c r="C43" s="139"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="20"/>
       <c r="E43" s="15" t="s">
         <v>2</v>
@@ -4443,123 +4549,123 @@
       <c r="F43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="140" t="s">
+      <c r="G43" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="142"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="157"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="58"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="58"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="56"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="58"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="58"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="10"/>
       <c r="E48" s="48"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="104"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="10"/>
       <c r="E49" s="48"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="104"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="143"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="145"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="151"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="23"/>
       <c r="E51" s="21" t="s">
         <v>2</v>
@@ -4567,258 +4673,258 @@
       <c r="F51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="132" t="s">
+      <c r="G51" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="133"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="165"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="10"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="124"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="148"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="124"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="148"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="10"/>
       <c r="E54" s="22"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="127"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="160"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="10"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="110"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="139"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="113"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="10"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="110"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
+      <c r="J57" s="138"/>
+      <c r="K57" s="139"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="10"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="113"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="162"/>
+      <c r="K58" s="163"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="10"/>
       <c r="E59" s="28"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="110"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="139"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="10"/>
       <c r="E60" s="29"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="110"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="139"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="10"/>
       <c r="E61" s="29"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="110"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="139"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="10"/>
       <c r="E62" s="29"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="109"/>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
-      <c r="K62" s="110"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="139"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="10"/>
       <c r="E63" s="30"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="156"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="141"/>
+      <c r="J63" s="141"/>
+      <c r="K63" s="142"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="10"/>
       <c r="E64" s="31"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="156"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
+      <c r="J64" s="141"/>
+      <c r="K64" s="142"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="10"/>
       <c r="E65" s="48"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="104"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="54"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="10"/>
       <c r="E66" s="48"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="104"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="54"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="57"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="71"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="131"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
       <c r="D68" s="32"/>
       <c r="E68" s="33" t="s">
         <v>2</v>
@@ -4826,123 +4932,123 @@
       <c r="F68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="157" t="s">
+      <c r="G68" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="158"/>
-      <c r="I68" s="158"/>
-      <c r="J68" s="158"/>
-      <c r="K68" s="159"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="145"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="117"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="10"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="98"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="86"/>
       <c r="D70" s="10"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="146"/>
-      <c r="H70" s="147"/>
-      <c r="I70" s="147"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="148"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="82"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="73"/>
       <c r="D71" s="10"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="66"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="51"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="117"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="10"/>
       <c r="E72" s="18"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="149"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="66"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="51"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="10"/>
       <c r="E73" s="48"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="104"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="54"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="10"/>
       <c r="E74" s="48"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="104"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="54"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="57"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="71"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="64"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="11"/>
       <c r="E76" s="6" t="s">
         <v>2</v>
@@ -4950,108 +5056,108 @@
       <c r="F76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="128" t="s">
+      <c r="G76" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="128"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="128"/>
-      <c r="K76" s="129"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="80"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="10"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="150"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="132"/>
+      <c r="K77" s="133"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="10"/>
       <c r="E78" s="18"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="100"/>
-      <c r="K78" s="101"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="10"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="149"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="66"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="51"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="10"/>
       <c r="E80" s="48"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="103"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="103"/>
-      <c r="K80" s="104"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="54"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="10"/>
       <c r="E81" s="48"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="104"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="54"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="57"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="71"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="64"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="11"/>
       <c r="E83" s="6" t="s">
         <v>2</v>
@@ -5059,78 +5165,78 @@
       <c r="F83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="128" t="s">
+      <c r="G83" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="128"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="129"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="80"/>
     </row>
     <row r="84" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="10"/>
       <c r="E84" s="47"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
-      <c r="J84" s="135"/>
-      <c r="K84" s="136"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="167"/>
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="168"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="10"/>
       <c r="E85" s="48"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="104"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="54"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="10"/>
       <c r="E86" s="48"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="104"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="54"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="61"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="72"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="11"/>
       <c r="E88" s="6" t="s">
         <v>2</v>
@@ -5138,408 +5244,408 @@
       <c r="F88" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="128" t="s">
+      <c r="G88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="128"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="129"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="80"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="58"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="10"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="57"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="71"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="52" t="s">
+      <c r="A90" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="53"/>
-      <c r="C90" s="58"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="10"/>
       <c r="E90" s="18"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="149"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="66"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="51"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="58"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="10"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="148"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="82"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="58"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="68"/>
       <c r="D92" s="10"/>
       <c r="E92" s="18"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="149"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="66"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="51"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="59" t="s">
+      <c r="A93" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="10"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="146"/>
-      <c r="H93" s="147"/>
-      <c r="I93" s="147"/>
-      <c r="J93" s="147"/>
-      <c r="K93" s="148"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="82"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
       <c r="D94" s="10"/>
       <c r="E94" s="18"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="54"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="56"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
       <c r="D95" s="10"/>
       <c r="E95" s="18"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="149"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="66"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="51"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="59" t="s">
+      <c r="A96" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="10"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="146"/>
-      <c r="H96" s="147"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="147"/>
-      <c r="K96" s="148"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="81"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76"/>
+      <c r="K96" s="82"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
       <c r="D97" s="10"/>
       <c r="E97" s="18"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="149"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="66"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="51"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="10"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="146"/>
-      <c r="H98" s="147"/>
-      <c r="I98" s="147"/>
-      <c r="J98" s="147"/>
-      <c r="K98" s="148"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="82"/>
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="10"/>
       <c r="E99" s="18"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="149"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="66"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="51"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="10"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="146"/>
-      <c r="H100" s="147"/>
-      <c r="I100" s="147"/>
-      <c r="J100" s="147"/>
-      <c r="K100" s="148"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="81"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="82"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52" t="s">
+      <c r="A101" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="10"/>
       <c r="E101" s="18"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="149"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="66"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="51"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
       <c r="D102" s="10"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="146"/>
-      <c r="H102" s="147"/>
-      <c r="I102" s="147"/>
-      <c r="J102" s="147"/>
-      <c r="K102" s="148"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="81"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="82"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="10"/>
       <c r="E103" s="18"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="149"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="66"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="51"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="10"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="146"/>
-      <c r="H104" s="147"/>
-      <c r="I104" s="147"/>
-      <c r="J104" s="147"/>
-      <c r="K104" s="148"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="82"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
       <c r="D105" s="10"/>
       <c r="E105" s="18"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="149"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="66"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="51"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="10"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="146"/>
-      <c r="H106" s="147"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="147"/>
-      <c r="K106" s="148"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="82"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="10"/>
       <c r="E107" s="18"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="149"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="66"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="51"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="10"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="146"/>
-      <c r="H108" s="147"/>
-      <c r="I108" s="147"/>
-      <c r="J108" s="147"/>
-      <c r="K108" s="148"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="82"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="10"/>
       <c r="E109" s="18"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="149"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="66"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="51"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="59" t="s">
+      <c r="A110" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="60"/>
-      <c r="C110" s="60"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="10"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="146"/>
-      <c r="H110" s="147"/>
-      <c r="I110" s="147"/>
-      <c r="J110" s="147"/>
-      <c r="K110" s="148"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="81"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="82"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
       <c r="D111" s="10"/>
       <c r="E111" s="18"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="149"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="66"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="51"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="65"/>
-      <c r="C112" s="66"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="10"/>
       <c r="E112" s="48"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="102"/>
-      <c r="H112" s="103"/>
-      <c r="I112" s="103"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="104"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="54"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="66"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="10"/>
       <c r="E113" s="48"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="102"/>
-      <c r="H113" s="103"/>
-      <c r="I113" s="103"/>
-      <c r="J113" s="103"/>
-      <c r="K113" s="104"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="54"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="52"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="54"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="56"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="62" t="s">
+      <c r="A115" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B115" s="63"/>
-      <c r="C115" s="64"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="67"/>
       <c r="D115" s="34"/>
       <c r="E115" s="6" t="s">
         <v>2</v>
@@ -5547,183 +5653,183 @@
       <c r="F115" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="128" t="s">
+      <c r="G115" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H115" s="128"/>
-      <c r="I115" s="128"/>
-      <c r="J115" s="128"/>
-      <c r="K115" s="129"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="80"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="53"/>
-      <c r="C116" s="117"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="73"/>
       <c r="D116" s="10"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="54"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="56"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="53"/>
-      <c r="C117" s="117"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="73"/>
       <c r="D117" s="10"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="149"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="65"/>
-      <c r="J117" s="65"/>
-      <c r="K117" s="66"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="51"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="59" t="s">
+      <c r="A118" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="60"/>
-      <c r="C118" s="98"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="86"/>
       <c r="D118" s="10"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="100"/>
-      <c r="I118" s="100"/>
-      <c r="J118" s="100"/>
-      <c r="K118" s="101"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="87"/>
+      <c r="H118" s="88"/>
+      <c r="I118" s="88"/>
+      <c r="J118" s="88"/>
+      <c r="K118" s="89"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="52" t="s">
+      <c r="A119" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="117"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="73"/>
       <c r="D119" s="10"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="149"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="65"/>
-      <c r="J119" s="65"/>
-      <c r="K119" s="66"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="50"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="51"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="60"/>
-      <c r="C120" s="98"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="86"/>
       <c r="D120" s="10"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="147"/>
-      <c r="I120" s="147"/>
-      <c r="J120" s="147"/>
-      <c r="K120" s="148"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="81"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="82"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B121" s="56"/>
-      <c r="C121" s="116"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="75"/>
       <c r="D121" s="10"/>
       <c r="E121" s="36"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="99"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="100"/>
-      <c r="K121" s="101"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="87"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="89"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="52" t="s">
+      <c r="A122" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="117"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="10"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="149"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="65"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="66"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="83"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="50"/>
+      <c r="K122" s="51"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="102" t="s">
+      <c r="A123" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B123" s="103"/>
-      <c r="C123" s="195"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="74"/>
       <c r="D123" s="10"/>
       <c r="E123" s="37"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="164"/>
-      <c r="H123" s="165"/>
-      <c r="I123" s="165"/>
-      <c r="J123" s="165"/>
-      <c r="K123" s="166"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="125"/>
+      <c r="H123" s="126"/>
+      <c r="I123" s="126"/>
+      <c r="J123" s="126"/>
+      <c r="K123" s="127"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="66"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="10"/>
       <c r="E124" s="48"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="102"/>
-      <c r="H124" s="103"/>
-      <c r="I124" s="103"/>
-      <c r="J124" s="103"/>
-      <c r="K124" s="104"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B125" s="65"/>
-      <c r="C125" s="66"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="10"/>
       <c r="E125" s="48"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="103"/>
-      <c r="K125" s="104"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="53"/>
+      <c r="K125" s="54"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="54"/>
+      <c r="A126" s="49"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="56"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="62" t="s">
+      <c r="A127" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B127" s="63"/>
-      <c r="C127" s="64"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="67"/>
       <c r="D127" s="14"/>
       <c r="E127" s="6" t="s">
         <v>2</v>
@@ -5731,108 +5837,108 @@
       <c r="F127" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G127" s="67" t="s">
+      <c r="G127" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="68"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="60"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="59" t="s">
+      <c r="A128" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="147"/>
-      <c r="C128" s="196"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="77"/>
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="57"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="69"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="71"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="65"/>
-      <c r="C129" s="197"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="78"/>
       <c r="D129" s="10"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="54"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="56"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="65"/>
-      <c r="C130" s="197"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="78"/>
       <c r="D130" s="10"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="53"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="53"/>
-      <c r="K130" s="54"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="56"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B131" s="65"/>
-      <c r="C131" s="66"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="51"/>
       <c r="D131" s="10"/>
       <c r="E131" s="48"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="102"/>
-      <c r="H131" s="103"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="103"/>
-      <c r="K131" s="104"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="53"/>
+      <c r="I131" s="53"/>
+      <c r="J131" s="53"/>
+      <c r="K131" s="54"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="65"/>
-      <c r="C132" s="66"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="10"/>
       <c r="E132" s="48"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="102"/>
-      <c r="H132" s="103"/>
-      <c r="I132" s="103"/>
-      <c r="J132" s="103"/>
-      <c r="K132" s="104"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="54"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="54"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="56"/>
     </row>
     <row r="134" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="63"/>
-      <c r="C134" s="64"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="67"/>
       <c r="D134" s="14"/>
       <c r="E134" s="6" t="s">
         <v>2</v>
@@ -5840,93 +5946,93 @@
       <c r="F134" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="67" t="s">
+      <c r="G134" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="67"/>
-      <c r="I134" s="67"/>
-      <c r="J134" s="67"/>
-      <c r="K134" s="68"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="60"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B135" s="147"/>
-      <c r="C135" s="98"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="86"/>
       <c r="D135" s="10"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="57"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="71"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55"/>
       <c r="D136" s="10"/>
       <c r="E136" s="18"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="52"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="54"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="55"/>
+      <c r="K136" s="56"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="65"/>
-      <c r="C137" s="66"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="10"/>
       <c r="E137" s="48"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="102"/>
-      <c r="H137" s="103"/>
-      <c r="I137" s="103"/>
-      <c r="J137" s="103"/>
-      <c r="K137" s="104"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="54"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B138" s="65"/>
-      <c r="C138" s="66"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="10"/>
       <c r="E138" s="48"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="102"/>
-      <c r="H138" s="103"/>
-      <c r="I138" s="103"/>
-      <c r="J138" s="103"/>
-      <c r="K138" s="104"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="54"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="53"/>
-      <c r="E139" s="53"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="53"/>
-      <c r="H139" s="53"/>
-      <c r="I139" s="53"/>
-      <c r="J139" s="53"/>
-      <c r="K139" s="54"/>
+      <c r="A139" s="49"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="55"/>
+      <c r="K139" s="56"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B140" s="63"/>
-      <c r="C140" s="64"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="67"/>
       <c r="D140" s="14"/>
       <c r="E140" s="6" t="s">
         <v>2</v>
@@ -5934,93 +6040,93 @@
       <c r="F140" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="67" t="s">
+      <c r="G140" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="68"/>
+      <c r="H140" s="59"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="60"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="59" t="s">
+      <c r="A141" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B141" s="60"/>
-      <c r="C141" s="60"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
       <c r="D141" s="10"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="56"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="57"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="71"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52" t="s">
+      <c r="A142" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B142" s="53"/>
-      <c r="C142" s="53"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55"/>
       <c r="D142" s="10"/>
       <c r="E142" s="18"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="53"/>
-      <c r="I142" s="53"/>
-      <c r="J142" s="53"/>
-      <c r="K142" s="54"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="55"/>
+      <c r="J142" s="55"/>
+      <c r="K142" s="56"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="52" t="s">
+      <c r="A143" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B143" s="65"/>
-      <c r="C143" s="66"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="51"/>
       <c r="D143" s="10"/>
       <c r="E143" s="48"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="102"/>
-      <c r="H143" s="103"/>
-      <c r="I143" s="103"/>
-      <c r="J143" s="103"/>
-      <c r="K143" s="104"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="53"/>
+      <c r="I143" s="53"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="54"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="52" t="s">
+      <c r="A144" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="65"/>
-      <c r="C144" s="66"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="51"/>
       <c r="D144" s="10"/>
       <c r="E144" s="48"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="102"/>
-      <c r="H144" s="103"/>
-      <c r="I144" s="103"/>
-      <c r="J144" s="103"/>
-      <c r="K144" s="104"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="53"/>
+      <c r="I144" s="53"/>
+      <c r="J144" s="53"/>
+      <c r="K144" s="54"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="55"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="56"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="56"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="57"/>
+      <c r="A145" s="69"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="70"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="70"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="71"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="62" t="s">
+      <c r="A146" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="64"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
         <v>2</v>
@@ -6028,168 +6134,168 @@
       <c r="F146" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="67" t="s">
+      <c r="G146" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H146" s="67"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="67"/>
-      <c r="K146" s="68"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="59"/>
+      <c r="J146" s="59"/>
+      <c r="K146" s="60"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B147" s="56"/>
-      <c r="C147" s="56"/>
+      <c r="B147" s="70"/>
+      <c r="C147" s="70"/>
       <c r="D147" s="10"/>
       <c r="E147" s="35"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="56"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="57"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="71"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B148" s="53"/>
-      <c r="C148" s="53"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55"/>
       <c r="D148" s="10"/>
       <c r="E148" s="18"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="54"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="56"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B149" s="53"/>
-      <c r="C149" s="53"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55"/>
       <c r="D149" s="10"/>
       <c r="E149" s="18"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="52"/>
-      <c r="H149" s="53"/>
-      <c r="I149" s="53"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="54"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55"/>
+      <c r="J149" s="55"/>
+      <c r="K149" s="56"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="59" t="s">
+      <c r="A150" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="10"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="60"/>
-      <c r="I150" s="60"/>
-      <c r="J150" s="60"/>
-      <c r="K150" s="61"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="62"/>
+      <c r="I150" s="62"/>
+      <c r="J150" s="62"/>
+      <c r="K150" s="72"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="53"/>
-      <c r="C151" s="53"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="55"/>
       <c r="D151" s="10"/>
       <c r="E151" s="18"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="52"/>
-      <c r="H151" s="53"/>
-      <c r="I151" s="53"/>
-      <c r="J151" s="53"/>
-      <c r="K151" s="54"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="49"/>
+      <c r="H151" s="55"/>
+      <c r="I151" s="55"/>
+      <c r="J151" s="55"/>
+      <c r="K151" s="56"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="59" t="s">
+      <c r="A152" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="62"/>
       <c r="D152" s="10"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="61"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="61"/>
+      <c r="H152" s="62"/>
+      <c r="I152" s="62"/>
+      <c r="J152" s="62"/>
+      <c r="K152" s="72"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B153" s="53"/>
-      <c r="C153" s="53"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55"/>
       <c r="D153" s="10"/>
       <c r="E153" s="18"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="53"/>
-      <c r="I153" s="53"/>
-      <c r="J153" s="53"/>
-      <c r="K153" s="54"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="49"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="55"/>
+      <c r="J153" s="55"/>
+      <c r="K153" s="56"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="52" t="s">
+      <c r="A154" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B154" s="65"/>
-      <c r="C154" s="66"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="51"/>
       <c r="D154" s="10"/>
       <c r="E154" s="48"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="102"/>
-      <c r="H154" s="103"/>
-      <c r="I154" s="103"/>
-      <c r="J154" s="103"/>
-      <c r="K154" s="104"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="53"/>
+      <c r="I154" s="53"/>
+      <c r="J154" s="53"/>
+      <c r="K154" s="54"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="52" t="s">
+      <c r="A155" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B155" s="65"/>
-      <c r="C155" s="66"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="51"/>
       <c r="D155" s="10"/>
       <c r="E155" s="48"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="102"/>
-      <c r="H155" s="103"/>
-      <c r="I155" s="103"/>
-      <c r="J155" s="103"/>
-      <c r="K155" s="104"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="53"/>
+      <c r="I155" s="53"/>
+      <c r="J155" s="53"/>
+      <c r="K155" s="54"/>
     </row>
     <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="55"/>
-      <c r="B156" s="56"/>
-      <c r="C156" s="56"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="56"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="57"/>
+      <c r="A156" s="69"/>
+      <c r="B156" s="70"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="70"/>
+      <c r="H156" s="70"/>
+      <c r="I156" s="70"/>
+      <c r="J156" s="70"/>
+      <c r="K156" s="71"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="62" t="s">
+      <c r="A157" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B157" s="63"/>
-      <c r="C157" s="64"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="67"/>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
         <v>2</v>
@@ -6197,138 +6303,138 @@
       <c r="F157" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="198" t="s">
+      <c r="G157" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H157" s="67"/>
-      <c r="I157" s="67"/>
-      <c r="J157" s="67"/>
-      <c r="K157" s="68"/>
+      <c r="H157" s="59"/>
+      <c r="I157" s="59"/>
+      <c r="J157" s="59"/>
+      <c r="K157" s="60"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="59" t="s">
+      <c r="A158" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
       <c r="D158" s="10"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="59"/>
-      <c r="H158" s="60"/>
-      <c r="I158" s="60"/>
-      <c r="J158" s="60"/>
-      <c r="K158" s="61"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="61"/>
+      <c r="H158" s="62"/>
+      <c r="I158" s="62"/>
+      <c r="J158" s="62"/>
+      <c r="K158" s="72"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B159" s="53"/>
-      <c r="C159" s="53"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55"/>
       <c r="D159" s="10"/>
       <c r="E159" s="18"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="52"/>
-      <c r="H159" s="53"/>
-      <c r="I159" s="53"/>
-      <c r="J159" s="53"/>
-      <c r="K159" s="54"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="55"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="55"/>
+      <c r="K159" s="56"/>
     </row>
     <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="59" t="s">
+      <c r="A160" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="10"/>
       <c r="E160" s="16"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="59"/>
-      <c r="H160" s="60"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="60"/>
-      <c r="K160" s="61"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="62"/>
+      <c r="I160" s="62"/>
+      <c r="J160" s="62"/>
+      <c r="K160" s="72"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="52" t="s">
+      <c r="A161" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B161" s="53"/>
-      <c r="C161" s="53"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="55"/>
       <c r="D161" s="10"/>
       <c r="E161" s="18"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="52"/>
-      <c r="H161" s="53"/>
-      <c r="I161" s="53"/>
-      <c r="J161" s="53"/>
-      <c r="K161" s="54"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="55"/>
+      <c r="I161" s="55"/>
+      <c r="J161" s="55"/>
+      <c r="K161" s="56"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="59" t="s">
+      <c r="A162" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="62"/>
       <c r="D162" s="10"/>
       <c r="E162" s="16"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="52"/>
-      <c r="H162" s="53"/>
-      <c r="I162" s="53"/>
-      <c r="J162" s="53"/>
-      <c r="K162" s="54"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="55"/>
+      <c r="I162" s="55"/>
+      <c r="J162" s="55"/>
+      <c r="K162" s="56"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="52" t="s">
+      <c r="A163" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="65"/>
-      <c r="C163" s="66"/>
+      <c r="B163" s="50"/>
+      <c r="C163" s="51"/>
       <c r="D163" s="10"/>
       <c r="E163" s="48"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="102"/>
-      <c r="H163" s="103"/>
-      <c r="I163" s="103"/>
-      <c r="J163" s="103"/>
-      <c r="K163" s="104"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="53"/>
+      <c r="I163" s="53"/>
+      <c r="J163" s="53"/>
+      <c r="K163" s="54"/>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="52" t="s">
+      <c r="A164" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B164" s="65"/>
-      <c r="C164" s="66"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="51"/>
       <c r="D164" s="10"/>
       <c r="E164" s="48"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="102"/>
-      <c r="H164" s="103"/>
-      <c r="I164" s="103"/>
-      <c r="J164" s="103"/>
-      <c r="K164" s="104"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="53"/>
+      <c r="I164" s="53"/>
+      <c r="J164" s="53"/>
+      <c r="K164" s="54"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="52"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="53"/>
-      <c r="D165" s="53"/>
-      <c r="E165" s="53"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
-      <c r="H165" s="53"/>
-      <c r="I165" s="53"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="54"/>
+      <c r="A165" s="49"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="55"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="55"/>
+      <c r="K165" s="56"/>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="62" t="s">
+      <c r="A166" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B166" s="63"/>
-      <c r="C166" s="64"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="67"/>
       <c r="D166" s="14"/>
       <c r="E166" s="15" t="s">
         <v>2</v>
@@ -6336,138 +6442,138 @@
       <c r="F166" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G166" s="67" t="s">
+      <c r="G166" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H166" s="67"/>
-      <c r="I166" s="67"/>
-      <c r="J166" s="67"/>
-      <c r="K166" s="68"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="60"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="59" t="s">
+      <c r="A167" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="60"/>
-      <c r="C167" s="60"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="62"/>
       <c r="D167" s="10"/>
       <c r="E167" s="16"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="56"/>
-      <c r="I167" s="56"/>
-      <c r="J167" s="56"/>
-      <c r="K167" s="57"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="70"/>
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
+      <c r="K167" s="71"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="52" t="s">
+      <c r="A168" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="53"/>
-      <c r="C168" s="53"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="55"/>
       <c r="D168" s="10"/>
       <c r="E168" s="18"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="52"/>
-      <c r="H168" s="53"/>
-      <c r="I168" s="53"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="54"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="55"/>
+      <c r="K168" s="56"/>
     </row>
     <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="59" t="s">
+      <c r="A169" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="60"/>
-      <c r="C169" s="118"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="63"/>
       <c r="D169" s="10"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="60"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="61"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="61"/>
+      <c r="H169" s="62"/>
+      <c r="I169" s="62"/>
+      <c r="J169" s="62"/>
+      <c r="K169" s="72"/>
     </row>
     <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="52" t="s">
+      <c r="A170" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B170" s="53"/>
-      <c r="C170" s="58"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="68"/>
       <c r="D170" s="10"/>
       <c r="E170" s="18"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="52"/>
-      <c r="H170" s="53"/>
-      <c r="I170" s="53"/>
-      <c r="J170" s="53"/>
-      <c r="K170" s="54"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="55"/>
+      <c r="J170" s="55"/>
+      <c r="K170" s="56"/>
     </row>
     <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="59" t="s">
+      <c r="A171" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B171" s="60"/>
-      <c r="C171" s="118"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="63"/>
       <c r="D171" s="10"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="60"/>
-      <c r="I171" s="60"/>
-      <c r="J171" s="60"/>
-      <c r="K171" s="61"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="62"/>
+      <c r="I171" s="62"/>
+      <c r="J171" s="62"/>
+      <c r="K171" s="72"/>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="52" t="s">
+      <c r="A172" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="65"/>
-      <c r="C172" s="66"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="51"/>
       <c r="D172" s="10"/>
       <c r="E172" s="48"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="52"/>
-      <c r="H172" s="53"/>
-      <c r="I172" s="53"/>
-      <c r="J172" s="53"/>
-      <c r="K172" s="54"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="55"/>
+      <c r="I172" s="55"/>
+      <c r="J172" s="55"/>
+      <c r="K172" s="56"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="52" t="s">
+      <c r="A173" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="65"/>
-      <c r="C173" s="66"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="51"/>
       <c r="D173" s="10"/>
       <c r="E173" s="48"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="102"/>
-      <c r="H173" s="103"/>
-      <c r="I173" s="103"/>
-      <c r="J173" s="103"/>
-      <c r="K173" s="104"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="53"/>
+      <c r="I173" s="53"/>
+      <c r="J173" s="53"/>
+      <c r="K173" s="54"/>
     </row>
     <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="55"/>
-      <c r="B174" s="56"/>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="56"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="57"/>
+      <c r="A174" s="69"/>
+      <c r="B174" s="70"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="70"/>
+      <c r="G174" s="70"/>
+      <c r="H174" s="70"/>
+      <c r="I174" s="70"/>
+      <c r="J174" s="70"/>
+      <c r="K174" s="71"/>
     </row>
     <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="62" t="s">
+      <c r="A175" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="B175" s="63"/>
-      <c r="C175" s="64"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="67"/>
       <c r="D175" s="11"/>
       <c r="E175" s="6" t="s">
         <v>2</v>
@@ -6475,93 +6581,93 @@
       <c r="F175" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G175" s="93" t="s">
+      <c r="G175" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H175" s="93"/>
-      <c r="I175" s="93"/>
-      <c r="J175" s="93"/>
-      <c r="K175" s="94"/>
+      <c r="H175" s="84"/>
+      <c r="I175" s="84"/>
+      <c r="J175" s="84"/>
+      <c r="K175" s="85"/>
     </row>
     <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="59" t="s">
+      <c r="A176" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B176" s="60"/>
-      <c r="C176" s="98"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="86"/>
       <c r="D176" s="10"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="56"/>
-      <c r="I176" s="56"/>
-      <c r="J176" s="56"/>
-      <c r="K176" s="57"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="69"/>
+      <c r="H176" s="70"/>
+      <c r="I176" s="70"/>
+      <c r="J176" s="70"/>
+      <c r="K176" s="71"/>
     </row>
     <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B177" s="53"/>
-      <c r="C177" s="117"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="73"/>
       <c r="D177" s="10"/>
       <c r="E177" s="18"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="52"/>
-      <c r="H177" s="53"/>
-      <c r="I177" s="53"/>
-      <c r="J177" s="53"/>
-      <c r="K177" s="54"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="55"/>
+      <c r="I177" s="55"/>
+      <c r="J177" s="55"/>
+      <c r="K177" s="56"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="52" t="s">
+      <c r="A178" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="65"/>
-      <c r="C178" s="66"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="51"/>
       <c r="D178" s="10"/>
       <c r="E178" s="48"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="102"/>
-      <c r="H178" s="103"/>
-      <c r="I178" s="103"/>
-      <c r="J178" s="103"/>
-      <c r="K178" s="104"/>
+      <c r="G178" s="52"/>
+      <c r="H178" s="53"/>
+      <c r="I178" s="53"/>
+      <c r="J178" s="53"/>
+      <c r="K178" s="54"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="52" t="s">
+      <c r="A179" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="65"/>
-      <c r="C179" s="66"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="51"/>
       <c r="D179" s="10"/>
       <c r="E179" s="48"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="102"/>
-      <c r="H179" s="103"/>
-      <c r="I179" s="103"/>
-      <c r="J179" s="103"/>
-      <c r="K179" s="104"/>
+      <c r="G179" s="52"/>
+      <c r="H179" s="53"/>
+      <c r="I179" s="53"/>
+      <c r="J179" s="53"/>
+      <c r="K179" s="54"/>
     </row>
     <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="55"/>
-      <c r="B180" s="56"/>
-      <c r="C180" s="56"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="56"/>
-      <c r="G180" s="56"/>
-      <c r="H180" s="56"/>
-      <c r="I180" s="56"/>
-      <c r="J180" s="56"/>
-      <c r="K180" s="57"/>
+      <c r="A180" s="69"/>
+      <c r="B180" s="70"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
+      <c r="F180" s="70"/>
+      <c r="G180" s="70"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
+      <c r="J180" s="70"/>
+      <c r="K180" s="71"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="62" t="s">
+      <c r="A181" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B181" s="63"/>
-      <c r="C181" s="64"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="67"/>
       <c r="D181" s="11"/>
       <c r="E181" s="6" t="s">
         <v>2</v>
@@ -6569,78 +6675,78 @@
       <c r="F181" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G181" s="93" t="s">
+      <c r="G181" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H181" s="93"/>
-      <c r="I181" s="93"/>
-      <c r="J181" s="93"/>
-      <c r="K181" s="94"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="84"/>
+      <c r="J181" s="84"/>
+      <c r="K181" s="85"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B182" s="60"/>
-      <c r="C182" s="98"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="86"/>
       <c r="D182" s="10"/>
       <c r="E182" s="16"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="99"/>
-      <c r="H182" s="100"/>
-      <c r="I182" s="100"/>
-      <c r="J182" s="100"/>
-      <c r="K182" s="101"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="87"/>
+      <c r="H182" s="88"/>
+      <c r="I182" s="88"/>
+      <c r="J182" s="88"/>
+      <c r="K182" s="89"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="52" t="s">
+      <c r="A183" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="65"/>
-      <c r="C183" s="66"/>
+      <c r="B183" s="50"/>
+      <c r="C183" s="51"/>
       <c r="D183" s="10"/>
       <c r="E183" s="48"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="52"/>
-      <c r="H183" s="53"/>
-      <c r="I183" s="53"/>
-      <c r="J183" s="53"/>
-      <c r="K183" s="54"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="56"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="52" t="s">
+      <c r="A184" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="65"/>
-      <c r="C184" s="66"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="51"/>
       <c r="D184" s="10"/>
       <c r="E184" s="48"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="102"/>
-      <c r="H184" s="103"/>
-      <c r="I184" s="103"/>
-      <c r="J184" s="103"/>
-      <c r="K184" s="104"/>
+      <c r="G184" s="52"/>
+      <c r="H184" s="53"/>
+      <c r="I184" s="53"/>
+      <c r="J184" s="53"/>
+      <c r="K184" s="54"/>
     </row>
     <row r="185" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="55"/>
-      <c r="B185" s="56"/>
-      <c r="C185" s="56"/>
-      <c r="D185" s="56"/>
-      <c r="E185" s="56"/>
-      <c r="F185" s="56"/>
-      <c r="G185" s="56"/>
-      <c r="H185" s="56"/>
-      <c r="I185" s="56"/>
-      <c r="J185" s="56"/>
-      <c r="K185" s="57"/>
+      <c r="A185" s="69"/>
+      <c r="B185" s="70"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="70"/>
+      <c r="E185" s="70"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
+      <c r="K185" s="71"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="114" t="s">
+      <c r="A186" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B186" s="115"/>
-      <c r="C186" s="115"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58"/>
       <c r="D186" s="38"/>
       <c r="E186" s="15" t="s">
         <v>2</v>
@@ -6648,138 +6754,138 @@
       <c r="F186" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G186" s="67" t="s">
+      <c r="G186" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H186" s="67"/>
-      <c r="I186" s="67"/>
-      <c r="J186" s="67"/>
-      <c r="K186" s="68"/>
+      <c r="H186" s="59"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="60"/>
     </row>
     <row r="187" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="59" t="s">
+      <c r="A187" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B187" s="60"/>
-      <c r="C187" s="98"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="86"/>
       <c r="D187" s="10"/>
       <c r="E187" s="39"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="119"/>
-      <c r="H187" s="120"/>
-      <c r="I187" s="120"/>
-      <c r="J187" s="120"/>
-      <c r="K187" s="121"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="171"/>
+      <c r="H187" s="172"/>
+      <c r="I187" s="172"/>
+      <c r="J187" s="172"/>
+      <c r="K187" s="173"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="52" t="s">
+      <c r="A188" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B188" s="53"/>
-      <c r="C188" s="117"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="73"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="122"/>
-      <c r="H188" s="123"/>
-      <c r="I188" s="123"/>
-      <c r="J188" s="123"/>
-      <c r="K188" s="124"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="146"/>
+      <c r="H188" s="147"/>
+      <c r="I188" s="147"/>
+      <c r="J188" s="147"/>
+      <c r="K188" s="148"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="59" t="s">
+      <c r="A189" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B189" s="60"/>
-      <c r="C189" s="98"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="86"/>
       <c r="D189" s="10"/>
       <c r="E189" s="22"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="126"/>
-      <c r="I189" s="126"/>
-      <c r="J189" s="126"/>
-      <c r="K189" s="127"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="158"/>
+      <c r="H189" s="159"/>
+      <c r="I189" s="159"/>
+      <c r="J189" s="159"/>
+      <c r="K189" s="160"/>
     </row>
     <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="52" t="s">
+      <c r="A190" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B190" s="53"/>
-      <c r="C190" s="117"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="73"/>
       <c r="D190" s="10"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="9"/>
-      <c r="G190" s="122"/>
-      <c r="H190" s="123"/>
-      <c r="I190" s="123"/>
-      <c r="J190" s="123"/>
-      <c r="K190" s="124"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="146"/>
+      <c r="H190" s="147"/>
+      <c r="I190" s="147"/>
+      <c r="J190" s="147"/>
+      <c r="K190" s="148"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="59" t="s">
+      <c r="A191" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B191" s="60"/>
-      <c r="C191" s="118"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="63"/>
       <c r="D191" s="10"/>
       <c r="E191" s="16"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="125"/>
-      <c r="H191" s="126"/>
-      <c r="I191" s="126"/>
-      <c r="J191" s="126"/>
-      <c r="K191" s="127"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="158"/>
+      <c r="H191" s="159"/>
+      <c r="I191" s="159"/>
+      <c r="J191" s="159"/>
+      <c r="K191" s="160"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="52" t="s">
+      <c r="A192" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="65"/>
-      <c r="C192" s="66"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="51"/>
       <c r="D192" s="10"/>
       <c r="E192" s="48"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="52"/>
-      <c r="H192" s="53"/>
-      <c r="I192" s="53"/>
-      <c r="J192" s="53"/>
-      <c r="K192" s="54"/>
+      <c r="G192" s="49"/>
+      <c r="H192" s="55"/>
+      <c r="I192" s="55"/>
+      <c r="J192" s="55"/>
+      <c r="K192" s="56"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="52" t="s">
+      <c r="A193" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B193" s="65"/>
-      <c r="C193" s="66"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="51"/>
       <c r="D193" s="10"/>
       <c r="E193" s="48"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="102"/>
-      <c r="H193" s="103"/>
-      <c r="I193" s="103"/>
-      <c r="J193" s="103"/>
-      <c r="K193" s="104"/>
+      <c r="G193" s="52"/>
+      <c r="H193" s="53"/>
+      <c r="I193" s="53"/>
+      <c r="J193" s="53"/>
+      <c r="K193" s="54"/>
     </row>
     <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="55"/>
-      <c r="B194" s="56"/>
-      <c r="C194" s="56"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="56"/>
-      <c r="F194" s="56"/>
-      <c r="G194" s="56"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="56"/>
-      <c r="J194" s="56"/>
-      <c r="K194" s="57"/>
+      <c r="A194" s="69"/>
+      <c r="B194" s="70"/>
+      <c r="C194" s="70"/>
+      <c r="D194" s="70"/>
+      <c r="E194" s="70"/>
+      <c r="F194" s="70"/>
+      <c r="G194" s="70"/>
+      <c r="H194" s="70"/>
+      <c r="I194" s="70"/>
+      <c r="J194" s="70"/>
+      <c r="K194" s="71"/>
     </row>
     <row r="195" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="114" t="s">
+      <c r="A195" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B195" s="115"/>
-      <c r="C195" s="115"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="58"/>
       <c r="D195" s="38"/>
       <c r="E195" s="15" t="s">
         <v>2</v>
@@ -6787,93 +6893,93 @@
       <c r="F195" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G195" s="67" t="s">
+      <c r="G195" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H195" s="67"/>
-      <c r="I195" s="67"/>
-      <c r="J195" s="67"/>
-      <c r="K195" s="68"/>
+      <c r="H195" s="59"/>
+      <c r="I195" s="59"/>
+      <c r="J195" s="59"/>
+      <c r="K195" s="60"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="59" t="s">
+      <c r="A196" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B196" s="60"/>
-      <c r="C196" s="118"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="63"/>
       <c r="D196" s="10"/>
       <c r="E196" s="16"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="105"/>
-      <c r="H196" s="106"/>
-      <c r="I196" s="106"/>
-      <c r="J196" s="106"/>
-      <c r="K196" s="107"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="174"/>
+      <c r="H196" s="175"/>
+      <c r="I196" s="175"/>
+      <c r="J196" s="175"/>
+      <c r="K196" s="176"/>
     </row>
     <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="52" t="s">
+      <c r="A197" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B197" s="53"/>
-      <c r="C197" s="117"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="73"/>
       <c r="D197" s="10"/>
       <c r="E197" s="29"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="108"/>
-      <c r="H197" s="109"/>
-      <c r="I197" s="109"/>
-      <c r="J197" s="109"/>
-      <c r="K197" s="110"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="137"/>
+      <c r="H197" s="138"/>
+      <c r="I197" s="138"/>
+      <c r="J197" s="138"/>
+      <c r="K197" s="139"/>
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="52" t="s">
+      <c r="A198" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="65"/>
-      <c r="C198" s="66"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="51"/>
       <c r="D198" s="10"/>
       <c r="E198" s="48"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="52"/>
-      <c r="H198" s="53"/>
-      <c r="I198" s="53"/>
-      <c r="J198" s="53"/>
-      <c r="K198" s="54"/>
+      <c r="G198" s="49"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="56"/>
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="52" t="s">
+      <c r="A199" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="65"/>
-      <c r="C199" s="66"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="51"/>
       <c r="D199" s="10"/>
       <c r="E199" s="48"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="102"/>
-      <c r="H199" s="103"/>
-      <c r="I199" s="103"/>
-      <c r="J199" s="103"/>
-      <c r="K199" s="104"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="53"/>
+      <c r="I199" s="53"/>
+      <c r="J199" s="53"/>
+      <c r="K199" s="54"/>
     </row>
     <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="55"/>
-      <c r="B200" s="56"/>
-      <c r="C200" s="56"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="56"/>
-      <c r="F200" s="56"/>
-      <c r="G200" s="56"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="56"/>
-      <c r="J200" s="56"/>
-      <c r="K200" s="57"/>
+      <c r="A200" s="69"/>
+      <c r="B200" s="70"/>
+      <c r="C200" s="70"/>
+      <c r="D200" s="70"/>
+      <c r="E200" s="70"/>
+      <c r="F200" s="70"/>
+      <c r="G200" s="70"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="70"/>
+      <c r="J200" s="70"/>
+      <c r="K200" s="71"/>
     </row>
     <row r="201" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="114" t="s">
+      <c r="A201" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B201" s="115"/>
-      <c r="C201" s="115"/>
+      <c r="B201" s="58"/>
+      <c r="C201" s="58"/>
       <c r="D201" s="38"/>
       <c r="E201" s="15" t="s">
         <v>2</v>
@@ -6881,198 +6987,198 @@
       <c r="F201" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G201" s="67" t="s">
+      <c r="G201" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H201" s="67"/>
-      <c r="I201" s="67"/>
-      <c r="J201" s="67"/>
-      <c r="K201" s="68"/>
+      <c r="H201" s="59"/>
+      <c r="I201" s="59"/>
+      <c r="J201" s="59"/>
+      <c r="K201" s="60"/>
     </row>
     <row r="202" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="59" t="s">
+      <c r="A202" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B202" s="60"/>
-      <c r="C202" s="98"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="86"/>
       <c r="D202" s="10"/>
       <c r="E202" s="40"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="105"/>
-      <c r="H202" s="106"/>
-      <c r="I202" s="106"/>
-      <c r="J202" s="106"/>
-      <c r="K202" s="107"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="174"/>
+      <c r="H202" s="175"/>
+      <c r="I202" s="175"/>
+      <c r="J202" s="175"/>
+      <c r="K202" s="176"/>
     </row>
     <row r="203" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="55" t="s">
+      <c r="A203" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="B203" s="56"/>
-      <c r="C203" s="116"/>
+      <c r="B203" s="70"/>
+      <c r="C203" s="75"/>
       <c r="D203" s="10"/>
       <c r="E203" s="41"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="105"/>
-      <c r="H203" s="106"/>
-      <c r="I203" s="106"/>
-      <c r="J203" s="106"/>
-      <c r="K203" s="107"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="174"/>
+      <c r="H203" s="175"/>
+      <c r="I203" s="175"/>
+      <c r="J203" s="175"/>
+      <c r="K203" s="176"/>
     </row>
     <row r="204" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="52" t="s">
+      <c r="A204" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B204" s="53"/>
-      <c r="C204" s="117"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="73"/>
       <c r="D204" s="10"/>
       <c r="E204" s="29"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="108"/>
-      <c r="H204" s="109"/>
-      <c r="I204" s="109"/>
-      <c r="J204" s="109"/>
-      <c r="K204" s="110"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="137"/>
+      <c r="H204" s="138"/>
+      <c r="I204" s="138"/>
+      <c r="J204" s="138"/>
+      <c r="K204" s="139"/>
     </row>
     <row r="205" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="52" t="s">
+      <c r="A205" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B205" s="53"/>
-      <c r="C205" s="117"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="73"/>
       <c r="D205" s="10"/>
       <c r="E205" s="29"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="108"/>
-      <c r="H205" s="109"/>
-      <c r="I205" s="109"/>
-      <c r="J205" s="109"/>
-      <c r="K205" s="110"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="137"/>
+      <c r="H205" s="138"/>
+      <c r="I205" s="138"/>
+      <c r="J205" s="138"/>
+      <c r="K205" s="139"/>
     </row>
     <row r="206" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="59" t="s">
+      <c r="A206" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="B206" s="60"/>
-      <c r="C206" s="98"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="86"/>
       <c r="D206" s="10"/>
       <c r="E206" s="42"/>
-      <c r="F206" s="9"/>
-      <c r="G206" s="111"/>
-      <c r="H206" s="112"/>
-      <c r="I206" s="112"/>
-      <c r="J206" s="112"/>
-      <c r="K206" s="113"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="161"/>
+      <c r="H206" s="162"/>
+      <c r="I206" s="162"/>
+      <c r="J206" s="162"/>
+      <c r="K206" s="163"/>
     </row>
     <row r="207" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B207" s="53"/>
-      <c r="C207" s="58"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="68"/>
       <c r="D207" s="10"/>
       <c r="E207" s="29"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="108"/>
-      <c r="H207" s="109"/>
-      <c r="I207" s="109"/>
-      <c r="J207" s="109"/>
-      <c r="K207" s="110"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="137"/>
+      <c r="H207" s="138"/>
+      <c r="I207" s="138"/>
+      <c r="J207" s="138"/>
+      <c r="K207" s="139"/>
     </row>
     <row r="208" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="59" t="s">
+      <c r="A208" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B208" s="60"/>
-      <c r="C208" s="118"/>
+      <c r="B208" s="62"/>
+      <c r="C208" s="63"/>
       <c r="D208" s="10"/>
       <c r="E208" s="27"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="111"/>
-      <c r="H208" s="112"/>
-      <c r="I208" s="112"/>
-      <c r="J208" s="112"/>
-      <c r="K208" s="113"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="161"/>
+      <c r="H208" s="162"/>
+      <c r="I208" s="162"/>
+      <c r="J208" s="162"/>
+      <c r="K208" s="163"/>
     </row>
     <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="52" t="s">
+      <c r="A209" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B209" s="53"/>
-      <c r="C209" s="53"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="55"/>
       <c r="D209" s="10"/>
       <c r="E209" s="28"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="108"/>
-      <c r="H209" s="109"/>
-      <c r="I209" s="109"/>
-      <c r="J209" s="109"/>
-      <c r="K209" s="110"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="137"/>
+      <c r="H209" s="138"/>
+      <c r="I209" s="138"/>
+      <c r="J209" s="138"/>
+      <c r="K209" s="139"/>
     </row>
     <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="60"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="62"/>
       <c r="D210" s="10"/>
       <c r="E210" s="42"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="111"/>
-      <c r="H210" s="112"/>
-      <c r="I210" s="112"/>
-      <c r="J210" s="112"/>
-      <c r="K210" s="113"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="161"/>
+      <c r="H210" s="162"/>
+      <c r="I210" s="162"/>
+      <c r="J210" s="162"/>
+      <c r="K210" s="163"/>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="52" t="s">
+      <c r="A211" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="65"/>
-      <c r="C211" s="66"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="51"/>
       <c r="D211" s="10"/>
       <c r="E211" s="48"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="52"/>
-      <c r="H211" s="53"/>
-      <c r="I211" s="53"/>
-      <c r="J211" s="53"/>
-      <c r="K211" s="54"/>
+      <c r="G211" s="49"/>
+      <c r="H211" s="55"/>
+      <c r="I211" s="55"/>
+      <c r="J211" s="55"/>
+      <c r="K211" s="56"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="52" t="s">
+      <c r="A212" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B212" s="65"/>
-      <c r="C212" s="66"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="51"/>
       <c r="D212" s="10"/>
       <c r="E212" s="48"/>
       <c r="F212" s="10"/>
-      <c r="G212" s="102"/>
-      <c r="H212" s="103"/>
-      <c r="I212" s="103"/>
-      <c r="J212" s="103"/>
-      <c r="K212" s="104"/>
+      <c r="G212" s="52"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="53"/>
+      <c r="K212" s="54"/>
     </row>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="55"/>
-      <c r="B213" s="56"/>
-      <c r="C213" s="56"/>
-      <c r="D213" s="56"/>
-      <c r="E213" s="56"/>
-      <c r="F213" s="56"/>
-      <c r="G213" s="56"/>
-      <c r="H213" s="56"/>
-      <c r="I213" s="56"/>
-      <c r="J213" s="56"/>
-      <c r="K213" s="57"/>
+      <c r="A213" s="69"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="70"/>
+      <c r="D213" s="70"/>
+      <c r="E213" s="70"/>
+      <c r="F213" s="70"/>
+      <c r="G213" s="70"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="70"/>
+      <c r="J213" s="70"/>
+      <c r="K213" s="71"/>
     </row>
     <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="62" t="s">
+      <c r="A214" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="B214" s="63"/>
-      <c r="C214" s="64"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="67"/>
       <c r="D214" s="11"/>
       <c r="E214" s="6" t="s">
         <v>2</v>
@@ -7080,78 +7186,78 @@
       <c r="F214" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G214" s="93" t="s">
+      <c r="G214" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H214" s="93"/>
-      <c r="I214" s="93"/>
-      <c r="J214" s="93"/>
-      <c r="K214" s="94"/>
+      <c r="H214" s="84"/>
+      <c r="I214" s="84"/>
+      <c r="J214" s="84"/>
+      <c r="K214" s="85"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B215" s="53"/>
-      <c r="C215" s="54"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="56"/>
       <c r="D215" s="10"/>
       <c r="E215" s="13"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="52"/>
-      <c r="H215" s="53"/>
-      <c r="I215" s="53"/>
-      <c r="J215" s="53"/>
-      <c r="K215" s="54"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="49"/>
+      <c r="H215" s="55"/>
+      <c r="I215" s="55"/>
+      <c r="J215" s="55"/>
+      <c r="K215" s="56"/>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B216" s="65"/>
-      <c r="C216" s="66"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="51"/>
       <c r="D216" s="10"/>
       <c r="E216" s="48"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="52"/>
-      <c r="H216" s="53"/>
-      <c r="I216" s="53"/>
-      <c r="J216" s="53"/>
-      <c r="K216" s="54"/>
+      <c r="G216" s="49"/>
+      <c r="H216" s="55"/>
+      <c r="I216" s="55"/>
+      <c r="J216" s="55"/>
+      <c r="K216" s="56"/>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B217" s="65"/>
-      <c r="C217" s="66"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="51"/>
       <c r="D217" s="10"/>
       <c r="E217" s="48"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="102"/>
-      <c r="H217" s="103"/>
-      <c r="I217" s="103"/>
-      <c r="J217" s="103"/>
-      <c r="K217" s="104"/>
+      <c r="G217" s="52"/>
+      <c r="H217" s="53"/>
+      <c r="I217" s="53"/>
+      <c r="J217" s="53"/>
+      <c r="K217" s="54"/>
     </row>
     <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="55"/>
-      <c r="B218" s="56"/>
-      <c r="C218" s="56"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="56"/>
-      <c r="G218" s="56"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="56"/>
-      <c r="J218" s="56"/>
-      <c r="K218" s="57"/>
+      <c r="A218" s="69"/>
+      <c r="B218" s="70"/>
+      <c r="C218" s="70"/>
+      <c r="D218" s="70"/>
+      <c r="E218" s="70"/>
+      <c r="F218" s="70"/>
+      <c r="G218" s="70"/>
+      <c r="H218" s="70"/>
+      <c r="I218" s="70"/>
+      <c r="J218" s="70"/>
+      <c r="K218" s="71"/>
     </row>
     <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="62" t="s">
+      <c r="A219" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="B219" s="63"/>
-      <c r="C219" s="64"/>
+      <c r="B219" s="66"/>
+      <c r="C219" s="67"/>
       <c r="D219" s="11"/>
       <c r="E219" s="6" t="s">
         <v>2</v>
@@ -7159,78 +7265,78 @@
       <c r="F219" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G219" s="93" t="s">
+      <c r="G219" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="93"/>
-      <c r="I219" s="93"/>
-      <c r="J219" s="93"/>
-      <c r="K219" s="94"/>
+      <c r="H219" s="84"/>
+      <c r="I219" s="84"/>
+      <c r="J219" s="84"/>
+      <c r="K219" s="85"/>
     </row>
     <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="59" t="s">
+      <c r="A220" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B220" s="60"/>
-      <c r="C220" s="98"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="86"/>
       <c r="D220" s="10"/>
       <c r="E220" s="16"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="99"/>
-      <c r="H220" s="100"/>
-      <c r="I220" s="100"/>
-      <c r="J220" s="100"/>
-      <c r="K220" s="101"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="87"/>
+      <c r="H220" s="88"/>
+      <c r="I220" s="88"/>
+      <c r="J220" s="88"/>
+      <c r="K220" s="89"/>
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="52" t="s">
+      <c r="A221" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B221" s="65"/>
-      <c r="C221" s="66"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="51"/>
       <c r="D221" s="10"/>
       <c r="E221" s="48"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="52"/>
-      <c r="H221" s="53"/>
-      <c r="I221" s="53"/>
-      <c r="J221" s="53"/>
-      <c r="K221" s="54"/>
+      <c r="G221" s="49"/>
+      <c r="H221" s="55"/>
+      <c r="I221" s="55"/>
+      <c r="J221" s="55"/>
+      <c r="K221" s="56"/>
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="52" t="s">
+      <c r="A222" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B222" s="65"/>
-      <c r="C222" s="66"/>
+      <c r="B222" s="50"/>
+      <c r="C222" s="51"/>
       <c r="D222" s="10"/>
       <c r="E222" s="48"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="102"/>
-      <c r="H222" s="103"/>
-      <c r="I222" s="103"/>
-      <c r="J222" s="103"/>
-      <c r="K222" s="104"/>
+      <c r="G222" s="52"/>
+      <c r="H222" s="53"/>
+      <c r="I222" s="53"/>
+      <c r="J222" s="53"/>
+      <c r="K222" s="54"/>
     </row>
     <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="55"/>
-      <c r="B223" s="56"/>
-      <c r="C223" s="56"/>
-      <c r="D223" s="56"/>
-      <c r="E223" s="56"/>
-      <c r="F223" s="56"/>
-      <c r="G223" s="56"/>
-      <c r="H223" s="56"/>
-      <c r="I223" s="56"/>
-      <c r="J223" s="56"/>
-      <c r="K223" s="57"/>
+      <c r="A223" s="69"/>
+      <c r="B223" s="70"/>
+      <c r="C223" s="70"/>
+      <c r="D223" s="70"/>
+      <c r="E223" s="70"/>
+      <c r="F223" s="70"/>
+      <c r="G223" s="70"/>
+      <c r="H223" s="70"/>
+      <c r="I223" s="70"/>
+      <c r="J223" s="70"/>
+      <c r="K223" s="71"/>
     </row>
     <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="91" t="s">
+      <c r="A224" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="B224" s="92"/>
-      <c r="C224" s="92"/>
+      <c r="B224" s="198"/>
+      <c r="C224" s="198"/>
       <c r="D224" s="32"/>
       <c r="E224" s="43" t="s">
         <v>2</v>
@@ -7238,333 +7344,621 @@
       <c r="F224" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G224" s="93" t="s">
+      <c r="G224" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="93"/>
-      <c r="I224" s="93"/>
-      <c r="J224" s="93"/>
-      <c r="K224" s="94"/>
+      <c r="H224" s="84"/>
+      <c r="I224" s="84"/>
+      <c r="J224" s="84"/>
+      <c r="K224" s="85"/>
     </row>
     <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="95" t="s">
+      <c r="A225" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="B225" s="96"/>
-      <c r="C225" s="97"/>
+      <c r="B225" s="132"/>
+      <c r="C225" s="177"/>
       <c r="D225" s="10"/>
       <c r="E225" s="16"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="56"/>
-      <c r="I225" s="56"/>
-      <c r="J225" s="56"/>
-      <c r="K225" s="57"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="69"/>
+      <c r="H225" s="70"/>
+      <c r="I225" s="70"/>
+      <c r="J225" s="70"/>
+      <c r="K225" s="71"/>
     </row>
     <row r="226" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="52" t="s">
+      <c r="A226" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B226" s="65"/>
-      <c r="C226" s="66"/>
+      <c r="B226" s="50"/>
+      <c r="C226" s="51"/>
       <c r="D226" s="10"/>
       <c r="E226" s="48"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="52"/>
-      <c r="H226" s="53"/>
-      <c r="I226" s="53"/>
-      <c r="J226" s="53"/>
-      <c r="K226" s="54"/>
+      <c r="G226" s="49"/>
+      <c r="H226" s="55"/>
+      <c r="I226" s="55"/>
+      <c r="J226" s="55"/>
+      <c r="K226" s="56"/>
     </row>
     <row r="227" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="52" t="s">
+      <c r="A227" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B227" s="65"/>
-      <c r="C227" s="66"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="51"/>
       <c r="D227" s="10"/>
       <c r="E227" s="48"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="102"/>
-      <c r="H227" s="103"/>
-      <c r="I227" s="103"/>
-      <c r="J227" s="103"/>
-      <c r="K227" s="104"/>
+      <c r="G227" s="52"/>
+      <c r="H227" s="53"/>
+      <c r="I227" s="53"/>
+      <c r="J227" s="53"/>
+      <c r="K227" s="54"/>
     </row>
     <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="52"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="53"/>
-      <c r="D228" s="53"/>
-      <c r="E228" s="53"/>
-      <c r="F228" s="53"/>
-      <c r="G228" s="53"/>
-      <c r="H228" s="53"/>
-      <c r="I228" s="53"/>
-      <c r="J228" s="53"/>
-      <c r="K228" s="54"/>
+      <c r="A228" s="49"/>
+      <c r="B228" s="55"/>
+      <c r="C228" s="55"/>
+      <c r="D228" s="55"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="55"/>
+      <c r="G228" s="55"/>
+      <c r="H228" s="55"/>
+      <c r="I228" s="55"/>
+      <c r="J228" s="55"/>
+      <c r="K228" s="56"/>
     </row>
     <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="88" t="s">
+      <c r="A229" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="B229" s="89"/>
-      <c r="C229" s="89"/>
-      <c r="D229" s="89"/>
-      <c r="E229" s="89"/>
-      <c r="F229" s="89"/>
-      <c r="G229" s="89"/>
-      <c r="H229" s="89"/>
-      <c r="I229" s="89"/>
-      <c r="J229" s="89"/>
-      <c r="K229" s="90"/>
+      <c r="B229" s="101"/>
+      <c r="C229" s="101"/>
+      <c r="D229" s="101"/>
+      <c r="E229" s="101"/>
+      <c r="F229" s="101"/>
+      <c r="G229" s="101"/>
+      <c r="H229" s="101"/>
+      <c r="I229" s="101"/>
+      <c r="J229" s="101"/>
+      <c r="K229" s="102"/>
     </row>
     <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="83" t="s">
+      <c r="A230" s="192" t="s">
         <v>152</v>
       </c>
-      <c r="B230" s="84"/>
-      <c r="C230" s="84"/>
-      <c r="D230" s="84"/>
-      <c r="E230" s="84"/>
-      <c r="F230" s="84"/>
-      <c r="G230" s="84"/>
-      <c r="H230" s="84"/>
-      <c r="I230" s="84"/>
-      <c r="J230" s="84"/>
-      <c r="K230" s="85"/>
+      <c r="B230" s="193"/>
+      <c r="C230" s="193"/>
+      <c r="D230" s="193"/>
+      <c r="E230" s="193"/>
+      <c r="F230" s="193"/>
+      <c r="G230" s="193"/>
+      <c r="H230" s="193"/>
+      <c r="I230" s="193"/>
+      <c r="J230" s="193"/>
+      <c r="K230" s="194"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="77" t="s">
+      <c r="A231" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B231" s="78"/>
-      <c r="C231" s="78"/>
-      <c r="D231" s="71"/>
-      <c r="E231" s="71"/>
-      <c r="F231" s="71"/>
-      <c r="G231" s="71"/>
-      <c r="H231" s="71"/>
-      <c r="I231" s="71"/>
-      <c r="J231" s="71"/>
-      <c r="K231" s="72"/>
+      <c r="B231" s="187"/>
+      <c r="C231" s="187"/>
+      <c r="D231" s="180"/>
+      <c r="E231" s="180"/>
+      <c r="F231" s="180"/>
+      <c r="G231" s="180"/>
+      <c r="H231" s="180"/>
+      <c r="I231" s="180"/>
+      <c r="J231" s="180"/>
+      <c r="K231" s="181"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="79" t="s">
+      <c r="A232" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B232" s="80"/>
-      <c r="C232" s="80"/>
-      <c r="D232" s="73"/>
-      <c r="E232" s="73"/>
-      <c r="F232" s="73"/>
-      <c r="G232" s="73"/>
-      <c r="H232" s="73"/>
-      <c r="I232" s="73"/>
-      <c r="J232" s="73"/>
-      <c r="K232" s="74"/>
+      <c r="B232" s="189"/>
+      <c r="C232" s="189"/>
+      <c r="D232" s="182"/>
+      <c r="E232" s="182"/>
+      <c r="F232" s="182"/>
+      <c r="G232" s="182"/>
+      <c r="H232" s="182"/>
+      <c r="I232" s="182"/>
+      <c r="J232" s="182"/>
+      <c r="K232" s="183"/>
     </row>
     <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="81" t="s">
+      <c r="A233" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="82"/>
-      <c r="C233" s="82"/>
-      <c r="D233" s="86"/>
-      <c r="E233" s="86"/>
-      <c r="F233" s="86"/>
-      <c r="G233" s="86"/>
-      <c r="H233" s="86"/>
-      <c r="I233" s="86"/>
-      <c r="J233" s="86"/>
-      <c r="K233" s="87"/>
+      <c r="B233" s="191"/>
+      <c r="C233" s="191"/>
+      <c r="D233" s="195"/>
+      <c r="E233" s="195"/>
+      <c r="F233" s="195"/>
+      <c r="G233" s="195"/>
+      <c r="H233" s="195"/>
+      <c r="I233" s="195"/>
+      <c r="J233" s="195"/>
+      <c r="K233" s="196"/>
     </row>
     <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="83" t="s">
+      <c r="A234" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="B234" s="84"/>
-      <c r="C234" s="84"/>
-      <c r="D234" s="84"/>
-      <c r="E234" s="84"/>
-      <c r="F234" s="84"/>
-      <c r="G234" s="84"/>
-      <c r="H234" s="84"/>
-      <c r="I234" s="84"/>
-      <c r="J234" s="84"/>
-      <c r="K234" s="85"/>
+      <c r="B234" s="193"/>
+      <c r="C234" s="193"/>
+      <c r="D234" s="193"/>
+      <c r="E234" s="193"/>
+      <c r="F234" s="193"/>
+      <c r="G234" s="193"/>
+      <c r="H234" s="193"/>
+      <c r="I234" s="193"/>
+      <c r="J234" s="193"/>
+      <c r="K234" s="194"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="77" t="s">
+      <c r="A235" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B235" s="78"/>
-      <c r="C235" s="78"/>
-      <c r="D235" s="71"/>
-      <c r="E235" s="71"/>
-      <c r="F235" s="71"/>
-      <c r="G235" s="71"/>
-      <c r="H235" s="71"/>
-      <c r="I235" s="71"/>
-      <c r="J235" s="71"/>
-      <c r="K235" s="72"/>
+      <c r="B235" s="187"/>
+      <c r="C235" s="187"/>
+      <c r="D235" s="180"/>
+      <c r="E235" s="180"/>
+      <c r="F235" s="180"/>
+      <c r="G235" s="180"/>
+      <c r="H235" s="180"/>
+      <c r="I235" s="180"/>
+      <c r="J235" s="180"/>
+      <c r="K235" s="181"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="79" t="s">
+      <c r="A236" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="80"/>
-      <c r="C236" s="80"/>
-      <c r="D236" s="73"/>
-      <c r="E236" s="73"/>
-      <c r="F236" s="73"/>
-      <c r="G236" s="73"/>
-      <c r="H236" s="73"/>
-      <c r="I236" s="73"/>
-      <c r="J236" s="73"/>
-      <c r="K236" s="74"/>
+      <c r="B236" s="189"/>
+      <c r="C236" s="189"/>
+      <c r="D236" s="182"/>
+      <c r="E236" s="182"/>
+      <c r="F236" s="182"/>
+      <c r="G236" s="182"/>
+      <c r="H236" s="182"/>
+      <c r="I236" s="182"/>
+      <c r="J236" s="182"/>
+      <c r="K236" s="183"/>
     </row>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="81" t="s">
+      <c r="A237" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="82"/>
-      <c r="C237" s="82"/>
-      <c r="D237" s="86"/>
-      <c r="E237" s="86"/>
-      <c r="F237" s="86"/>
-      <c r="G237" s="86"/>
-      <c r="H237" s="86"/>
-      <c r="I237" s="86"/>
-      <c r="J237" s="86"/>
-      <c r="K237" s="87"/>
+      <c r="B237" s="191"/>
+      <c r="C237" s="191"/>
+      <c r="D237" s="195"/>
+      <c r="E237" s="195"/>
+      <c r="F237" s="195"/>
+      <c r="G237" s="195"/>
+      <c r="H237" s="195"/>
+      <c r="I237" s="195"/>
+      <c r="J237" s="195"/>
+      <c r="K237" s="196"/>
     </row>
     <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="83" t="s">
+      <c r="A238" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="B238" s="84"/>
-      <c r="C238" s="84"/>
-      <c r="D238" s="84"/>
-      <c r="E238" s="84"/>
-      <c r="F238" s="84"/>
-      <c r="G238" s="84"/>
-      <c r="H238" s="84"/>
-      <c r="I238" s="84"/>
-      <c r="J238" s="84"/>
-      <c r="K238" s="85"/>
+      <c r="B238" s="193"/>
+      <c r="C238" s="193"/>
+      <c r="D238" s="193"/>
+      <c r="E238" s="193"/>
+      <c r="F238" s="193"/>
+      <c r="G238" s="193"/>
+      <c r="H238" s="193"/>
+      <c r="I238" s="193"/>
+      <c r="J238" s="193"/>
+      <c r="K238" s="194"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="77" t="s">
+      <c r="A239" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="78"/>
-      <c r="C239" s="78"/>
-      <c r="D239" s="71"/>
-      <c r="E239" s="71"/>
-      <c r="F239" s="71"/>
-      <c r="G239" s="71"/>
-      <c r="H239" s="71"/>
-      <c r="I239" s="71"/>
-      <c r="J239" s="71"/>
-      <c r="K239" s="72"/>
+      <c r="B239" s="187"/>
+      <c r="C239" s="187"/>
+      <c r="D239" s="180"/>
+      <c r="E239" s="180"/>
+      <c r="F239" s="180"/>
+      <c r="G239" s="180"/>
+      <c r="H239" s="180"/>
+      <c r="I239" s="180"/>
+      <c r="J239" s="180"/>
+      <c r="K239" s="181"/>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="79" t="s">
+      <c r="A240" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="80"/>
-      <c r="C240" s="80"/>
-      <c r="D240" s="73"/>
-      <c r="E240" s="73"/>
-      <c r="F240" s="73"/>
-      <c r="G240" s="73"/>
-      <c r="H240" s="73"/>
-      <c r="I240" s="73"/>
-      <c r="J240" s="73"/>
-      <c r="K240" s="74"/>
+      <c r="B240" s="189"/>
+      <c r="C240" s="189"/>
+      <c r="D240" s="182"/>
+      <c r="E240" s="182"/>
+      <c r="F240" s="182"/>
+      <c r="G240" s="182"/>
+      <c r="H240" s="182"/>
+      <c r="I240" s="182"/>
+      <c r="J240" s="182"/>
+      <c r="K240" s="183"/>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="69" t="s">
+      <c r="A241" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="70"/>
-      <c r="C241" s="70"/>
-      <c r="D241" s="75"/>
-      <c r="E241" s="75"/>
-      <c r="F241" s="75"/>
-      <c r="G241" s="75"/>
-      <c r="H241" s="75"/>
-      <c r="I241" s="75"/>
-      <c r="J241" s="75"/>
-      <c r="K241" s="76"/>
+      <c r="B241" s="179"/>
+      <c r="C241" s="179"/>
+      <c r="D241" s="184"/>
+      <c r="E241" s="184"/>
+      <c r="F241" s="184"/>
+      <c r="G241" s="184"/>
+      <c r="H241" s="184"/>
+      <c r="I241" s="184"/>
+      <c r="J241" s="184"/>
+      <c r="K241" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="444">
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="G227:K227"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="G184:K184"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="G199:K199"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="G211:K211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="G212:K212"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="G193:K193"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="G195:K195"/>
-    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="D231:K231"/>
+    <mergeCell ref="D232:K232"/>
+    <mergeCell ref="D233:K233"/>
+    <mergeCell ref="A229:K229"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="A165:K165"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A114:K114"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D239:K239"/>
+    <mergeCell ref="D240:K240"/>
+    <mergeCell ref="D241:K241"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="D235:K235"/>
+    <mergeCell ref="D236:K236"/>
+    <mergeCell ref="D237:K237"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="G219:K219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="G214:K214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="G220:K220"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="G217:K217"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="G221:K221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="G222:K222"/>
+    <mergeCell ref="G202:K202"/>
+    <mergeCell ref="G203:K203"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="G205:K205"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="G209:K209"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="G210:K210"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="G151:K151"/>
+    <mergeCell ref="G150:K150"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="G138:K138"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="G187:K187"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="G189:K189"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="G191:K191"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G147:K147"/>
+    <mergeCell ref="G148:K148"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="G146:K146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="G142:K142"/>
+    <mergeCell ref="G143:K143"/>
+    <mergeCell ref="G141:K141"/>
+    <mergeCell ref="A133:K133"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="A156:K156"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A139:K139"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
     <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="G155:K155"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="G164:K164"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="G173:K173"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="G157:K157"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="G166:K166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="A174:K174"/>
+    <mergeCell ref="A180:K180"/>
+    <mergeCell ref="A185:K185"/>
+    <mergeCell ref="A194:K194"/>
+    <mergeCell ref="A200:K200"/>
+    <mergeCell ref="G215:K215"/>
+    <mergeCell ref="G216:K216"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A213:K213"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="G181:K181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="G175:K175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G182:K182"/>
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="G132:K132"/>
     <mergeCell ref="G74:K74"/>
@@ -7589,363 +7983,92 @@
     <mergeCell ref="G99:K99"/>
     <mergeCell ref="G98:K98"/>
     <mergeCell ref="G97:K97"/>
-    <mergeCell ref="A174:K174"/>
-    <mergeCell ref="A180:K180"/>
-    <mergeCell ref="A185:K185"/>
-    <mergeCell ref="A194:K194"/>
-    <mergeCell ref="A200:K200"/>
-    <mergeCell ref="G215:K215"/>
-    <mergeCell ref="G216:K216"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="A223:K223"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A213:K213"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="G181:K181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="G175:K175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G182:K182"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="G153:K153"/>
-    <mergeCell ref="G154:K154"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="G142:K142"/>
-    <mergeCell ref="G143:K143"/>
-    <mergeCell ref="G141:K141"/>
-    <mergeCell ref="A133:K133"/>
-    <mergeCell ref="A145:K145"/>
-    <mergeCell ref="A156:K156"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="G140:K140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A139:K139"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="G115:K115"/>
     <mergeCell ref="A126:K126"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G147:K147"/>
-    <mergeCell ref="G148:K148"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="G151:K151"/>
-    <mergeCell ref="G150:K150"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="G138:K138"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="G144:K144"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="G155:K155"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="G173:K173"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="G157:K157"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="G166:K166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="G227:K227"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="G199:K199"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="G211:K211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="G212:K212"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="G193:K193"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="G195:K195"/>
+    <mergeCell ref="A196:C196"/>
     <mergeCell ref="A198:C198"/>
-    <mergeCell ref="G187:K187"/>
-    <mergeCell ref="G188:K188"/>
-    <mergeCell ref="G189:K189"/>
-    <mergeCell ref="G190:K190"/>
-    <mergeCell ref="G191:K191"/>
     <mergeCell ref="G198:K198"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="G197:K197"/>
     <mergeCell ref="A201:C201"/>
     <mergeCell ref="G201:K201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="G202:K202"/>
-    <mergeCell ref="G203:K203"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="G205:K205"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="G209:K209"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="G210:K210"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="G219:K219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="G214:K214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="G220:K220"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="G217:K217"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="G221:K221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="G222:K222"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D239:K239"/>
-    <mergeCell ref="D240:K240"/>
-    <mergeCell ref="D241:K241"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A234:K234"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="D235:K235"/>
-    <mergeCell ref="D236:K236"/>
-    <mergeCell ref="D237:K237"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="D231:K231"/>
-    <mergeCell ref="D232:K232"/>
-    <mergeCell ref="D233:K233"/>
-    <mergeCell ref="A229:K229"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="A165:K165"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A114:K114"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="G146:K146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
   </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:K10">
+      <formula1>$N$2:$N$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
+      <formula1>$P$2:$P$22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D16 D23:D27 D30:D41 D44:D49 D52:D66 D69:D74 D77:D81 D84:D86 D89:D113 D116:D125 D128:D132 D135:D138 D141:D144 D147:D155 D158:D164 D167:D173 D176:D179 D182:D184 D187:D193 D196:D199 D202:D212 D215:D217 D220:D222 D225:D227">
+      <formula1>$O$2:$O$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F20 F23:F27 F30:F41 F44:F49 F52:F66 F69:F74 F77:F81 F84:F86 F89:F113 F116:F125 F128:F132 F135:F138 F141:F144 F147:F155 F158:F164 F167:F173 F176:F179 F182:F184 F187:F193 F196:F199 F202:F212 F215:F217 F220:F222 F225:F227">
+      <formula1>$M$2:$M$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D20">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.4375" right="0.35416666666666669" top="1.6875" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -7955,199 +8078,5 @@
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Combo!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F15:F20 F23:F27 F30:F41 F44:F49 F52:F66 F69:F74 F77:F81 F84:F86 F89:F113 F116:F125 F128:F132 F135:F138 F141:F144 F147:F155 F158:F164 F167:F173 F176:F179 F182:F184 F202:F212 F187:F193 F215:F217 F220:F222 F196:F199 F225:F227</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Combo!$C$2:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B10:K10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Combo!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D15:D20 D23:D27 D30:D41 D44:D49 D52:D66 D69:D74 D77:D81 D84:D86 D89:D113 D116:D125 D128:D132 D135:D138 D141:D144 D147:D155 D158:D164 D167:D173 D176:D179 D182:D184 D202:D212 D187:D193 D215:D217 D220:D222 D196:D199 D225:D227</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Combo!$G$2:$G$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:K6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="45" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
+++ b/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
@@ -1676,15 +1676,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1694,76 +1838,169 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,31 +2009,25 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,15 +2058,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,238 +2114,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3766,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F227" sqref="F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3793,21 +3793,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="124"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="163"/>
       <c r="M1" s="46" t="s">
         <v>1</v>
       </c>
@@ -3822,17 +3822,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182"/>
       <c r="M2" s="45" t="s">
         <v>160</v>
       </c>
@@ -3850,20 +3850,20 @@
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="103" t="s">
+      <c r="C3" s="169"/>
+      <c r="D3" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="185"/>
       <c r="M3" s="45" t="s">
         <v>161</v>
       </c>
@@ -3878,17 +3878,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="176"/>
       <c r="M4" s="45" t="s">
         <v>162</v>
       </c>
@@ -3900,19 +3900,19 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
       <c r="N5" s="45" t="s">
         <v>167</v>
       </c>
@@ -3924,16 +3924,16 @@
       <c r="A6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
       <c r="P6" s="45" t="s">
         <v>184</v>
       </c>
@@ -3942,16 +3942,16 @@
       <c r="A7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="P7" s="45" t="s">
         <v>185</v>
       </c>
@@ -3960,16 +3960,16 @@
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
       <c r="P8" s="45" t="s">
         <v>186</v>
       </c>
@@ -3978,16 +3978,16 @@
       <c r="A9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
       <c r="P9" s="45" t="s">
         <v>187</v>
       </c>
@@ -3996,16 +3996,16 @@
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
       <c r="P10" s="45" t="s">
         <v>188</v>
       </c>
@@ -4014,60 +4014,60 @@
       <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
       <c r="P11" s="45" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="P12" s="45" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
       <c r="P13" s="45" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>2</v>
@@ -4075,13 +4075,13 @@
       <c r="F14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
       <c r="P14" s="45" t="s">
         <v>192</v>
       </c>
@@ -4090,132 +4090,132 @@
       <c r="A15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
       <c r="P15" s="45" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="10"/>
       <c r="E16" s="48"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
       <c r="P16" s="45" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="10"/>
       <c r="E17" s="44"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
       <c r="P17" s="45" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="10"/>
       <c r="E18" s="48"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
       <c r="P18" s="45" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="10"/>
       <c r="E19" s="48"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
       <c r="P19" s="45" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="10"/>
       <c r="E20" s="48"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
       <c r="P20" s="45" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
       <c r="P21" s="45" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="11"/>
       <c r="E22" s="6" t="s">
         <v>2</v>
@@ -4223,111 +4223,111 @@
       <c r="F22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
       <c r="P22" s="45" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="132"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
     </row>
     <row r="25" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="10"/>
       <c r="E25" s="47"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="10"/>
       <c r="E26" s="48"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="10"/>
       <c r="E27" s="48"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
         <v>2</v>
@@ -4335,213 +4335,213 @@
       <c r="F29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="118"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="10"/>
       <c r="E31" s="17"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="56"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="10"/>
       <c r="E32" s="18"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="10"/>
       <c r="E33" s="18"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="68"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="10"/>
       <c r="E34" s="18"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="68"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="68"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="68"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="10"/>
       <c r="E38" s="18"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="10"/>
       <c r="E39" s="19"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="56"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="10"/>
       <c r="E40" s="48"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="102"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="10"/>
       <c r="E41" s="48"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="102"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="154"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="20"/>
       <c r="E43" s="15" t="s">
         <v>2</v>
@@ -4549,123 +4549,123 @@
       <c r="F43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="155" t="s">
+      <c r="G43" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="157"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="145"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="68"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="10"/>
       <c r="E44" s="16"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="56"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="68"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="56"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="68"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="10"/>
       <c r="E47" s="18"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="56"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="10"/>
       <c r="E48" s="48"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="102"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="10"/>
       <c r="E49" s="48"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="102"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="149"/>
-      <c r="B50" s="150"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="151"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="148"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="23"/>
       <c r="E51" s="21" t="s">
         <v>2</v>
@@ -4673,238 +4673,238 @@
       <c r="F51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="164" t="s">
+      <c r="G51" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="165"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="136"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="10"/>
       <c r="E52" s="25"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="148"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="124"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="147"/>
-      <c r="K53" s="148"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="124"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="10"/>
       <c r="E54" s="22"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="160"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="127"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="10"/>
       <c r="E55" s="26"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="139"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="108"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="111"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="10"/>
       <c r="E57" s="18"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
-      <c r="K57" s="139"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="10"/>
       <c r="E58" s="27"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="161"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="162"/>
-      <c r="K58" s="163"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="111"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="10"/>
       <c r="E59" s="28"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="139"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="108"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="10"/>
       <c r="E60" s="29"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="138"/>
-      <c r="K60" s="139"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="108"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="10"/>
       <c r="E61" s="29"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="139"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="108"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="10"/>
       <c r="E62" s="29"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="138"/>
-      <c r="K62" s="139"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="108"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="10"/>
       <c r="E63" s="30"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
-      <c r="J63" s="141"/>
-      <c r="K63" s="142"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="154"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="10"/>
       <c r="E64" s="31"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
-      <c r="J64" s="141"/>
-      <c r="K64" s="142"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="154"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="95"/>
       <c r="D65" s="10"/>
       <c r="E65" s="48"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="54"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="102"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="95"/>
       <c r="D66" s="10"/>
       <c r="E66" s="48"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="54"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="102"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="69"/>
@@ -4920,11 +4920,11 @@
       <c r="K67" s="71"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="169" t="s">
+      <c r="A68" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="134"/>
       <c r="D68" s="32"/>
       <c r="E68" s="33" t="s">
         <v>2</v>
@@ -4932,103 +4932,103 @@
       <c r="F68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="143" t="s">
+      <c r="G68" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="145"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="157"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="73"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="113"/>
       <c r="D69" s="10"/>
       <c r="E69" s="18"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="56"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="68"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="86"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="96"/>
       <c r="D70" s="10"/>
       <c r="E70" s="16"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="82"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="129"/>
+      <c r="I70" s="129"/>
+      <c r="J70" s="129"/>
+      <c r="K70" s="130"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="73"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="113"/>
       <c r="D71" s="10"/>
       <c r="E71" s="18"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="51"/>
+      <c r="G71" s="131"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="95"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="73"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="113"/>
       <c r="D72" s="10"/>
       <c r="E72" s="18"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
+      <c r="G72" s="131"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="95"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="10"/>
       <c r="E73" s="48"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="54"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="102"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="95"/>
       <c r="D74" s="10"/>
       <c r="E74" s="48"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="54"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="102"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69"/>
@@ -5044,11 +5044,11 @@
       <c r="K75" s="71"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="67"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="11"/>
       <c r="E76" s="6" t="s">
         <v>2</v>
@@ -5056,88 +5056,88 @@
       <c r="F76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="79" t="s">
+      <c r="G76" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="80"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="158"/>
+      <c r="K76" s="159"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="10"/>
       <c r="E77" s="16"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="131"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
-      <c r="K77" s="133"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="132"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="10"/>
       <c r="E78" s="18"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="89"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="98"/>
+      <c r="K78" s="99"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="10"/>
       <c r="E79" s="18"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="51"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="94"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="95"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="95"/>
       <c r="D80" s="10"/>
       <c r="E80" s="48"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="54"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="102"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="95"/>
       <c r="D81" s="10"/>
       <c r="E81" s="48"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="54"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="102"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="69"/>
@@ -5153,11 +5153,11 @@
       <c r="K82" s="71"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="67"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="11"/>
       <c r="E83" s="6" t="s">
         <v>2</v>
@@ -5165,78 +5165,78 @@
       <c r="F83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="79" t="s">
+      <c r="G83" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="80"/>
+      <c r="H83" s="158"/>
+      <c r="I83" s="158"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="159"/>
     </row>
     <row r="84" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="95"/>
       <c r="D84" s="10"/>
       <c r="E84" s="47"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="166"/>
-      <c r="H84" s="167"/>
-      <c r="I84" s="167"/>
-      <c r="J84" s="167"/>
-      <c r="K84" s="168"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="138"/>
+      <c r="I84" s="138"/>
+      <c r="J84" s="138"/>
+      <c r="K84" s="139"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="95"/>
       <c r="D85" s="10"/>
       <c r="E85" s="48"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="54"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="101"/>
+      <c r="I85" s="101"/>
+      <c r="J85" s="101"/>
+      <c r="K85" s="102"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="95"/>
       <c r="D86" s="10"/>
       <c r="E86" s="48"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="54"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="101"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="101"/>
+      <c r="K86" s="102"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="72"/>
+      <c r="A87" s="73"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="75"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B88" s="66"/>
-      <c r="C88" s="67"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="11"/>
       <c r="E88" s="6" t="s">
         <v>2</v>
@@ -5244,20 +5244,20 @@
       <c r="F88" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="79" t="s">
+      <c r="G88" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="80"/>
+      <c r="H88" s="158"/>
+      <c r="I88" s="158"/>
+      <c r="J88" s="158"/>
+      <c r="K88" s="159"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="68"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="72"/>
       <c r="D89" s="10"/>
       <c r="E89" s="16"/>
       <c r="F89" s="10"/>
@@ -5268,384 +5268,384 @@
       <c r="K89" s="71"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="68"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="72"/>
       <c r="D90" s="10"/>
       <c r="E90" s="18"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="51"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="95"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="49" t="s">
+      <c r="A91" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="68"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="72"/>
       <c r="D91" s="10"/>
       <c r="E91" s="16"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="81"/>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="82"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="129"/>
+      <c r="I91" s="129"/>
+      <c r="J91" s="129"/>
+      <c r="K91" s="130"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="68"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="72"/>
       <c r="D92" s="10"/>
       <c r="E92" s="18"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="51"/>
+      <c r="G92" s="131"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="95"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="10"/>
       <c r="E93" s="16"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="76"/>
-      <c r="K93" s="82"/>
+      <c r="G93" s="128"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="130"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="10"/>
       <c r="E94" s="18"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55"/>
-      <c r="K94" s="56"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="68"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="10"/>
       <c r="E95" s="18"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51"/>
+      <c r="G95" s="131"/>
+      <c r="H95" s="94"/>
+      <c r="I95" s="94"/>
+      <c r="J95" s="94"/>
+      <c r="K95" s="95"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="61" t="s">
+      <c r="A96" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="10"/>
       <c r="E96" s="16"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="82"/>
+      <c r="G96" s="128"/>
+      <c r="H96" s="129"/>
+      <c r="I96" s="129"/>
+      <c r="J96" s="129"/>
+      <c r="K96" s="130"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
       <c r="D97" s="10"/>
       <c r="E97" s="18"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="51"/>
+      <c r="G97" s="131"/>
+      <c r="H97" s="94"/>
+      <c r="I97" s="94"/>
+      <c r="J97" s="94"/>
+      <c r="K97" s="95"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="10"/>
       <c r="E98" s="16"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="76"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="76"/>
-      <c r="K98" s="82"/>
+      <c r="G98" s="128"/>
+      <c r="H98" s="129"/>
+      <c r="I98" s="129"/>
+      <c r="J98" s="129"/>
+      <c r="K98" s="130"/>
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="10"/>
       <c r="E99" s="18"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="51"/>
+      <c r="G99" s="131"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="95"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="61" t="s">
+      <c r="A100" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B100" s="62"/>
-      <c r="C100" s="62"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="10"/>
       <c r="E100" s="16"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="81"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="82"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="129"/>
+      <c r="I100" s="129"/>
+      <c r="J100" s="129"/>
+      <c r="K100" s="130"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="10"/>
       <c r="E101" s="18"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="51"/>
+      <c r="G101" s="131"/>
+      <c r="H101" s="94"/>
+      <c r="I101" s="94"/>
+      <c r="J101" s="94"/>
+      <c r="K101" s="95"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="10"/>
       <c r="E102" s="16"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="81"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="82"/>
+      <c r="G102" s="128"/>
+      <c r="H102" s="129"/>
+      <c r="I102" s="129"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="130"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="10"/>
       <c r="E103" s="18"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="51"/>
+      <c r="G103" s="131"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="95"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="61" t="s">
+      <c r="A104" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="62"/>
-      <c r="C104" s="62"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="74"/>
       <c r="D104" s="10"/>
       <c r="E104" s="16"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="82"/>
+      <c r="G104" s="128"/>
+      <c r="H104" s="129"/>
+      <c r="I104" s="129"/>
+      <c r="J104" s="129"/>
+      <c r="K104" s="130"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="10"/>
       <c r="E105" s="18"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="51"/>
+      <c r="G105" s="131"/>
+      <c r="H105" s="94"/>
+      <c r="I105" s="94"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="95"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="61" t="s">
+      <c r="A106" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="62"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="74"/>
       <c r="D106" s="10"/>
       <c r="E106" s="16"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="82"/>
+      <c r="G106" s="128"/>
+      <c r="H106" s="129"/>
+      <c r="I106" s="129"/>
+      <c r="J106" s="129"/>
+      <c r="K106" s="130"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
       <c r="D107" s="10"/>
       <c r="E107" s="18"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="51"/>
+      <c r="G107" s="131"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="95"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="61" t="s">
+      <c r="A108" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="10"/>
       <c r="E108" s="16"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="82"/>
+      <c r="G108" s="128"/>
+      <c r="H108" s="129"/>
+      <c r="I108" s="129"/>
+      <c r="J108" s="129"/>
+      <c r="K108" s="130"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="10"/>
       <c r="E109" s="18"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="51"/>
+      <c r="G109" s="131"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="95"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="61" t="s">
+      <c r="A110" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="10"/>
       <c r="E110" s="16"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="82"/>
+      <c r="G110" s="128"/>
+      <c r="H110" s="129"/>
+      <c r="I110" s="129"/>
+      <c r="J110" s="129"/>
+      <c r="K110" s="130"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="49" t="s">
+      <c r="A111" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="10"/>
       <c r="E111" s="18"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="51"/>
+      <c r="G111" s="131"/>
+      <c r="H111" s="94"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="94"/>
+      <c r="K111" s="95"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="51"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="95"/>
       <c r="D112" s="10"/>
       <c r="E112" s="48"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="54"/>
+      <c r="G112" s="100"/>
+      <c r="H112" s="101"/>
+      <c r="I112" s="101"/>
+      <c r="J112" s="101"/>
+      <c r="K112" s="102"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="51"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="95"/>
       <c r="D113" s="10"/>
       <c r="E113" s="48"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="54"/>
+      <c r="G113" s="100"/>
+      <c r="H113" s="101"/>
+      <c r="I113" s="101"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="102"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="49"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="56"/>
+      <c r="A114" s="66"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="68"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B115" s="66"/>
-      <c r="C115" s="67"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="34"/>
       <c r="E115" s="6" t="s">
         <v>2</v>
@@ -5653,183 +5653,183 @@
       <c r="F115" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="79" t="s">
+      <c r="G115" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
-      <c r="K115" s="80"/>
+      <c r="H115" s="158"/>
+      <c r="I115" s="158"/>
+      <c r="J115" s="158"/>
+      <c r="K115" s="159"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="73"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="113"/>
       <c r="D116" s="10"/>
       <c r="E116" s="19"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="55"/>
-      <c r="J116" s="55"/>
-      <c r="K116" s="56"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="68"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="73"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="113"/>
       <c r="D117" s="10"/>
       <c r="E117" s="19"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="51"/>
+      <c r="G117" s="131"/>
+      <c r="H117" s="94"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="94"/>
+      <c r="K117" s="95"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="61" t="s">
+      <c r="A118" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="62"/>
-      <c r="C118" s="86"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="96"/>
       <c r="D118" s="10"/>
       <c r="E118" s="8"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="88"/>
-      <c r="I118" s="88"/>
-      <c r="J118" s="88"/>
-      <c r="K118" s="89"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="98"/>
+      <c r="J118" s="98"/>
+      <c r="K118" s="99"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="55"/>
-      <c r="C119" s="73"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="113"/>
       <c r="D119" s="10"/>
       <c r="E119" s="19"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="51"/>
+      <c r="G119" s="131"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="94"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="95"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="61" t="s">
+      <c r="A120" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="62"/>
-      <c r="C120" s="86"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="10"/>
       <c r="E120" s="8"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="81"/>
-      <c r="H120" s="76"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
-      <c r="K120" s="82"/>
+      <c r="G120" s="128"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="129"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="130"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="69" t="s">
         <v>88</v>
       </c>
       <c r="B121" s="70"/>
-      <c r="C121" s="75"/>
+      <c r="C121" s="112"/>
       <c r="D121" s="10"/>
       <c r="E121" s="36"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="87"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="89"/>
+      <c r="G121" s="97"/>
+      <c r="H121" s="98"/>
+      <c r="I121" s="98"/>
+      <c r="J121" s="98"/>
+      <c r="K121" s="99"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="73"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="113"/>
       <c r="D122" s="10"/>
       <c r="E122" s="19"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="83"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="50"/>
-      <c r="K122" s="51"/>
+      <c r="G122" s="131"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="94"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="95"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="74"/>
+      <c r="B123" s="101"/>
+      <c r="C123" s="195"/>
       <c r="D123" s="10"/>
       <c r="E123" s="37"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="125"/>
-      <c r="H123" s="126"/>
-      <c r="I123" s="126"/>
-      <c r="J123" s="126"/>
-      <c r="K123" s="127"/>
+      <c r="G123" s="164"/>
+      <c r="H123" s="165"/>
+      <c r="I123" s="165"/>
+      <c r="J123" s="165"/>
+      <c r="K123" s="166"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51"/>
+      <c r="B124" s="94"/>
+      <c r="C124" s="95"/>
       <c r="D124" s="10"/>
       <c r="E124" s="48"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="54"/>
+      <c r="G124" s="100"/>
+      <c r="H124" s="101"/>
+      <c r="I124" s="101"/>
+      <c r="J124" s="101"/>
+      <c r="K124" s="102"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
+      <c r="B125" s="94"/>
+      <c r="C125" s="95"/>
       <c r="D125" s="10"/>
       <c r="E125" s="48"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="52"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="54"/>
+      <c r="G125" s="100"/>
+      <c r="H125" s="101"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101"/>
+      <c r="K125" s="102"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="49"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="56"/>
+      <c r="A126" s="66"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="68"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="65" t="s">
+      <c r="A127" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B127" s="66"/>
-      <c r="C127" s="67"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="78"/>
       <c r="D127" s="14"/>
       <c r="E127" s="6" t="s">
         <v>2</v>
@@ -5837,20 +5837,20 @@
       <c r="F127" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G127" s="59" t="s">
+      <c r="G127" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H127" s="59"/>
-      <c r="I127" s="59"/>
-      <c r="J127" s="59"/>
-      <c r="K127" s="60"/>
+      <c r="H127" s="117"/>
+      <c r="I127" s="117"/>
+      <c r="J127" s="117"/>
+      <c r="K127" s="118"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="61" t="s">
+      <c r="A128" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="76"/>
-      <c r="C128" s="77"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="196"/>
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
       <c r="F128" s="10"/>
@@ -5861,84 +5861,84 @@
       <c r="K128" s="71"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="49" t="s">
+      <c r="A129" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="50"/>
-      <c r="C129" s="78"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="197"/>
       <c r="D129" s="10"/>
       <c r="E129" s="19"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="55"/>
-      <c r="J129" s="55"/>
-      <c r="K129" s="56"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="68"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="50"/>
-      <c r="C130" s="78"/>
+      <c r="B130" s="94"/>
+      <c r="C130" s="197"/>
       <c r="D130" s="10"/>
       <c r="E130" s="12"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="55"/>
-      <c r="J130" s="55"/>
-      <c r="K130" s="56"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="68"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="49" t="s">
+      <c r="A131" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B131" s="50"/>
-      <c r="C131" s="51"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="95"/>
       <c r="D131" s="10"/>
       <c r="E131" s="48"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="54"/>
+      <c r="G131" s="100"/>
+      <c r="H131" s="101"/>
+      <c r="I131" s="101"/>
+      <c r="J131" s="101"/>
+      <c r="K131" s="102"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="49" t="s">
+      <c r="A132" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="95"/>
       <c r="D132" s="10"/>
       <c r="E132" s="48"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="54"/>
+      <c r="G132" s="100"/>
+      <c r="H132" s="101"/>
+      <c r="I132" s="101"/>
+      <c r="J132" s="101"/>
+      <c r="K132" s="102"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="55"/>
-      <c r="I133" s="55"/>
-      <c r="J133" s="55"/>
-      <c r="K133" s="56"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
+      <c r="J133" s="67"/>
+      <c r="K133" s="68"/>
     </row>
     <row r="134" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="65" t="s">
+      <c r="A134" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="66"/>
-      <c r="C134" s="67"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="78"/>
       <c r="D134" s="14"/>
       <c r="E134" s="6" t="s">
         <v>2</v>
@@ -5946,20 +5946,20 @@
       <c r="F134" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="59" t="s">
+      <c r="G134" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="59"/>
-      <c r="K134" s="60"/>
+      <c r="H134" s="117"/>
+      <c r="I134" s="117"/>
+      <c r="J134" s="117"/>
+      <c r="K134" s="118"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="61" t="s">
+      <c r="A135" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="B135" s="76"/>
-      <c r="C135" s="86"/>
+      <c r="B135" s="129"/>
+      <c r="C135" s="96"/>
       <c r="D135" s="10"/>
       <c r="E135" s="16"/>
       <c r="F135" s="10"/>
@@ -5970,69 +5970,69 @@
       <c r="K135" s="71"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="55"/>
-      <c r="C136" s="55"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
       <c r="D136" s="10"/>
       <c r="E136" s="18"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="55"/>
-      <c r="I136" s="55"/>
-      <c r="J136" s="55"/>
-      <c r="K136" s="56"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+      <c r="K136" s="68"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="49" t="s">
+      <c r="A137" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="95"/>
       <c r="D137" s="10"/>
       <c r="E137" s="48"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="52"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="53"/>
-      <c r="J137" s="53"/>
-      <c r="K137" s="54"/>
+      <c r="G137" s="100"/>
+      <c r="H137" s="101"/>
+      <c r="I137" s="101"/>
+      <c r="J137" s="101"/>
+      <c r="K137" s="102"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="49" t="s">
+      <c r="A138" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="95"/>
       <c r="D138" s="10"/>
       <c r="E138" s="48"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="52"/>
-      <c r="H138" s="53"/>
-      <c r="I138" s="53"/>
-      <c r="J138" s="53"/>
-      <c r="K138" s="54"/>
+      <c r="G138" s="100"/>
+      <c r="H138" s="101"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="101"/>
+      <c r="K138" s="102"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="49"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="55"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="55"/>
-      <c r="I139" s="55"/>
-      <c r="J139" s="55"/>
-      <c r="K139" s="56"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="68"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="65" t="s">
+      <c r="A140" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="B140" s="66"/>
-      <c r="C140" s="67"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="78"/>
       <c r="D140" s="14"/>
       <c r="E140" s="6" t="s">
         <v>2</v>
@@ -6040,20 +6040,20 @@
       <c r="F140" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="59" t="s">
+      <c r="G140" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H140" s="59"/>
-      <c r="I140" s="59"/>
-      <c r="J140" s="59"/>
-      <c r="K140" s="60"/>
+      <c r="H140" s="117"/>
+      <c r="I140" s="117"/>
+      <c r="J140" s="117"/>
+      <c r="K140" s="118"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B141" s="62"/>
-      <c r="C141" s="62"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="74"/>
       <c r="D141" s="10"/>
       <c r="E141" s="16"/>
       <c r="F141" s="10"/>
@@ -6064,49 +6064,49 @@
       <c r="K141" s="71"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="49" t="s">
+      <c r="A142" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B142" s="55"/>
-      <c r="C142" s="55"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
       <c r="D142" s="10"/>
       <c r="E142" s="18"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="55"/>
-      <c r="I142" s="55"/>
-      <c r="J142" s="55"/>
-      <c r="K142" s="56"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="68"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B143" s="50"/>
-      <c r="C143" s="51"/>
+      <c r="B143" s="94"/>
+      <c r="C143" s="95"/>
       <c r="D143" s="10"/>
       <c r="E143" s="48"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="53"/>
-      <c r="I143" s="53"/>
-      <c r="J143" s="53"/>
-      <c r="K143" s="54"/>
+      <c r="G143" s="100"/>
+      <c r="H143" s="101"/>
+      <c r="I143" s="101"/>
+      <c r="J143" s="101"/>
+      <c r="K143" s="102"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="50"/>
-      <c r="C144" s="51"/>
+      <c r="B144" s="94"/>
+      <c r="C144" s="95"/>
       <c r="D144" s="10"/>
       <c r="E144" s="48"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="53"/>
-      <c r="I144" s="53"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="54"/>
+      <c r="G144" s="100"/>
+      <c r="H144" s="101"/>
+      <c r="I144" s="101"/>
+      <c r="J144" s="101"/>
+      <c r="K144" s="102"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="69"/>
@@ -6122,11 +6122,11 @@
       <c r="K145" s="71"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="65" t="s">
+      <c r="A146" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="B146" s="66"/>
-      <c r="C146" s="67"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="78"/>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
         <v>2</v>
@@ -6134,13 +6134,13 @@
       <c r="F146" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="59" t="s">
+      <c r="G146" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H146" s="59"/>
-      <c r="I146" s="59"/>
-      <c r="J146" s="59"/>
-      <c r="K146" s="60"/>
+      <c r="H146" s="117"/>
+      <c r="I146" s="117"/>
+      <c r="J146" s="117"/>
+      <c r="K146" s="118"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="69" t="s">
@@ -6158,124 +6158,124 @@
       <c r="K147" s="71"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="49" t="s">
+      <c r="A148" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="55"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
       <c r="D148" s="10"/>
       <c r="E148" s="18"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="55"/>
-      <c r="I148" s="55"/>
-      <c r="J148" s="55"/>
-      <c r="K148" s="56"/>
+      <c r="G148" s="66"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="67"/>
+      <c r="J148" s="67"/>
+      <c r="K148" s="68"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="49" t="s">
+      <c r="A149" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B149" s="55"/>
-      <c r="C149" s="55"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
       <c r="D149" s="10"/>
       <c r="E149" s="18"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="55"/>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55"/>
-      <c r="K149" s="56"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="67"/>
+      <c r="J149" s="67"/>
+      <c r="K149" s="68"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="61" t="s">
+      <c r="A150" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="62"/>
-      <c r="C150" s="62"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="74"/>
       <c r="D150" s="10"/>
       <c r="E150" s="16"/>
       <c r="F150" s="10"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
-      <c r="J150" s="62"/>
-      <c r="K150" s="72"/>
+      <c r="G150" s="73"/>
+      <c r="H150" s="74"/>
+      <c r="I150" s="74"/>
+      <c r="J150" s="74"/>
+      <c r="K150" s="75"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="55"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="10"/>
       <c r="E151" s="18"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="49"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="55"/>
-      <c r="K151" s="56"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="67"/>
+      <c r="I151" s="67"/>
+      <c r="J151" s="67"/>
+      <c r="K151" s="68"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="61" t="s">
+      <c r="A152" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B152" s="62"/>
-      <c r="C152" s="62"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="74"/>
       <c r="D152" s="10"/>
       <c r="E152" s="16"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
-      <c r="J152" s="62"/>
-      <c r="K152" s="72"/>
+      <c r="G152" s="73"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="74"/>
+      <c r="K152" s="75"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
       <c r="D153" s="10"/>
       <c r="E153" s="18"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="49"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="55"/>
-      <c r="J153" s="55"/>
-      <c r="K153" s="56"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="67"/>
+      <c r="K153" s="68"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="49" t="s">
+      <c r="A154" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B154" s="50"/>
-      <c r="C154" s="51"/>
+      <c r="B154" s="94"/>
+      <c r="C154" s="95"/>
       <c r="D154" s="10"/>
       <c r="E154" s="48"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="52"/>
-      <c r="H154" s="53"/>
-      <c r="I154" s="53"/>
-      <c r="J154" s="53"/>
-      <c r="K154" s="54"/>
+      <c r="G154" s="100"/>
+      <c r="H154" s="101"/>
+      <c r="I154" s="101"/>
+      <c r="J154" s="101"/>
+      <c r="K154" s="102"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="49" t="s">
+      <c r="A155" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B155" s="50"/>
-      <c r="C155" s="51"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="95"/>
       <c r="D155" s="10"/>
       <c r="E155" s="48"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="53"/>
-      <c r="I155" s="53"/>
-      <c r="J155" s="53"/>
-      <c r="K155" s="54"/>
+      <c r="G155" s="100"/>
+      <c r="H155" s="101"/>
+      <c r="I155" s="101"/>
+      <c r="J155" s="101"/>
+      <c r="K155" s="102"/>
     </row>
     <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="69"/>
@@ -6291,11 +6291,11 @@
       <c r="K156" s="71"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="65" t="s">
+      <c r="A157" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B157" s="66"/>
-      <c r="C157" s="67"/>
+      <c r="B157" s="77"/>
+      <c r="C157" s="78"/>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
         <v>2</v>
@@ -6303,138 +6303,138 @@
       <c r="F157" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="64" t="s">
+      <c r="G157" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="H157" s="59"/>
-      <c r="I157" s="59"/>
-      <c r="J157" s="59"/>
-      <c r="K157" s="60"/>
+      <c r="H157" s="117"/>
+      <c r="I157" s="117"/>
+      <c r="J157" s="117"/>
+      <c r="K157" s="118"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="61" t="s">
+      <c r="A158" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="B158" s="62"/>
-      <c r="C158" s="62"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="74"/>
       <c r="D158" s="10"/>
       <c r="E158" s="16"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="61"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="62"/>
-      <c r="J158" s="62"/>
-      <c r="K158" s="72"/>
+      <c r="G158" s="73"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="75"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B159" s="55"/>
-      <c r="C159" s="55"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="67"/>
       <c r="D159" s="10"/>
       <c r="E159" s="18"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="55"/>
-      <c r="I159" s="55"/>
-      <c r="J159" s="55"/>
-      <c r="K159" s="56"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="68"/>
     </row>
     <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="61" t="s">
+      <c r="A160" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
       <c r="D160" s="10"/>
       <c r="E160" s="16"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="61"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="62"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="72"/>
+      <c r="G160" s="73"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="74"/>
+      <c r="K160" s="75"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="49" t="s">
+      <c r="A161" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="B161" s="55"/>
-      <c r="C161" s="55"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
       <c r="D161" s="10"/>
       <c r="E161" s="18"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="55"/>
-      <c r="I161" s="55"/>
-      <c r="J161" s="55"/>
-      <c r="K161" s="56"/>
+      <c r="G161" s="66"/>
+      <c r="H161" s="67"/>
+      <c r="I161" s="67"/>
+      <c r="J161" s="67"/>
+      <c r="K161" s="68"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="61" t="s">
+      <c r="A162" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="B162" s="62"/>
-      <c r="C162" s="62"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="74"/>
       <c r="D162" s="10"/>
       <c r="E162" s="16"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="55"/>
-      <c r="I162" s="55"/>
-      <c r="J162" s="55"/>
-      <c r="K162" s="56"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="67"/>
+      <c r="K162" s="68"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="49" t="s">
+      <c r="A163" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="50"/>
-      <c r="C163" s="51"/>
+      <c r="B163" s="94"/>
+      <c r="C163" s="95"/>
       <c r="D163" s="10"/>
       <c r="E163" s="48"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="52"/>
-      <c r="H163" s="53"/>
-      <c r="I163" s="53"/>
-      <c r="J163" s="53"/>
-      <c r="K163" s="54"/>
+      <c r="G163" s="100"/>
+      <c r="H163" s="101"/>
+      <c r="I163" s="101"/>
+      <c r="J163" s="101"/>
+      <c r="K163" s="102"/>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="51"/>
+      <c r="B164" s="94"/>
+      <c r="C164" s="95"/>
       <c r="D164" s="10"/>
       <c r="E164" s="48"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="52"/>
-      <c r="H164" s="53"/>
-      <c r="I164" s="53"/>
-      <c r="J164" s="53"/>
-      <c r="K164" s="54"/>
+      <c r="G164" s="100"/>
+      <c r="H164" s="101"/>
+      <c r="I164" s="101"/>
+      <c r="J164" s="101"/>
+      <c r="K164" s="102"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="49"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="55"/>
-      <c r="H165" s="55"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="55"/>
-      <c r="K165" s="56"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="67"/>
+      <c r="H165" s="67"/>
+      <c r="I165" s="67"/>
+      <c r="J165" s="67"/>
+      <c r="K165" s="68"/>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="65" t="s">
+      <c r="A166" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="B166" s="66"/>
-      <c r="C166" s="67"/>
+      <c r="B166" s="77"/>
+      <c r="C166" s="78"/>
       <c r="D166" s="14"/>
       <c r="E166" s="15" t="s">
         <v>2</v>
@@ -6442,20 +6442,20 @@
       <c r="F166" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G166" s="59" t="s">
+      <c r="G166" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="60"/>
+      <c r="H166" s="117"/>
+      <c r="I166" s="117"/>
+      <c r="J166" s="117"/>
+      <c r="K166" s="118"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="61" t="s">
+      <c r="A167" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="62"/>
-      <c r="C167" s="62"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="74"/>
       <c r="D167" s="10"/>
       <c r="E167" s="16"/>
       <c r="F167" s="10"/>
@@ -6466,94 +6466,94 @@
       <c r="K167" s="71"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="55"/>
-      <c r="C168" s="55"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
       <c r="D168" s="10"/>
       <c r="E168" s="18"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="55"/>
-      <c r="I168" s="55"/>
-      <c r="J168" s="55"/>
-      <c r="K168" s="56"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="67"/>
+      <c r="I168" s="67"/>
+      <c r="J168" s="67"/>
+      <c r="K168" s="68"/>
     </row>
     <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="61" t="s">
+      <c r="A169" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="62"/>
-      <c r="C169" s="63"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="114"/>
       <c r="D169" s="10"/>
       <c r="E169" s="16"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
-      <c r="J169" s="62"/>
-      <c r="K169" s="72"/>
+      <c r="G169" s="73"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="75"/>
     </row>
     <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="49" t="s">
+      <c r="A170" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B170" s="55"/>
-      <c r="C170" s="68"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="72"/>
       <c r="D170" s="10"/>
       <c r="E170" s="18"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="55"/>
-      <c r="J170" s="55"/>
-      <c r="K170" s="56"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="68"/>
     </row>
     <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="61" t="s">
+      <c r="A171" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="B171" s="62"/>
-      <c r="C171" s="63"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="114"/>
       <c r="D171" s="10"/>
       <c r="E171" s="16"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="61"/>
-      <c r="H171" s="62"/>
-      <c r="I171" s="62"/>
-      <c r="J171" s="62"/>
-      <c r="K171" s="72"/>
+      <c r="G171" s="73"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="74"/>
+      <c r="K171" s="75"/>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="49" t="s">
+      <c r="A172" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="50"/>
-      <c r="C172" s="51"/>
+      <c r="B172" s="94"/>
+      <c r="C172" s="95"/>
       <c r="D172" s="10"/>
       <c r="E172" s="48"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="55"/>
-      <c r="I172" s="55"/>
-      <c r="J172" s="55"/>
-      <c r="K172" s="56"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="67"/>
+      <c r="J172" s="67"/>
+      <c r="K172" s="68"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="49" t="s">
+      <c r="A173" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="50"/>
-      <c r="C173" s="51"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
       <c r="D173" s="10"/>
       <c r="E173" s="48"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="52"/>
-      <c r="H173" s="53"/>
-      <c r="I173" s="53"/>
-      <c r="J173" s="53"/>
-      <c r="K173" s="54"/>
+      <c r="G173" s="100"/>
+      <c r="H173" s="101"/>
+      <c r="I173" s="101"/>
+      <c r="J173" s="101"/>
+      <c r="K173" s="102"/>
     </row>
     <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="69"/>
@@ -6569,11 +6569,11 @@
       <c r="K174" s="71"/>
     </row>
     <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="65" t="s">
+      <c r="A175" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="B175" s="66"/>
-      <c r="C175" s="67"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="78"/>
       <c r="D175" s="11"/>
       <c r="E175" s="6" t="s">
         <v>2</v>
@@ -6581,20 +6581,20 @@
       <c r="F175" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G175" s="84" t="s">
+      <c r="G175" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H175" s="84"/>
-      <c r="I175" s="84"/>
-      <c r="J175" s="84"/>
-      <c r="K175" s="85"/>
+      <c r="H175" s="89"/>
+      <c r="I175" s="89"/>
+      <c r="J175" s="89"/>
+      <c r="K175" s="90"/>
     </row>
     <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="61" t="s">
+      <c r="A176" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="B176" s="62"/>
-      <c r="C176" s="86"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="96"/>
       <c r="D176" s="10"/>
       <c r="E176" s="16"/>
       <c r="F176" s="10"/>
@@ -6605,49 +6605,49 @@
       <c r="K176" s="71"/>
     </row>
     <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B177" s="55"/>
-      <c r="C177" s="73"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="113"/>
       <c r="D177" s="10"/>
       <c r="E177" s="18"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="49"/>
-      <c r="H177" s="55"/>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55"/>
-      <c r="K177" s="56"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="67"/>
+      <c r="K177" s="68"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="49" t="s">
+      <c r="A178" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="50"/>
-      <c r="C178" s="51"/>
+      <c r="B178" s="94"/>
+      <c r="C178" s="95"/>
       <c r="D178" s="10"/>
       <c r="E178" s="48"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="52"/>
-      <c r="H178" s="53"/>
-      <c r="I178" s="53"/>
-      <c r="J178" s="53"/>
-      <c r="K178" s="54"/>
+      <c r="G178" s="100"/>
+      <c r="H178" s="101"/>
+      <c r="I178" s="101"/>
+      <c r="J178" s="101"/>
+      <c r="K178" s="102"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="49" t="s">
+      <c r="A179" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="50"/>
-      <c r="C179" s="51"/>
+      <c r="B179" s="94"/>
+      <c r="C179" s="95"/>
       <c r="D179" s="10"/>
       <c r="E179" s="48"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="52"/>
-      <c r="H179" s="53"/>
-      <c r="I179" s="53"/>
-      <c r="J179" s="53"/>
-      <c r="K179" s="54"/>
+      <c r="G179" s="100"/>
+      <c r="H179" s="101"/>
+      <c r="I179" s="101"/>
+      <c r="J179" s="101"/>
+      <c r="K179" s="102"/>
     </row>
     <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="69"/>
@@ -6663,11 +6663,11 @@
       <c r="K180" s="71"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="65" t="s">
+      <c r="A181" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B181" s="66"/>
-      <c r="C181" s="67"/>
+      <c r="B181" s="77"/>
+      <c r="C181" s="78"/>
       <c r="D181" s="11"/>
       <c r="E181" s="6" t="s">
         <v>2</v>
@@ -6675,58 +6675,58 @@
       <c r="F181" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G181" s="84" t="s">
+      <c r="G181" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H181" s="84"/>
-      <c r="I181" s="84"/>
-      <c r="J181" s="84"/>
-      <c r="K181" s="85"/>
+      <c r="H181" s="89"/>
+      <c r="I181" s="89"/>
+      <c r="J181" s="89"/>
+      <c r="K181" s="90"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="61" t="s">
+      <c r="A182" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B182" s="62"/>
-      <c r="C182" s="86"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="96"/>
       <c r="D182" s="10"/>
       <c r="E182" s="16"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="87"/>
-      <c r="H182" s="88"/>
-      <c r="I182" s="88"/>
-      <c r="J182" s="88"/>
-      <c r="K182" s="89"/>
+      <c r="G182" s="97"/>
+      <c r="H182" s="98"/>
+      <c r="I182" s="98"/>
+      <c r="J182" s="98"/>
+      <c r="K182" s="99"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="49" t="s">
+      <c r="A183" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="50"/>
-      <c r="C183" s="51"/>
+      <c r="B183" s="94"/>
+      <c r="C183" s="95"/>
       <c r="D183" s="10"/>
       <c r="E183" s="48"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="49"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="55"/>
-      <c r="J183" s="55"/>
-      <c r="K183" s="56"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="67"/>
+      <c r="J183" s="67"/>
+      <c r="K183" s="68"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="49" t="s">
+      <c r="A184" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="50"/>
-      <c r="C184" s="51"/>
+      <c r="B184" s="94"/>
+      <c r="C184" s="95"/>
       <c r="D184" s="10"/>
       <c r="E184" s="48"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="52"/>
-      <c r="H184" s="53"/>
-      <c r="I184" s="53"/>
-      <c r="J184" s="53"/>
-      <c r="K184" s="54"/>
+      <c r="G184" s="100"/>
+      <c r="H184" s="101"/>
+      <c r="I184" s="101"/>
+      <c r="J184" s="101"/>
+      <c r="K184" s="102"/>
     </row>
     <row r="185" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="69"/>
@@ -6742,11 +6742,11 @@
       <c r="K185" s="71"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="57" t="s">
+      <c r="A186" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
+      <c r="B186" s="116"/>
+      <c r="C186" s="116"/>
       <c r="D186" s="38"/>
       <c r="E186" s="15" t="s">
         <v>2</v>
@@ -6754,118 +6754,118 @@
       <c r="F186" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G186" s="59" t="s">
+      <c r="G186" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="60"/>
+      <c r="H186" s="117"/>
+      <c r="I186" s="117"/>
+      <c r="J186" s="117"/>
+      <c r="K186" s="118"/>
     </row>
     <row r="187" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="61" t="s">
+      <c r="A187" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B187" s="62"/>
-      <c r="C187" s="86"/>
+      <c r="B187" s="74"/>
+      <c r="C187" s="96"/>
       <c r="D187" s="10"/>
       <c r="E187" s="39"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="171"/>
-      <c r="H187" s="172"/>
-      <c r="I187" s="172"/>
-      <c r="J187" s="172"/>
-      <c r="K187" s="173"/>
+      <c r="G187" s="119"/>
+      <c r="H187" s="120"/>
+      <c r="I187" s="120"/>
+      <c r="J187" s="120"/>
+      <c r="K187" s="121"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="49" t="s">
+      <c r="A188" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B188" s="55"/>
-      <c r="C188" s="73"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="113"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="146"/>
-      <c r="H188" s="147"/>
-      <c r="I188" s="147"/>
-      <c r="J188" s="147"/>
-      <c r="K188" s="148"/>
+      <c r="G188" s="122"/>
+      <c r="H188" s="123"/>
+      <c r="I188" s="123"/>
+      <c r="J188" s="123"/>
+      <c r="K188" s="124"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="61" t="s">
+      <c r="A189" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B189" s="62"/>
-      <c r="C189" s="86"/>
+      <c r="B189" s="74"/>
+      <c r="C189" s="96"/>
       <c r="D189" s="10"/>
       <c r="E189" s="22"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="158"/>
-      <c r="H189" s="159"/>
-      <c r="I189" s="159"/>
-      <c r="J189" s="159"/>
-      <c r="K189" s="160"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="126"/>
+      <c r="I189" s="126"/>
+      <c r="J189" s="126"/>
+      <c r="K189" s="127"/>
     </row>
     <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="49" t="s">
+      <c r="A190" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B190" s="55"/>
-      <c r="C190" s="73"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="113"/>
       <c r="D190" s="10"/>
       <c r="E190" s="26"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="146"/>
-      <c r="H190" s="147"/>
-      <c r="I190" s="147"/>
-      <c r="J190" s="147"/>
-      <c r="K190" s="148"/>
+      <c r="G190" s="122"/>
+      <c r="H190" s="123"/>
+      <c r="I190" s="123"/>
+      <c r="J190" s="123"/>
+      <c r="K190" s="124"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="61" t="s">
+      <c r="A191" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="B191" s="62"/>
-      <c r="C191" s="63"/>
+      <c r="B191" s="74"/>
+      <c r="C191" s="114"/>
       <c r="D191" s="10"/>
       <c r="E191" s="16"/>
       <c r="F191" s="10"/>
-      <c r="G191" s="158"/>
-      <c r="H191" s="159"/>
-      <c r="I191" s="159"/>
-      <c r="J191" s="159"/>
-      <c r="K191" s="160"/>
+      <c r="G191" s="125"/>
+      <c r="H191" s="126"/>
+      <c r="I191" s="126"/>
+      <c r="J191" s="126"/>
+      <c r="K191" s="127"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="49" t="s">
+      <c r="A192" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="50"/>
-      <c r="C192" s="51"/>
+      <c r="B192" s="94"/>
+      <c r="C192" s="95"/>
       <c r="D192" s="10"/>
       <c r="E192" s="48"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="49"/>
-      <c r="H192" s="55"/>
-      <c r="I192" s="55"/>
-      <c r="J192" s="55"/>
-      <c r="K192" s="56"/>
+      <c r="G192" s="66"/>
+      <c r="H192" s="67"/>
+      <c r="I192" s="67"/>
+      <c r="J192" s="67"/>
+      <c r="K192" s="68"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="49" t="s">
+      <c r="A193" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B193" s="50"/>
-      <c r="C193" s="51"/>
+      <c r="B193" s="94"/>
+      <c r="C193" s="95"/>
       <c r="D193" s="10"/>
       <c r="E193" s="48"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="52"/>
-      <c r="H193" s="53"/>
-      <c r="I193" s="53"/>
-      <c r="J193" s="53"/>
-      <c r="K193" s="54"/>
+      <c r="G193" s="100"/>
+      <c r="H193" s="101"/>
+      <c r="I193" s="101"/>
+      <c r="J193" s="101"/>
+      <c r="K193" s="102"/>
     </row>
     <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="69"/>
@@ -6881,11 +6881,11 @@
       <c r="K194" s="71"/>
     </row>
     <row r="195" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="57" t="s">
+      <c r="A195" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="B195" s="58"/>
-      <c r="C195" s="58"/>
+      <c r="B195" s="116"/>
+      <c r="C195" s="116"/>
       <c r="D195" s="38"/>
       <c r="E195" s="15" t="s">
         <v>2</v>
@@ -6893,73 +6893,73 @@
       <c r="F195" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G195" s="59" t="s">
+      <c r="G195" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
-      <c r="J195" s="59"/>
-      <c r="K195" s="60"/>
+      <c r="H195" s="117"/>
+      <c r="I195" s="117"/>
+      <c r="J195" s="117"/>
+      <c r="K195" s="118"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="61" t="s">
+      <c r="A196" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B196" s="62"/>
-      <c r="C196" s="63"/>
+      <c r="B196" s="74"/>
+      <c r="C196" s="114"/>
       <c r="D196" s="10"/>
       <c r="E196" s="16"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="174"/>
-      <c r="H196" s="175"/>
-      <c r="I196" s="175"/>
-      <c r="J196" s="175"/>
-      <c r="K196" s="176"/>
+      <c r="G196" s="103"/>
+      <c r="H196" s="104"/>
+      <c r="I196" s="104"/>
+      <c r="J196" s="104"/>
+      <c r="K196" s="105"/>
     </row>
     <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="49" t="s">
+      <c r="A197" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B197" s="55"/>
-      <c r="C197" s="73"/>
+      <c r="B197" s="67"/>
+      <c r="C197" s="113"/>
       <c r="D197" s="10"/>
       <c r="E197" s="29"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="137"/>
-      <c r="H197" s="138"/>
-      <c r="I197" s="138"/>
-      <c r="J197" s="138"/>
-      <c r="K197" s="139"/>
+      <c r="G197" s="106"/>
+      <c r="H197" s="107"/>
+      <c r="I197" s="107"/>
+      <c r="J197" s="107"/>
+      <c r="K197" s="108"/>
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="49" t="s">
+      <c r="A198" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="50"/>
-      <c r="C198" s="51"/>
+      <c r="B198" s="94"/>
+      <c r="C198" s="95"/>
       <c r="D198" s="10"/>
       <c r="E198" s="48"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="49"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="56"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="67"/>
+      <c r="I198" s="67"/>
+      <c r="J198" s="67"/>
+      <c r="K198" s="68"/>
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49" t="s">
+      <c r="A199" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="50"/>
-      <c r="C199" s="51"/>
+      <c r="B199" s="94"/>
+      <c r="C199" s="95"/>
       <c r="D199" s="10"/>
       <c r="E199" s="48"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="52"/>
-      <c r="H199" s="53"/>
-      <c r="I199" s="53"/>
-      <c r="J199" s="53"/>
-      <c r="K199" s="54"/>
+      <c r="G199" s="100"/>
+      <c r="H199" s="101"/>
+      <c r="I199" s="101"/>
+      <c r="J199" s="101"/>
+      <c r="K199" s="102"/>
     </row>
     <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="69"/>
@@ -6975,11 +6975,11 @@
       <c r="K200" s="71"/>
     </row>
     <row r="201" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="57" t="s">
+      <c r="A201" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="B201" s="58"/>
-      <c r="C201" s="58"/>
+      <c r="B201" s="116"/>
+      <c r="C201" s="116"/>
       <c r="D201" s="38"/>
       <c r="E201" s="15" t="s">
         <v>2</v>
@@ -6987,178 +6987,178 @@
       <c r="F201" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G201" s="59" t="s">
+      <c r="G201" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="59"/>
-      <c r="K201" s="60"/>
+      <c r="H201" s="117"/>
+      <c r="I201" s="117"/>
+      <c r="J201" s="117"/>
+      <c r="K201" s="118"/>
     </row>
     <row r="202" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="61" t="s">
+      <c r="A202" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="B202" s="62"/>
-      <c r="C202" s="86"/>
+      <c r="B202" s="74"/>
+      <c r="C202" s="96"/>
       <c r="D202" s="10"/>
       <c r="E202" s="40"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="174"/>
-      <c r="H202" s="175"/>
-      <c r="I202" s="175"/>
-      <c r="J202" s="175"/>
-      <c r="K202" s="176"/>
+      <c r="G202" s="103"/>
+      <c r="H202" s="104"/>
+      <c r="I202" s="104"/>
+      <c r="J202" s="104"/>
+      <c r="K202" s="105"/>
     </row>
     <row r="203" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="69" t="s">
         <v>138</v>
       </c>
       <c r="B203" s="70"/>
-      <c r="C203" s="75"/>
+      <c r="C203" s="112"/>
       <c r="D203" s="10"/>
       <c r="E203" s="41"/>
       <c r="F203" s="10"/>
-      <c r="G203" s="174"/>
-      <c r="H203" s="175"/>
-      <c r="I203" s="175"/>
-      <c r="J203" s="175"/>
-      <c r="K203" s="176"/>
+      <c r="G203" s="103"/>
+      <c r="H203" s="104"/>
+      <c r="I203" s="104"/>
+      <c r="J203" s="104"/>
+      <c r="K203" s="105"/>
     </row>
     <row r="204" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="49" t="s">
+      <c r="A204" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B204" s="55"/>
-      <c r="C204" s="73"/>
+      <c r="B204" s="67"/>
+      <c r="C204" s="113"/>
       <c r="D204" s="10"/>
       <c r="E204" s="29"/>
       <c r="F204" s="10"/>
-      <c r="G204" s="137"/>
-      <c r="H204" s="138"/>
-      <c r="I204" s="138"/>
-      <c r="J204" s="138"/>
-      <c r="K204" s="139"/>
+      <c r="G204" s="106"/>
+      <c r="H204" s="107"/>
+      <c r="I204" s="107"/>
+      <c r="J204" s="107"/>
+      <c r="K204" s="108"/>
     </row>
     <row r="205" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="49" t="s">
+      <c r="A205" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B205" s="55"/>
-      <c r="C205" s="73"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="113"/>
       <c r="D205" s="10"/>
       <c r="E205" s="29"/>
       <c r="F205" s="10"/>
-      <c r="G205" s="137"/>
-      <c r="H205" s="138"/>
-      <c r="I205" s="138"/>
-      <c r="J205" s="138"/>
-      <c r="K205" s="139"/>
+      <c r="G205" s="106"/>
+      <c r="H205" s="107"/>
+      <c r="I205" s="107"/>
+      <c r="J205" s="107"/>
+      <c r="K205" s="108"/>
     </row>
     <row r="206" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="61" t="s">
+      <c r="A206" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="B206" s="62"/>
-      <c r="C206" s="86"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="96"/>
       <c r="D206" s="10"/>
       <c r="E206" s="42"/>
       <c r="F206" s="10"/>
-      <c r="G206" s="161"/>
-      <c r="H206" s="162"/>
-      <c r="I206" s="162"/>
-      <c r="J206" s="162"/>
-      <c r="K206" s="163"/>
+      <c r="G206" s="109"/>
+      <c r="H206" s="110"/>
+      <c r="I206" s="110"/>
+      <c r="J206" s="110"/>
+      <c r="K206" s="111"/>
     </row>
     <row r="207" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="49" t="s">
+      <c r="A207" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B207" s="55"/>
-      <c r="C207" s="68"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="72"/>
       <c r="D207" s="10"/>
       <c r="E207" s="29"/>
       <c r="F207" s="10"/>
-      <c r="G207" s="137"/>
-      <c r="H207" s="138"/>
-      <c r="I207" s="138"/>
-      <c r="J207" s="138"/>
-      <c r="K207" s="139"/>
+      <c r="G207" s="106"/>
+      <c r="H207" s="107"/>
+      <c r="I207" s="107"/>
+      <c r="J207" s="107"/>
+      <c r="K207" s="108"/>
     </row>
     <row r="208" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="61" t="s">
+      <c r="A208" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="B208" s="62"/>
-      <c r="C208" s="63"/>
+      <c r="B208" s="74"/>
+      <c r="C208" s="114"/>
       <c r="D208" s="10"/>
       <c r="E208" s="27"/>
       <c r="F208" s="10"/>
-      <c r="G208" s="161"/>
-      <c r="H208" s="162"/>
-      <c r="I208" s="162"/>
-      <c r="J208" s="162"/>
-      <c r="K208" s="163"/>
+      <c r="G208" s="109"/>
+      <c r="H208" s="110"/>
+      <c r="I208" s="110"/>
+      <c r="J208" s="110"/>
+      <c r="K208" s="111"/>
     </row>
     <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="49" t="s">
+      <c r="A209" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="B209" s="55"/>
-      <c r="C209" s="55"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67"/>
       <c r="D209" s="10"/>
       <c r="E209" s="28"/>
       <c r="F209" s="10"/>
-      <c r="G209" s="137"/>
-      <c r="H209" s="138"/>
-      <c r="I209" s="138"/>
-      <c r="J209" s="138"/>
-      <c r="K209" s="139"/>
+      <c r="G209" s="106"/>
+      <c r="H209" s="107"/>
+      <c r="I209" s="107"/>
+      <c r="J209" s="107"/>
+      <c r="K209" s="108"/>
     </row>
     <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="61" t="s">
+      <c r="A210" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="B210" s="62"/>
-      <c r="C210" s="62"/>
+      <c r="B210" s="74"/>
+      <c r="C210" s="74"/>
       <c r="D210" s="10"/>
       <c r="E210" s="42"/>
       <c r="F210" s="10"/>
-      <c r="G210" s="161"/>
-      <c r="H210" s="162"/>
-      <c r="I210" s="162"/>
-      <c r="J210" s="162"/>
-      <c r="K210" s="163"/>
+      <c r="G210" s="109"/>
+      <c r="H210" s="110"/>
+      <c r="I210" s="110"/>
+      <c r="J210" s="110"/>
+      <c r="K210" s="111"/>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="49" t="s">
+      <c r="A211" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="50"/>
-      <c r="C211" s="51"/>
+      <c r="B211" s="94"/>
+      <c r="C211" s="95"/>
       <c r="D211" s="10"/>
       <c r="E211" s="48"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="49"/>
-      <c r="H211" s="55"/>
-      <c r="I211" s="55"/>
-      <c r="J211" s="55"/>
-      <c r="K211" s="56"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="68"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="49" t="s">
+      <c r="A212" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="51"/>
+      <c r="B212" s="94"/>
+      <c r="C212" s="95"/>
       <c r="D212" s="10"/>
       <c r="E212" s="48"/>
       <c r="F212" s="10"/>
-      <c r="G212" s="52"/>
-      <c r="H212" s="53"/>
-      <c r="I212" s="53"/>
-      <c r="J212" s="53"/>
-      <c r="K212" s="54"/>
+      <c r="G212" s="100"/>
+      <c r="H212" s="101"/>
+      <c r="I212" s="101"/>
+      <c r="J212" s="101"/>
+      <c r="K212" s="102"/>
     </row>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="69"/>
@@ -7174,11 +7174,11 @@
       <c r="K213" s="71"/>
     </row>
     <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="65" t="s">
+      <c r="A214" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B214" s="66"/>
-      <c r="C214" s="67"/>
+      <c r="B214" s="77"/>
+      <c r="C214" s="78"/>
       <c r="D214" s="11"/>
       <c r="E214" s="6" t="s">
         <v>2</v>
@@ -7186,58 +7186,58 @@
       <c r="F214" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G214" s="84" t="s">
+      <c r="G214" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H214" s="84"/>
-      <c r="I214" s="84"/>
-      <c r="J214" s="84"/>
-      <c r="K214" s="85"/>
+      <c r="H214" s="89"/>
+      <c r="I214" s="89"/>
+      <c r="J214" s="89"/>
+      <c r="K214" s="90"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="49" t="s">
+      <c r="A215" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="B215" s="55"/>
-      <c r="C215" s="56"/>
+      <c r="B215" s="67"/>
+      <c r="C215" s="68"/>
       <c r="D215" s="10"/>
       <c r="E215" s="13"/>
       <c r="F215" s="10"/>
-      <c r="G215" s="49"/>
-      <c r="H215" s="55"/>
-      <c r="I215" s="55"/>
-      <c r="J215" s="55"/>
-      <c r="K215" s="56"/>
+      <c r="G215" s="66"/>
+      <c r="H215" s="67"/>
+      <c r="I215" s="67"/>
+      <c r="J215" s="67"/>
+      <c r="K215" s="68"/>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="49" t="s">
+      <c r="A216" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B216" s="50"/>
-      <c r="C216" s="51"/>
+      <c r="B216" s="94"/>
+      <c r="C216" s="95"/>
       <c r="D216" s="10"/>
       <c r="E216" s="48"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="49"/>
-      <c r="H216" s="55"/>
-      <c r="I216" s="55"/>
-      <c r="J216" s="55"/>
-      <c r="K216" s="56"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="68"/>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="49" t="s">
+      <c r="A217" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B217" s="50"/>
-      <c r="C217" s="51"/>
+      <c r="B217" s="94"/>
+      <c r="C217" s="95"/>
       <c r="D217" s="10"/>
       <c r="E217" s="48"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="52"/>
-      <c r="H217" s="53"/>
-      <c r="I217" s="53"/>
-      <c r="J217" s="53"/>
-      <c r="K217" s="54"/>
+      <c r="G217" s="100"/>
+      <c r="H217" s="101"/>
+      <c r="I217" s="101"/>
+      <c r="J217" s="101"/>
+      <c r="K217" s="102"/>
     </row>
     <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="69"/>
@@ -7253,11 +7253,11 @@
       <c r="K218" s="71"/>
     </row>
     <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="65" t="s">
+      <c r="A219" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="B219" s="66"/>
-      <c r="C219" s="67"/>
+      <c r="B219" s="77"/>
+      <c r="C219" s="78"/>
       <c r="D219" s="11"/>
       <c r="E219" s="6" t="s">
         <v>2</v>
@@ -7265,58 +7265,58 @@
       <c r="F219" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G219" s="84" t="s">
+      <c r="G219" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="84"/>
-      <c r="I219" s="84"/>
-      <c r="J219" s="84"/>
-      <c r="K219" s="85"/>
+      <c r="H219" s="89"/>
+      <c r="I219" s="89"/>
+      <c r="J219" s="89"/>
+      <c r="K219" s="90"/>
     </row>
     <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="61" t="s">
+      <c r="A220" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="B220" s="62"/>
-      <c r="C220" s="86"/>
+      <c r="B220" s="74"/>
+      <c r="C220" s="96"/>
       <c r="D220" s="10"/>
       <c r="E220" s="16"/>
       <c r="F220" s="10"/>
-      <c r="G220" s="87"/>
-      <c r="H220" s="88"/>
-      <c r="I220" s="88"/>
-      <c r="J220" s="88"/>
-      <c r="K220" s="89"/>
+      <c r="G220" s="97"/>
+      <c r="H220" s="98"/>
+      <c r="I220" s="98"/>
+      <c r="J220" s="98"/>
+      <c r="K220" s="99"/>
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="49" t="s">
+      <c r="A221" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B221" s="50"/>
-      <c r="C221" s="51"/>
+      <c r="B221" s="94"/>
+      <c r="C221" s="95"/>
       <c r="D221" s="10"/>
       <c r="E221" s="48"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="55"/>
-      <c r="I221" s="55"/>
-      <c r="J221" s="55"/>
-      <c r="K221" s="56"/>
+      <c r="G221" s="66"/>
+      <c r="H221" s="67"/>
+      <c r="I221" s="67"/>
+      <c r="J221" s="67"/>
+      <c r="K221" s="68"/>
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="49" t="s">
+      <c r="A222" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B222" s="50"/>
-      <c r="C222" s="51"/>
+      <c r="B222" s="94"/>
+      <c r="C222" s="95"/>
       <c r="D222" s="10"/>
       <c r="E222" s="48"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="52"/>
-      <c r="H222" s="53"/>
-      <c r="I222" s="53"/>
-      <c r="J222" s="53"/>
-      <c r="K222" s="54"/>
+      <c r="G222" s="100"/>
+      <c r="H222" s="101"/>
+      <c r="I222" s="101"/>
+      <c r="J222" s="101"/>
+      <c r="K222" s="102"/>
     </row>
     <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="69"/>
@@ -7332,11 +7332,11 @@
       <c r="K223" s="71"/>
     </row>
     <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="197" t="s">
+      <c r="A224" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B224" s="198"/>
-      <c r="C224" s="198"/>
+      <c r="B224" s="62"/>
+      <c r="C224" s="62"/>
       <c r="D224" s="32"/>
       <c r="E224" s="43" t="s">
         <v>2</v>
@@ -7344,20 +7344,20 @@
       <c r="F224" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G224" s="84" t="s">
+      <c r="G224" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="84"/>
-      <c r="I224" s="84"/>
-      <c r="J224" s="84"/>
-      <c r="K224" s="85"/>
+      <c r="H224" s="89"/>
+      <c r="I224" s="89"/>
+      <c r="J224" s="89"/>
+      <c r="K224" s="90"/>
     </row>
     <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="131" t="s">
+      <c r="A225" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="B225" s="132"/>
-      <c r="C225" s="177"/>
+      <c r="B225" s="92"/>
+      <c r="C225" s="93"/>
       <c r="D225" s="10"/>
       <c r="E225" s="16"/>
       <c r="F225" s="10"/>
@@ -7368,245 +7368,665 @@
       <c r="K225" s="71"/>
     </row>
     <row r="226" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="49" t="s">
+      <c r="A226" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B226" s="50"/>
-      <c r="C226" s="51"/>
+      <c r="B226" s="94"/>
+      <c r="C226" s="95"/>
       <c r="D226" s="10"/>
       <c r="E226" s="48"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="49"/>
-      <c r="H226" s="55"/>
-      <c r="I226" s="55"/>
-      <c r="J226" s="55"/>
-      <c r="K226" s="56"/>
+      <c r="G226" s="66"/>
+      <c r="H226" s="67"/>
+      <c r="I226" s="67"/>
+      <c r="J226" s="67"/>
+      <c r="K226" s="68"/>
     </row>
     <row r="227" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="49" t="s">
+      <c r="A227" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B227" s="50"/>
-      <c r="C227" s="51"/>
+      <c r="B227" s="94"/>
+      <c r="C227" s="95"/>
       <c r="D227" s="10"/>
       <c r="E227" s="48"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="52"/>
-      <c r="H227" s="53"/>
-      <c r="I227" s="53"/>
-      <c r="J227" s="53"/>
-      <c r="K227" s="54"/>
+      <c r="G227" s="100"/>
+      <c r="H227" s="101"/>
+      <c r="I227" s="101"/>
+      <c r="J227" s="101"/>
+      <c r="K227" s="102"/>
     </row>
     <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="49"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="55"/>
-      <c r="D228" s="55"/>
-      <c r="E228" s="55"/>
-      <c r="F228" s="55"/>
-      <c r="G228" s="55"/>
-      <c r="H228" s="55"/>
-      <c r="I228" s="55"/>
-      <c r="J228" s="55"/>
-      <c r="K228" s="56"/>
+      <c r="A228" s="66"/>
+      <c r="B228" s="67"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="67"/>
+      <c r="G228" s="67"/>
+      <c r="H228" s="67"/>
+      <c r="I228" s="67"/>
+      <c r="J228" s="67"/>
+      <c r="K228" s="68"/>
     </row>
     <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="100" t="s">
+      <c r="A229" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B229" s="101"/>
-      <c r="C229" s="101"/>
-      <c r="D229" s="101"/>
-      <c r="E229" s="101"/>
-      <c r="F229" s="101"/>
-      <c r="G229" s="101"/>
-      <c r="H229" s="101"/>
-      <c r="I229" s="101"/>
-      <c r="J229" s="101"/>
-      <c r="K229" s="102"/>
+      <c r="B229" s="59"/>
+      <c r="C229" s="59"/>
+      <c r="D229" s="59"/>
+      <c r="E229" s="59"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="59"/>
+      <c r="H229" s="59"/>
+      <c r="I229" s="59"/>
+      <c r="J229" s="59"/>
+      <c r="K229" s="60"/>
     </row>
     <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="192" t="s">
+      <c r="A230" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B230" s="193"/>
-      <c r="C230" s="193"/>
-      <c r="D230" s="193"/>
-      <c r="E230" s="193"/>
-      <c r="F230" s="193"/>
-      <c r="G230" s="193"/>
-      <c r="H230" s="193"/>
-      <c r="I230" s="193"/>
-      <c r="J230" s="193"/>
-      <c r="K230" s="194"/>
+      <c r="B230" s="50"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="50"/>
+      <c r="H230" s="50"/>
+      <c r="I230" s="50"/>
+      <c r="J230" s="50"/>
+      <c r="K230" s="51"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="186" t="s">
+      <c r="A231" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B231" s="187"/>
-      <c r="C231" s="187"/>
-      <c r="D231" s="180"/>
-      <c r="E231" s="180"/>
-      <c r="F231" s="180"/>
-      <c r="G231" s="180"/>
-      <c r="H231" s="180"/>
-      <c r="I231" s="180"/>
-      <c r="J231" s="180"/>
-      <c r="K231" s="181"/>
+      <c r="B231" s="84"/>
+      <c r="C231" s="84"/>
+      <c r="D231" s="52"/>
+      <c r="E231" s="52"/>
+      <c r="F231" s="52"/>
+      <c r="G231" s="52"/>
+      <c r="H231" s="52"/>
+      <c r="I231" s="52"/>
+      <c r="J231" s="52"/>
+      <c r="K231" s="53"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="188" t="s">
+      <c r="A232" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B232" s="189"/>
-      <c r="C232" s="189"/>
-      <c r="D232" s="182"/>
-      <c r="E232" s="182"/>
-      <c r="F232" s="182"/>
-      <c r="G232" s="182"/>
-      <c r="H232" s="182"/>
-      <c r="I232" s="182"/>
-      <c r="J232" s="182"/>
-      <c r="K232" s="183"/>
+      <c r="B232" s="86"/>
+      <c r="C232" s="86"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="54"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="54"/>
+      <c r="J232" s="54"/>
+      <c r="K232" s="55"/>
     </row>
     <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="190" t="s">
+      <c r="A233" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="191"/>
-      <c r="C233" s="191"/>
-      <c r="D233" s="195"/>
-      <c r="E233" s="195"/>
-      <c r="F233" s="195"/>
-      <c r="G233" s="195"/>
-      <c r="H233" s="195"/>
-      <c r="I233" s="195"/>
-      <c r="J233" s="195"/>
-      <c r="K233" s="196"/>
+      <c r="B233" s="88"/>
+      <c r="C233" s="88"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="56"/>
+      <c r="I233" s="56"/>
+      <c r="J233" s="56"/>
+      <c r="K233" s="57"/>
     </row>
     <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="192" t="s">
+      <c r="A234" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B234" s="193"/>
-      <c r="C234" s="193"/>
-      <c r="D234" s="193"/>
-      <c r="E234" s="193"/>
-      <c r="F234" s="193"/>
-      <c r="G234" s="193"/>
-      <c r="H234" s="193"/>
-      <c r="I234" s="193"/>
-      <c r="J234" s="193"/>
-      <c r="K234" s="194"/>
+      <c r="B234" s="50"/>
+      <c r="C234" s="50"/>
+      <c r="D234" s="50"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
+      <c r="G234" s="50"/>
+      <c r="H234" s="50"/>
+      <c r="I234" s="50"/>
+      <c r="J234" s="50"/>
+      <c r="K234" s="51"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="186" t="s">
+      <c r="A235" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B235" s="187"/>
-      <c r="C235" s="187"/>
-      <c r="D235" s="180"/>
-      <c r="E235" s="180"/>
-      <c r="F235" s="180"/>
-      <c r="G235" s="180"/>
-      <c r="H235" s="180"/>
-      <c r="I235" s="180"/>
-      <c r="J235" s="180"/>
-      <c r="K235" s="181"/>
+      <c r="B235" s="84"/>
+      <c r="C235" s="84"/>
+      <c r="D235" s="52"/>
+      <c r="E235" s="52"/>
+      <c r="F235" s="52"/>
+      <c r="G235" s="52"/>
+      <c r="H235" s="52"/>
+      <c r="I235" s="52"/>
+      <c r="J235" s="52"/>
+      <c r="K235" s="53"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="188" t="s">
+      <c r="A236" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="189"/>
-      <c r="C236" s="189"/>
-      <c r="D236" s="182"/>
-      <c r="E236" s="182"/>
-      <c r="F236" s="182"/>
-      <c r="G236" s="182"/>
-      <c r="H236" s="182"/>
-      <c r="I236" s="182"/>
-      <c r="J236" s="182"/>
-      <c r="K236" s="183"/>
+      <c r="B236" s="86"/>
+      <c r="C236" s="86"/>
+      <c r="D236" s="54"/>
+      <c r="E236" s="54"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="54"/>
+      <c r="H236" s="54"/>
+      <c r="I236" s="54"/>
+      <c r="J236" s="54"/>
+      <c r="K236" s="55"/>
     </row>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="190" t="s">
+      <c r="A237" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="191"/>
-      <c r="C237" s="191"/>
-      <c r="D237" s="195"/>
-      <c r="E237" s="195"/>
-      <c r="F237" s="195"/>
-      <c r="G237" s="195"/>
-      <c r="H237" s="195"/>
-      <c r="I237" s="195"/>
-      <c r="J237" s="195"/>
-      <c r="K237" s="196"/>
+      <c r="B237" s="88"/>
+      <c r="C237" s="88"/>
+      <c r="D237" s="56"/>
+      <c r="E237" s="56"/>
+      <c r="F237" s="56"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="56"/>
+      <c r="I237" s="56"/>
+      <c r="J237" s="56"/>
+      <c r="K237" s="57"/>
     </row>
     <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="192" t="s">
+      <c r="A238" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B238" s="193"/>
-      <c r="C238" s="193"/>
-      <c r="D238" s="193"/>
-      <c r="E238" s="193"/>
-      <c r="F238" s="193"/>
-      <c r="G238" s="193"/>
-      <c r="H238" s="193"/>
-      <c r="I238" s="193"/>
-      <c r="J238" s="193"/>
-      <c r="K238" s="194"/>
+      <c r="B238" s="50"/>
+      <c r="C238" s="50"/>
+      <c r="D238" s="50"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
+      <c r="G238" s="50"/>
+      <c r="H238" s="50"/>
+      <c r="I238" s="50"/>
+      <c r="J238" s="50"/>
+      <c r="K238" s="51"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="186" t="s">
+      <c r="A239" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="187"/>
-      <c r="C239" s="187"/>
-      <c r="D239" s="180"/>
-      <c r="E239" s="180"/>
-      <c r="F239" s="180"/>
-      <c r="G239" s="180"/>
-      <c r="H239" s="180"/>
-      <c r="I239" s="180"/>
-      <c r="J239" s="180"/>
-      <c r="K239" s="181"/>
+      <c r="B239" s="84"/>
+      <c r="C239" s="84"/>
+      <c r="D239" s="52"/>
+      <c r="E239" s="52"/>
+      <c r="F239" s="52"/>
+      <c r="G239" s="52"/>
+      <c r="H239" s="52"/>
+      <c r="I239" s="52"/>
+      <c r="J239" s="52"/>
+      <c r="K239" s="53"/>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="188" t="s">
+      <c r="A240" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="189"/>
-      <c r="C240" s="189"/>
-      <c r="D240" s="182"/>
-      <c r="E240" s="182"/>
-      <c r="F240" s="182"/>
-      <c r="G240" s="182"/>
-      <c r="H240" s="182"/>
-      <c r="I240" s="182"/>
-      <c r="J240" s="182"/>
-      <c r="K240" s="183"/>
+      <c r="B240" s="86"/>
+      <c r="C240" s="86"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="54"/>
+      <c r="F240" s="54"/>
+      <c r="G240" s="54"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="54"/>
+      <c r="J240" s="54"/>
+      <c r="K240" s="55"/>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="178" t="s">
+      <c r="A241" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="179"/>
-      <c r="C241" s="179"/>
-      <c r="D241" s="184"/>
-      <c r="E241" s="184"/>
-      <c r="F241" s="184"/>
-      <c r="G241" s="184"/>
-      <c r="H241" s="184"/>
-      <c r="I241" s="184"/>
-      <c r="J241" s="184"/>
-      <c r="K241" s="185"/>
+      <c r="B241" s="80"/>
+      <c r="C241" s="80"/>
+      <c r="D241" s="81"/>
+      <c r="E241" s="81"/>
+      <c r="F241" s="81"/>
+      <c r="G241" s="81"/>
+      <c r="H241" s="81"/>
+      <c r="I241" s="81"/>
+      <c r="J241" s="81"/>
+      <c r="K241" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="444">
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="G227:K227"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="G199:K199"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="G211:K211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="G212:K212"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="G193:K193"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="G195:K195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="G198:K198"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="G201:K201"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="G155:K155"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="G173:K173"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="G157:K157"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="G166:K166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="A126:K126"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="A174:K174"/>
+    <mergeCell ref="A180:K180"/>
+    <mergeCell ref="A185:K185"/>
+    <mergeCell ref="A194:K194"/>
+    <mergeCell ref="A200:K200"/>
+    <mergeCell ref="G215:K215"/>
+    <mergeCell ref="G216:K216"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A213:K213"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="G181:K181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="G175:K175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G182:K182"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="G142:K142"/>
+    <mergeCell ref="G143:K143"/>
+    <mergeCell ref="G141:K141"/>
+    <mergeCell ref="A133:K133"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="A156:K156"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A139:K139"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G147:K147"/>
+    <mergeCell ref="G148:K148"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="G146:K146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="G151:K151"/>
+    <mergeCell ref="G150:K150"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="G138:K138"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="G187:K187"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="G189:K189"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="G191:K191"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="G202:K202"/>
+    <mergeCell ref="G203:K203"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="G205:K205"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="G209:K209"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="G210:K210"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="G219:K219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="G214:K214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="G220:K220"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="G217:K217"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="G221:K221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="G222:K222"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D239:K239"/>
+    <mergeCell ref="D240:K240"/>
+    <mergeCell ref="D241:K241"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="D235:K235"/>
+    <mergeCell ref="D236:K236"/>
+    <mergeCell ref="D237:K237"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A240:C240"/>
     <mergeCell ref="A230:K230"/>
     <mergeCell ref="D231:K231"/>
     <mergeCell ref="D232:K232"/>
@@ -7631,426 +8051,6 @@
     <mergeCell ref="A159:C159"/>
     <mergeCell ref="A160:C160"/>
     <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D239:K239"/>
-    <mergeCell ref="D240:K240"/>
-    <mergeCell ref="D241:K241"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A234:K234"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="D235:K235"/>
-    <mergeCell ref="D236:K236"/>
-    <mergeCell ref="D237:K237"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="G219:K219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="G214:K214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="G220:K220"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="G217:K217"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="G221:K221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="G222:K222"/>
-    <mergeCell ref="G202:K202"/>
-    <mergeCell ref="G203:K203"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="G205:K205"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="G209:K209"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="G210:K210"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="G151:K151"/>
-    <mergeCell ref="G150:K150"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="G138:K138"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="G144:K144"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="G187:K187"/>
-    <mergeCell ref="G188:K188"/>
-    <mergeCell ref="G189:K189"/>
-    <mergeCell ref="G190:K190"/>
-    <mergeCell ref="G191:K191"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="G197:K197"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G147:K147"/>
-    <mergeCell ref="G148:K148"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="G146:K146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="G142:K142"/>
-    <mergeCell ref="G143:K143"/>
-    <mergeCell ref="G141:K141"/>
-    <mergeCell ref="A133:K133"/>
-    <mergeCell ref="A145:K145"/>
-    <mergeCell ref="A156:K156"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="G140:K140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A139:K139"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="G153:K153"/>
-    <mergeCell ref="G154:K154"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="A174:K174"/>
-    <mergeCell ref="A180:K180"/>
-    <mergeCell ref="A185:K185"/>
-    <mergeCell ref="A194:K194"/>
-    <mergeCell ref="A200:K200"/>
-    <mergeCell ref="G215:K215"/>
-    <mergeCell ref="G216:K216"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="A223:K223"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A213:K213"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="G181:K181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="G175:K175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G182:K182"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="G129:K129"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="A126:K126"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="G155:K155"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="G164:K164"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="G173:K173"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="G157:K157"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="G166:K166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="G227:K227"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="G184:K184"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="G199:K199"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="G211:K211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="G212:K212"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="G193:K193"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="G195:K195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="G198:K198"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="G201:K201"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:K10">

--- a/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
+++ b/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrizzo\Documents\GitHub\dge\3-tecnologia\2-procesos\1-relevamiento-de-activos\1-procedimiento\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
@@ -707,8 +712,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1722,7 +1727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1888,6 +1893,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1897,67 +1953,385 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,238 +2352,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,157 +2376,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3885,7 +3893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3917,9 +3925,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3951,6 +3960,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4126,14 +4136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
@@ -4155,22 +4165,22 @@
     <col min="29" max="16384" width="15.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+    <row r="1" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="185" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="133"/>
       <c r="M1" s="45" t="s">
         <v>1</v>
       </c>
@@ -4184,18 +4194,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="205"/>
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
       <c r="M2" s="44" t="s">
         <v>150</v>
       </c>
@@ -4209,24 +4219,24 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="200" t="s">
+      <c r="C3" s="101"/>
+      <c r="D3" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="208"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
       <c r="M3" s="44" t="s">
         <v>151</v>
       </c>
@@ -4240,18 +4250,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="196"/>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="199"/>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
       <c r="M4" s="44" t="s">
         <v>152</v>
       </c>
@@ -4262,20 +4272,20 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A5" s="102" t="s">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
       <c r="N5" s="44" t="s">
         <v>157</v>
       </c>
@@ -4283,154 +4293,154 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="139"/>
       <c r="P6" s="44" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
       <c r="P7" s="44" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
       <c r="P8" s="44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
       <c r="P9" s="44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
       <c r="P10" s="44" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
       <c r="P11" s="44" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="209"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="211"/>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="121"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
       <c r="P12" s="44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
       <c r="P13" s="44" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="215" t="s">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="216"/>
-      <c r="C14" s="217"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>2</v>
@@ -4438,237 +4448,237 @@
       <c r="F14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="143" t="s">
+      <c r="G14" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
       <c r="P14" s="44" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="65"/>
       <c r="P15" s="44" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="10"/>
       <c r="E16" s="47"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
       <c r="K16" s="65"/>
       <c r="P16" s="44" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="53"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="65"/>
       <c r="P17" s="44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="10"/>
       <c r="E18" s="53"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="65"/>
       <c r="P18" s="44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="10"/>
       <c r="E19" s="53"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
       <c r="K19" s="65"/>
       <c r="P19" s="44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="47"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="P20" s="44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="10"/>
       <c r="E21" s="53"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
       <c r="P21" s="44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="53"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="P22" s="44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="10"/>
       <c r="E23" s="53"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
       <c r="P23" s="44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="47"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="P24" s="44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="10"/>
       <c r="E25" s="47"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
       <c r="P25" s="44" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
       <c r="P26" s="44" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A27" s="57" t="s">
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6" t="s">
         <v>2</v>
@@ -4676,141 +4686,141 @@
       <c r="F27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
       <c r="P27" s="44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="212" t="s">
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="214"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="10"/>
       <c r="E28" s="13"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="157"/>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="212" t="s">
+      <c r="G28" s="140"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="214"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="10"/>
       <c r="E29" s="13"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-    </row>
-    <row r="30" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A30" s="212" t="s">
+      <c r="G29" s="92"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+    </row>
+    <row r="30" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="214"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="10"/>
       <c r="E30" s="46"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="176"/>
-    </row>
-    <row r="31" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="81" t="s">
+      <c r="G30" s="143"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+    </row>
+    <row r="31" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="204" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="87" t="s">
+      <c r="G31" s="207"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="209"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="54"/>
       <c r="E32" s="56"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="92"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="62" t="s">
+      <c r="G32" s="201"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="203"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="10"/>
       <c r="E33" s="47"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="62" t="s">
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="10"/>
       <c r="E34" s="47"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="80"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A36" s="57" t="s">
+      <c r="G34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="59"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15" t="s">
         <v>2</v>
@@ -4818,213 +4828,213 @@
       <c r="F36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="143" t="s">
+      <c r="G36" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="144"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="62" t="s">
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="69"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="16"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="17"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="62" t="s">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="10"/>
       <c r="E39" s="18"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="111"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="10"/>
       <c r="E40" s="18"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="10"/>
       <c r="E41" s="18"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="10"/>
       <c r="E42" s="18"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="62" t="s">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="10"/>
       <c r="E43" s="18"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="10"/>
       <c r="E44" s="18"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="77"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="10"/>
       <c r="E46" s="19"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="62" t="s">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="10"/>
       <c r="E47" s="47"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="80"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="62" t="s">
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="10"/>
       <c r="E48" s="47"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="80"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="165" t="s">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="167"/>
+      <c r="B50" s="213"/>
+      <c r="C50" s="214"/>
       <c r="D50" s="20"/>
       <c r="E50" s="15" t="s">
         <v>2</v>
@@ -5032,123 +5042,123 @@
       <c r="F50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="168" t="s">
+      <c r="G50" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="170"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A51" s="62" t="s">
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="217"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="77"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="111"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="77"/>
       <c r="D52" s="10"/>
       <c r="E52" s="18"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="10"/>
       <c r="E53" s="16"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="77"/>
       <c r="D54" s="10"/>
       <c r="E54" s="18"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A55" s="62" t="s">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="10"/>
       <c r="E55" s="47"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="80"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="62" t="s">
+      <c r="G55" s="61"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="63"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="10"/>
       <c r="E56" s="47"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="80"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A57" s="171"/>
-      <c r="B57" s="172"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="172"/>
-      <c r="F57" s="172"/>
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="173"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A58" s="57" t="s">
+      <c r="G56" s="61"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="63"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="158"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
+      <c r="I57" s="159"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="160"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="23"/>
       <c r="E58" s="21" t="s">
         <v>2</v>
@@ -5156,258 +5166,258 @@
       <c r="F58" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="160" t="s">
+      <c r="G58" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="160"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="161"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A59" s="62" t="s">
+      <c r="H58" s="167"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="168"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="63"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="65"/>
       <c r="D59" s="10"/>
       <c r="E59" s="25"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="150"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="62" t="s">
+      <c r="G59" s="155"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="157"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="63"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="65"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="150"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="62" t="s">
+      <c r="G60" s="155"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="157"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="63"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="65"/>
       <c r="D61" s="10"/>
       <c r="E61" s="22"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="153"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="62" t="s">
+      <c r="G61" s="161"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="163"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="10"/>
       <c r="E62" s="26"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="136"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="89"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="112" t="s">
+      <c r="G62" s="146"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="148"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="10"/>
       <c r="E63" s="16"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="138"/>
-      <c r="J63" s="138"/>
-      <c r="K63" s="139"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="62" t="s">
+      <c r="G63" s="164"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="166"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="10"/>
       <c r="E64" s="18"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="89"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="112" t="s">
+      <c r="G64" s="146"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="148"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="10"/>
       <c r="E65" s="27"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="138"/>
-      <c r="J65" s="138"/>
-      <c r="K65" s="139"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A66" s="62" t="s">
+      <c r="G65" s="164"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="166"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="10"/>
       <c r="E66" s="28"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="89"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="62" t="s">
+      <c r="G66" s="146"/>
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="148"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="10"/>
       <c r="E67" s="29"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="89"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="62" t="s">
+      <c r="G67" s="146"/>
+      <c r="H67" s="147"/>
+      <c r="I67" s="147"/>
+      <c r="J67" s="147"/>
+      <c r="K67" s="148"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="10"/>
       <c r="E68" s="29"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="89"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A69" s="62" t="s">
+      <c r="G68" s="146"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147"/>
+      <c r="J68" s="147"/>
+      <c r="K68" s="148"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="10"/>
       <c r="E69" s="29"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="89"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A70" s="78" t="s">
+      <c r="G69" s="146"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="147"/>
+      <c r="J69" s="147"/>
+      <c r="K69" s="148"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="10"/>
       <c r="E70" s="30"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="177"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="178"/>
-      <c r="J70" s="178"/>
-      <c r="K70" s="179"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A71" s="78" t="s">
+      <c r="G70" s="149"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
+      <c r="K70" s="151"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="10"/>
       <c r="E71" s="31"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="177"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
-      <c r="J71" s="178"/>
-      <c r="K71" s="179"/>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A72" s="62" t="s">
+      <c r="G71" s="149"/>
+      <c r="H71" s="150"/>
+      <c r="I71" s="150"/>
+      <c r="J71" s="150"/>
+      <c r="K71" s="151"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="71"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="10"/>
       <c r="E72" s="47"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="80"/>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A73" s="62" t="s">
+      <c r="G72" s="61"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="63"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="71"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="10"/>
       <c r="E73" s="47"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="80"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="110"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="158" t="s">
+      <c r="G73" s="61"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="63"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="78"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="80"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="159"/>
-      <c r="C75" s="159"/>
+      <c r="B75" s="211"/>
+      <c r="C75" s="211"/>
       <c r="D75" s="32"/>
       <c r="E75" s="33" t="s">
         <v>2</v>
@@ -5415,138 +5425,138 @@
       <c r="F75" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="180" t="s">
+      <c r="G75" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="181"/>
-      <c r="I75" s="181"/>
-      <c r="J75" s="181"/>
-      <c r="K75" s="182"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A76" s="62" t="s">
+      <c r="H75" s="153"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="154"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="10"/>
       <c r="E76" s="18"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A77" s="62" t="s">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="10"/>
       <c r="E77" s="18"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A78" s="112" t="s">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="B78" s="113"/>
-      <c r="C78" s="129"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="95"/>
       <c r="D78" s="10"/>
       <c r="E78" s="16"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="154"/>
-      <c r="H78" s="155"/>
-      <c r="I78" s="155"/>
-      <c r="J78" s="155"/>
-      <c r="K78" s="156"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A79" s="62" t="s">
+      <c r="G78" s="90"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="91"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="82"/>
       <c r="D79" s="10"/>
       <c r="E79" s="18"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="71"/>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A80" s="62" t="s">
+      <c r="G79" s="92"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="60"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="63"/>
-      <c r="C80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="82"/>
       <c r="D80" s="10"/>
       <c r="E80" s="18"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="71"/>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="62" t="s">
+      <c r="G80" s="92"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="60"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="71"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="10"/>
       <c r="E81" s="47"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="80"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="62" t="s">
+      <c r="G81" s="61"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="63"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="70"/>
-      <c r="C82" s="71"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="10"/>
       <c r="E82" s="47"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="80"/>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="66"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="110"/>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="57" t="s">
+      <c r="G82" s="61"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="63"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="78"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="80"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="59"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="11"/>
       <c r="E84" s="6" t="s">
         <v>2</v>
@@ -5554,108 +5564,108 @@
       <c r="F84" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="60" t="s">
+      <c r="G84" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="61"/>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="112" t="s">
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="88"/>
+      <c r="K84" s="89"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="113"/>
-      <c r="C85" s="113"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
       <c r="D85" s="10"/>
       <c r="E85" s="16"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="127"/>
-      <c r="J85" s="127"/>
-      <c r="K85" s="157"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="62" t="s">
+      <c r="G85" s="140"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="141"/>
+      <c r="J85" s="141"/>
+      <c r="K85" s="142"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="10"/>
       <c r="E86" s="18"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="130"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
-      <c r="J86" s="131"/>
-      <c r="K86" s="132"/>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A87" s="62" t="s">
+      <c r="G86" s="96"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="98"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="10"/>
       <c r="E87" s="18"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="71"/>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A88" s="62" t="s">
+      <c r="G87" s="92"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="60"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="71"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="10"/>
       <c r="E88" s="47"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="80"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="62" t="s">
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="63"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="71"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="10"/>
       <c r="E89" s="47"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="K89" s="80"/>
-    </row>
-    <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A90" s="66"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="110"/>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A91" s="57" t="s">
+      <c r="G89" s="61"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="63"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="78"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="80"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="59"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="11"/>
       <c r="E91" s="6" t="s">
         <v>2</v>
@@ -5663,78 +5673,78 @@
       <c r="F91" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G91" s="60" t="s">
+      <c r="G91" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="61"/>
-    </row>
-    <row r="92" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A92" s="62" t="s">
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
+      <c r="K91" s="89"/>
+    </row>
+    <row r="92" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="71"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="10"/>
       <c r="E92" s="46"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="162"/>
-      <c r="H92" s="163"/>
-      <c r="I92" s="163"/>
-      <c r="J92" s="163"/>
-      <c r="K92" s="164"/>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A93" s="62" t="s">
+      <c r="G92" s="169"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="170"/>
+      <c r="J92" s="170"/>
+      <c r="K92" s="171"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="71"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="10"/>
       <c r="E93" s="47"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="78"/>
-      <c r="H93" s="79"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="80"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A94" s="62" t="s">
+      <c r="G93" s="61"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="63"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="71"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="10"/>
       <c r="E94" s="47"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="79"/>
-      <c r="I94" s="79"/>
-      <c r="J94" s="79"/>
-      <c r="K94" s="80"/>
-    </row>
-    <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A95" s="112"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="113"/>
-      <c r="D95" s="113"/>
-      <c r="E95" s="113"/>
-      <c r="F95" s="113"/>
-      <c r="G95" s="113"/>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="113"/>
-      <c r="K95" s="114"/>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A96" s="57" t="s">
+      <c r="G94" s="61"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="62"/>
+      <c r="J94" s="62"/>
+      <c r="K94" s="63"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="70"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="81"/>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="58"/>
-      <c r="C96" s="59"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="11"/>
       <c r="E96" s="6" t="s">
         <v>2</v>
@@ -5742,438 +5752,438 @@
       <c r="F96" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="61"/>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A97" s="62" t="s">
+      <c r="H96" s="88"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
+      <c r="K96" s="89"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="63"/>
-      <c r="C97" s="111"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="10"/>
       <c r="E97" s="16"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="110"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A98" s="62" t="s">
+      <c r="G97" s="78"/>
+      <c r="H97" s="79"/>
+      <c r="I97" s="79"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="80"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="63"/>
-      <c r="C98" s="111"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="10"/>
       <c r="E98" s="18"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="71"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A99" s="62" t="s">
+      <c r="G98" s="92"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="60"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B99" s="63"/>
-      <c r="C99" s="111"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="77"/>
       <c r="D99" s="10"/>
       <c r="E99" s="16"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="155"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="155"/>
-      <c r="K99" s="156"/>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A100" s="62" t="s">
+      <c r="G99" s="90"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="91"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="111"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="77"/>
       <c r="D100" s="10"/>
       <c r="E100" s="18"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="71"/>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A101" s="112" t="s">
+      <c r="G100" s="92"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="60"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
       <c r="D101" s="10"/>
       <c r="E101" s="16"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="154"/>
-      <c r="H101" s="155"/>
-      <c r="I101" s="155"/>
-      <c r="J101" s="155"/>
-      <c r="K101" s="156"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A102" s="62" t="s">
+      <c r="G101" s="90"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="91"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="63"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="10"/>
       <c r="E102" s="18"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="63"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A103" s="62" t="s">
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="63"/>
-      <c r="C103" s="63"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="10"/>
       <c r="E103" s="18"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="71"/>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A104" s="112" t="s">
+      <c r="G103" s="92"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="60"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B104" s="113"/>
-      <c r="C104" s="113"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="10"/>
       <c r="E104" s="16"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="155"/>
-      <c r="I104" s="155"/>
-      <c r="J104" s="155"/>
-      <c r="K104" s="156"/>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="62" t="s">
+      <c r="G104" s="90"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="91"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B105" s="63"/>
-      <c r="C105" s="63"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="10"/>
       <c r="E105" s="18"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="71"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A106" s="112" t="s">
+      <c r="G105" s="92"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="60"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B106" s="113"/>
-      <c r="C106" s="113"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
       <c r="D106" s="10"/>
       <c r="E106" s="16"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
-      <c r="K106" s="156"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A107" s="62" t="s">
+      <c r="G106" s="90"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="91"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="63"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="10"/>
       <c r="E107" s="18"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="70"/>
-      <c r="K107" s="71"/>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A108" s="112" t="s">
+      <c r="G107" s="92"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="60"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="71"/>
       <c r="D108" s="10"/>
       <c r="E108" s="16"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="155"/>
-      <c r="K108" s="156"/>
-    </row>
-    <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A109" s="62" t="s">
+      <c r="G108" s="90"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="91"/>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B109" s="63"/>
-      <c r="C109" s="63"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="10"/>
       <c r="E109" s="18"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="71"/>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A110" s="112" t="s">
+      <c r="G109" s="92"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="60"/>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="71"/>
       <c r="D110" s="10"/>
       <c r="E110" s="16"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="154"/>
-      <c r="H110" s="155"/>
-      <c r="I110" s="155"/>
-      <c r="J110" s="155"/>
-      <c r="K110" s="156"/>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A111" s="62" t="s">
+      <c r="G110" s="90"/>
+      <c r="H110" s="85"/>
+      <c r="I110" s="85"/>
+      <c r="J110" s="85"/>
+      <c r="K110" s="91"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B111" s="63"/>
-      <c r="C111" s="63"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="10"/>
       <c r="E111" s="18"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="70"/>
-      <c r="K111" s="71"/>
-    </row>
-    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A112" s="112" t="s">
+      <c r="G111" s="92"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="60"/>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B112" s="113"/>
-      <c r="C112" s="113"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="71"/>
       <c r="D112" s="10"/>
       <c r="E112" s="16"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="154"/>
-      <c r="H112" s="155"/>
-      <c r="I112" s="155"/>
-      <c r="J112" s="155"/>
-      <c r="K112" s="156"/>
-    </row>
-    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A113" s="62" t="s">
+      <c r="G112" s="90"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="85"/>
+      <c r="K112" s="91"/>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="10"/>
       <c r="E113" s="18"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
-      <c r="J113" s="70"/>
-      <c r="K113" s="71"/>
-    </row>
-    <row r="114" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A114" s="112" t="s">
+      <c r="G113" s="92"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="60"/>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="71"/>
       <c r="D114" s="10"/>
       <c r="E114" s="16"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="154"/>
-      <c r="H114" s="155"/>
-      <c r="I114" s="155"/>
-      <c r="J114" s="155"/>
-      <c r="K114" s="156"/>
-    </row>
-    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A115" s="62" t="s">
+      <c r="G114" s="90"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="85"/>
+      <c r="K114" s="91"/>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B115" s="63"/>
-      <c r="C115" s="63"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
       <c r="D115" s="10"/>
       <c r="E115" s="18"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
-      <c r="K115" s="71"/>
-    </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A116" s="112" t="s">
+      <c r="G115" s="92"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="59"/>
+      <c r="J115" s="59"/>
+      <c r="K115" s="60"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="71"/>
       <c r="D116" s="10"/>
       <c r="E116" s="16"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="154"/>
-      <c r="H116" s="155"/>
-      <c r="I116" s="155"/>
-      <c r="J116" s="155"/>
-      <c r="K116" s="156"/>
-    </row>
-    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A117" s="62" t="s">
+      <c r="G116" s="90"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="91"/>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="63"/>
-      <c r="C117" s="63"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
       <c r="D117" s="10"/>
       <c r="E117" s="18"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
-      <c r="J117" s="70"/>
-      <c r="K117" s="71"/>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A118" s="112" t="s">
+      <c r="G117" s="92"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="59"/>
+      <c r="K117" s="60"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B118" s="113"/>
-      <c r="C118" s="113"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="71"/>
       <c r="D118" s="10"/>
       <c r="E118" s="16"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="154"/>
-      <c r="H118" s="155"/>
-      <c r="I118" s="155"/>
-      <c r="J118" s="155"/>
-      <c r="K118" s="156"/>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A119" s="62" t="s">
+      <c r="G118" s="90"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="91"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B119" s="63"/>
-      <c r="C119" s="63"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="10"/>
       <c r="E119" s="18"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="70"/>
-      <c r="J119" s="70"/>
-      <c r="K119" s="71"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A120" s="87" t="s">
+      <c r="G119" s="92"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="60"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="200" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="88"/>
-      <c r="C120" s="89"/>
+      <c r="B120" s="147"/>
+      <c r="C120" s="148"/>
       <c r="D120" s="54"/>
       <c r="E120" s="56"/>
       <c r="F120" s="54"/>
-      <c r="G120" s="90"/>
-      <c r="H120" s="91"/>
-      <c r="I120" s="91"/>
-      <c r="J120" s="91"/>
-      <c r="K120" s="92"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A121" s="87" t="s">
+      <c r="G120" s="201"/>
+      <c r="H120" s="202"/>
+      <c r="I120" s="202"/>
+      <c r="J120" s="202"/>
+      <c r="K120" s="203"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="B121" s="88"/>
-      <c r="C121" s="89"/>
+      <c r="B121" s="147"/>
+      <c r="C121" s="148"/>
       <c r="D121" s="54"/>
       <c r="E121" s="56"/>
       <c r="F121" s="54"/>
-      <c r="G121" s="90"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
-      <c r="K121" s="92"/>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A122" s="62" t="s">
+      <c r="G121" s="201"/>
+      <c r="H121" s="202"/>
+      <c r="I121" s="202"/>
+      <c r="J121" s="202"/>
+      <c r="K121" s="203"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="70"/>
-      <c r="C122" s="71"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="60"/>
       <c r="D122" s="10"/>
       <c r="E122" s="47"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="78"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="80"/>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="62" t="s">
+      <c r="G122" s="61"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="62"/>
+      <c r="J122" s="62"/>
+      <c r="K122" s="63"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="70"/>
-      <c r="C123" s="71"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="60"/>
       <c r="D123" s="10"/>
       <c r="E123" s="47"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="K123" s="80"/>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A124" s="62"/>
-      <c r="B124" s="63"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="63"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="58"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
       <c r="K124" s="65"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A125" s="57" t="s">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="59"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="76"/>
       <c r="D125" s="34"/>
       <c r="E125" s="6" t="s">
         <v>2</v>
@@ -6181,183 +6191,183 @@
       <c r="F125" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G125" s="60" t="s">
+      <c r="G125" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="61"/>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A126" s="62" t="s">
+      <c r="H125" s="88"/>
+      <c r="I125" s="88"/>
+      <c r="J125" s="88"/>
+      <c r="K125" s="89"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B126" s="63"/>
-      <c r="C126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="82"/>
       <c r="D126" s="10"/>
       <c r="E126" s="19"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
       <c r="K126" s="65"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A127" s="62" t="s">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="63"/>
-      <c r="C127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="82"/>
       <c r="D127" s="10"/>
       <c r="E127" s="19"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="70"/>
-      <c r="J127" s="70"/>
-      <c r="K127" s="71"/>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A128" s="112" t="s">
+      <c r="G127" s="92"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="60"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B128" s="113"/>
-      <c r="C128" s="129"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="95"/>
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="130"/>
-      <c r="H128" s="131"/>
-      <c r="I128" s="131"/>
-      <c r="J128" s="131"/>
-      <c r="K128" s="132"/>
-    </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A129" s="62" t="s">
+      <c r="G128" s="96"/>
+      <c r="H128" s="97"/>
+      <c r="I128" s="97"/>
+      <c r="J128" s="97"/>
+      <c r="K128" s="98"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B129" s="63"/>
-      <c r="C129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="82"/>
       <c r="D129" s="10"/>
       <c r="E129" s="19"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="70"/>
-      <c r="I129" s="70"/>
-      <c r="J129" s="70"/>
-      <c r="K129" s="71"/>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A130" s="112" t="s">
+      <c r="G129" s="92"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="60"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="B130" s="113"/>
-      <c r="C130" s="129"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="95"/>
       <c r="D130" s="10"/>
       <c r="E130" s="8"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="69"/>
-      <c r="H130" s="70"/>
-      <c r="I130" s="70"/>
-      <c r="J130" s="70"/>
-      <c r="K130" s="71"/>
-    </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A131" s="62" t="s">
+      <c r="G130" s="92"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="59"/>
+      <c r="K130" s="60"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B131" s="70"/>
-      <c r="C131" s="71"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="60"/>
       <c r="D131" s="10"/>
       <c r="E131" s="47"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="79"/>
-      <c r="I131" s="79"/>
-      <c r="J131" s="79"/>
-      <c r="K131" s="80"/>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A132" s="62" t="s">
+      <c r="G131" s="61"/>
+      <c r="H131" s="62"/>
+      <c r="I131" s="62"/>
+      <c r="J131" s="62"/>
+      <c r="K131" s="63"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="63"/>
-      <c r="C132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="82"/>
       <c r="D132" s="10"/>
       <c r="E132" s="19"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="69"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="70"/>
-      <c r="J132" s="70"/>
-      <c r="K132" s="71"/>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A133" s="78" t="s">
+      <c r="G132" s="92"/>
+      <c r="H132" s="59"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="60"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B133" s="79"/>
-      <c r="C133" s="218"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="83"/>
       <c r="D133" s="10"/>
       <c r="E133" s="37"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="187"/>
-      <c r="H133" s="188"/>
-      <c r="I133" s="188"/>
-      <c r="J133" s="188"/>
-      <c r="K133" s="189"/>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A134" s="66" t="s">
+      <c r="G133" s="134"/>
+      <c r="H133" s="135"/>
+      <c r="I133" s="135"/>
+      <c r="J133" s="135"/>
+      <c r="K133" s="136"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="68"/>
+      <c r="B134" s="79"/>
+      <c r="C134" s="84"/>
       <c r="D134" s="10"/>
       <c r="E134" s="36"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="69"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="71"/>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A135" s="62" t="s">
+      <c r="G134" s="92"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="60"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="70"/>
-      <c r="C135" s="71"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="60"/>
       <c r="D135" s="10"/>
       <c r="E135" s="47"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="78"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="79"/>
-      <c r="J135" s="79"/>
-      <c r="K135" s="80"/>
-    </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A136" s="62"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
-      <c r="J136" s="63"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="62"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="62"/>
+      <c r="K135" s="63"/>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="58"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="64"/>
+      <c r="I136" s="64"/>
+      <c r="J136" s="64"/>
       <c r="K136" s="65"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A137" s="57" t="s">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B137" s="58"/>
-      <c r="C137" s="59"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
       <c r="D137" s="14"/>
       <c r="E137" s="6" t="s">
         <v>2</v>
@@ -6365,108 +6375,108 @@
       <c r="F137" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="143" t="s">
+      <c r="G137" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H137" s="143"/>
-      <c r="I137" s="143"/>
-      <c r="J137" s="143"/>
-      <c r="K137" s="144"/>
-    </row>
-    <row r="138" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A138" s="112" t="s">
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
+      <c r="K137" s="69"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B138" s="155"/>
-      <c r="C138" s="219"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="86"/>
       <c r="D138" s="10"/>
       <c r="E138" s="8"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="67"/>
-      <c r="K138" s="110"/>
-    </row>
-    <row r="139" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A139" s="62" t="s">
+      <c r="G138" s="78"/>
+      <c r="H138" s="79"/>
+      <c r="I138" s="79"/>
+      <c r="J138" s="79"/>
+      <c r="K138" s="80"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B139" s="70"/>
-      <c r="C139" s="220"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="87"/>
       <c r="D139" s="10"/>
       <c r="E139" s="19"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="63"/>
-      <c r="J139" s="63"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="64"/>
+      <c r="J139" s="64"/>
       <c r="K139" s="65"/>
     </row>
-    <row r="140" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A140" s="62" t="s">
+    <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="70"/>
-      <c r="C140" s="220"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="87"/>
       <c r="D140" s="10"/>
       <c r="E140" s="12"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="63"/>
-      <c r="I140" s="63"/>
-      <c r="J140" s="63"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="64"/>
+      <c r="I140" s="64"/>
+      <c r="J140" s="64"/>
       <c r="K140" s="65"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A141" s="62" t="s">
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B141" s="70"/>
-      <c r="C141" s="71"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="60"/>
       <c r="D141" s="10"/>
       <c r="E141" s="47"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="78"/>
-      <c r="H141" s="79"/>
-      <c r="I141" s="79"/>
-      <c r="J141" s="79"/>
-      <c r="K141" s="80"/>
-    </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A142" s="62" t="s">
+      <c r="G141" s="61"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="63"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="71"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="60"/>
       <c r="D142" s="10"/>
       <c r="E142" s="47"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="78"/>
-      <c r="H142" s="79"/>
-      <c r="I142" s="79"/>
-      <c r="J142" s="79"/>
-      <c r="K142" s="80"/>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A143" s="62"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="63"/>
-      <c r="J143" s="63"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="62"/>
+      <c r="K142" s="63"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="58"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="64"/>
+      <c r="J143" s="64"/>
       <c r="K143" s="65"/>
     </row>
-    <row r="144" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A144" s="57" t="s">
+    <row r="144" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="59"/>
+      <c r="B144" s="75"/>
+      <c r="C144" s="76"/>
       <c r="D144" s="14"/>
       <c r="E144" s="6" t="s">
         <v>2</v>
@@ -6474,93 +6484,93 @@
       <c r="F144" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G144" s="143" t="s">
+      <c r="G144" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H144" s="143"/>
-      <c r="I144" s="143"/>
-      <c r="J144" s="143"/>
-      <c r="K144" s="144"/>
-    </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A145" s="112" t="s">
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="69"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B145" s="155"/>
-      <c r="C145" s="129"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="95"/>
       <c r="D145" s="10"/>
       <c r="E145" s="16"/>
       <c r="F145" s="10"/>
-      <c r="G145" s="66"/>
-      <c r="H145" s="67"/>
-      <c r="I145" s="67"/>
-      <c r="J145" s="67"/>
-      <c r="K145" s="110"/>
-    </row>
-    <row r="146" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A146" s="62" t="s">
+      <c r="G145" s="78"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
+      <c r="J145" s="79"/>
+      <c r="K145" s="80"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="10"/>
       <c r="E146" s="18"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="63"/>
-      <c r="J146" s="63"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="64"/>
+      <c r="J146" s="64"/>
       <c r="K146" s="65"/>
     </row>
-    <row r="147" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A147" s="62" t="s">
+    <row r="147" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B147" s="70"/>
-      <c r="C147" s="71"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="60"/>
       <c r="D147" s="10"/>
       <c r="E147" s="47"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="78"/>
-      <c r="H147" s="79"/>
-      <c r="I147" s="79"/>
-      <c r="J147" s="79"/>
-      <c r="K147" s="80"/>
-    </row>
-    <row r="148" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A148" s="62" t="s">
+      <c r="G147" s="61"/>
+      <c r="H147" s="62"/>
+      <c r="I147" s="62"/>
+      <c r="J147" s="62"/>
+      <c r="K147" s="63"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="70"/>
-      <c r="C148" s="71"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="60"/>
       <c r="D148" s="10"/>
       <c r="E148" s="47"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="78"/>
-      <c r="H148" s="79"/>
-      <c r="I148" s="79"/>
-      <c r="J148" s="79"/>
-      <c r="K148" s="80"/>
-    </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A149" s="62"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="63"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="63"/>
-      <c r="I149" s="63"/>
-      <c r="J149" s="63"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="62"/>
+      <c r="J148" s="62"/>
+      <c r="K148" s="63"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="58"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="64"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="64"/>
+      <c r="I149" s="64"/>
+      <c r="J149" s="64"/>
       <c r="K149" s="65"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A150" s="57" t="s">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="59"/>
+      <c r="B150" s="75"/>
+      <c r="C150" s="76"/>
       <c r="D150" s="14"/>
       <c r="E150" s="6" t="s">
         <v>2</v>
@@ -6568,93 +6578,93 @@
       <c r="F150" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G150" s="143" t="s">
+      <c r="G150" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H150" s="143"/>
-      <c r="I150" s="143"/>
-      <c r="J150" s="143"/>
-      <c r="K150" s="144"/>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A151" s="112" t="s">
+      <c r="H150" s="68"/>
+      <c r="I150" s="68"/>
+      <c r="J150" s="68"/>
+      <c r="K150" s="69"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B151" s="113"/>
-      <c r="C151" s="113"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
       <c r="D151" s="10"/>
       <c r="E151" s="16"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="67"/>
-      <c r="I151" s="67"/>
-      <c r="J151" s="67"/>
-      <c r="K151" s="110"/>
-    </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A152" s="62" t="s">
+      <c r="G151" s="78"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="79"/>
+      <c r="J151" s="79"/>
+      <c r="K151" s="80"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B152" s="63"/>
-      <c r="C152" s="63"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
       <c r="D152" s="10"/>
       <c r="E152" s="18"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="62"/>
-      <c r="H152" s="63"/>
-      <c r="I152" s="63"/>
-      <c r="J152" s="63"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="64"/>
+      <c r="J152" s="64"/>
       <c r="K152" s="65"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A153" s="62" t="s">
+    <row r="153" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="70"/>
-      <c r="C153" s="71"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="60"/>
       <c r="D153" s="10"/>
       <c r="E153" s="47"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="78"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="79"/>
-      <c r="J153" s="79"/>
-      <c r="K153" s="80"/>
-    </row>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A154" s="62" t="s">
+      <c r="G153" s="61"/>
+      <c r="H153" s="62"/>
+      <c r="I153" s="62"/>
+      <c r="J153" s="62"/>
+      <c r="K153" s="63"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B154" s="70"/>
-      <c r="C154" s="71"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="60"/>
       <c r="D154" s="10"/>
       <c r="E154" s="47"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="78"/>
-      <c r="H154" s="79"/>
-      <c r="I154" s="79"/>
-      <c r="J154" s="79"/>
-      <c r="K154" s="80"/>
-    </row>
-    <row r="155" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A155" s="66"/>
-      <c r="B155" s="67"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="67"/>
-      <c r="H155" s="67"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="67"/>
-      <c r="K155" s="110"/>
-    </row>
-    <row r="156" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A156" s="57" t="s">
+      <c r="G154" s="61"/>
+      <c r="H154" s="62"/>
+      <c r="I154" s="62"/>
+      <c r="J154" s="62"/>
+      <c r="K154" s="63"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="78"/>
+      <c r="B155" s="79"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="79"/>
+      <c r="H155" s="79"/>
+      <c r="I155" s="79"/>
+      <c r="J155" s="79"/>
+      <c r="K155" s="80"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B156" s="58"/>
-      <c r="C156" s="59"/>
+      <c r="B156" s="75"/>
+      <c r="C156" s="76"/>
       <c r="D156" s="14"/>
       <c r="E156" s="15" t="s">
         <v>2</v>
@@ -6662,168 +6672,168 @@
       <c r="F156" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G156" s="143" t="s">
+      <c r="G156" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H156" s="143"/>
-      <c r="I156" s="143"/>
-      <c r="J156" s="143"/>
-      <c r="K156" s="144"/>
-    </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A157" s="66" t="s">
+      <c r="H156" s="68"/>
+      <c r="I156" s="68"/>
+      <c r="J156" s="68"/>
+      <c r="K156" s="69"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B157" s="67"/>
-      <c r="C157" s="67"/>
+      <c r="B157" s="79"/>
+      <c r="C157" s="79"/>
       <c r="D157" s="10"/>
       <c r="E157" s="35"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="67"/>
-      <c r="I157" s="67"/>
-      <c r="J157" s="67"/>
-      <c r="K157" s="110"/>
-    </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A158" s="62" t="s">
+      <c r="G157" s="78"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79"/>
+      <c r="J157" s="79"/>
+      <c r="K157" s="80"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B158" s="63"/>
-      <c r="C158" s="63"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="10"/>
       <c r="E158" s="18"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="62"/>
-      <c r="H158" s="63"/>
-      <c r="I158" s="63"/>
-      <c r="J158" s="63"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="64"/>
+      <c r="I158" s="64"/>
+      <c r="J158" s="64"/>
       <c r="K158" s="65"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A159" s="62" t="s">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B159" s="63"/>
-      <c r="C159" s="63"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="10"/>
       <c r="E159" s="18"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="63"/>
-      <c r="I159" s="63"/>
-      <c r="J159" s="63"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="64"/>
+      <c r="J159" s="64"/>
       <c r="K159" s="65"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A160" s="112" t="s">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B160" s="113"/>
-      <c r="C160" s="113"/>
+      <c r="B160" s="71"/>
+      <c r="C160" s="71"/>
       <c r="D160" s="10"/>
       <c r="E160" s="16"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="112"/>
-      <c r="H160" s="113"/>
-      <c r="I160" s="113"/>
-      <c r="J160" s="113"/>
-      <c r="K160" s="114"/>
-    </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A161" s="62" t="s">
+      <c r="G160" s="70"/>
+      <c r="H160" s="71"/>
+      <c r="I160" s="71"/>
+      <c r="J160" s="71"/>
+      <c r="K160" s="81"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B161" s="63"/>
-      <c r="C161" s="63"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="64"/>
       <c r="D161" s="10"/>
       <c r="E161" s="18"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="62"/>
-      <c r="H161" s="63"/>
-      <c r="I161" s="63"/>
-      <c r="J161" s="63"/>
+      <c r="G161" s="58"/>
+      <c r="H161" s="64"/>
+      <c r="I161" s="64"/>
+      <c r="J161" s="64"/>
       <c r="K161" s="65"/>
     </row>
-    <row r="162" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A162" s="112" t="s">
+    <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B162" s="113"/>
-      <c r="C162" s="113"/>
+      <c r="B162" s="71"/>
+      <c r="C162" s="71"/>
       <c r="D162" s="10"/>
       <c r="E162" s="16"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="112"/>
-      <c r="H162" s="113"/>
-      <c r="I162" s="113"/>
-      <c r="J162" s="113"/>
-      <c r="K162" s="114"/>
-    </row>
-    <row r="163" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A163" s="62" t="s">
+      <c r="G162" s="70"/>
+      <c r="H162" s="71"/>
+      <c r="I162" s="71"/>
+      <c r="J162" s="71"/>
+      <c r="K162" s="81"/>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B163" s="63"/>
-      <c r="C163" s="63"/>
+      <c r="B163" s="64"/>
+      <c r="C163" s="64"/>
       <c r="D163" s="10"/>
       <c r="E163" s="18"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="62"/>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
-      <c r="J163" s="63"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="64"/>
+      <c r="I163" s="64"/>
+      <c r="J163" s="64"/>
       <c r="K163" s="65"/>
     </row>
-    <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A164" s="62" t="s">
+    <row r="164" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="70"/>
-      <c r="C164" s="71"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="10"/>
       <c r="E164" s="47"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="78"/>
-      <c r="H164" s="79"/>
-      <c r="I164" s="79"/>
-      <c r="J164" s="79"/>
-      <c r="K164" s="80"/>
-    </row>
-    <row r="165" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A165" s="62" t="s">
+      <c r="G164" s="61"/>
+      <c r="H164" s="62"/>
+      <c r="I164" s="62"/>
+      <c r="J164" s="62"/>
+      <c r="K164" s="63"/>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B165" s="70"/>
-      <c r="C165" s="71"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="60"/>
       <c r="D165" s="10"/>
       <c r="E165" s="47"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="78"/>
-      <c r="H165" s="79"/>
-      <c r="I165" s="79"/>
-      <c r="J165" s="79"/>
-      <c r="K165" s="80"/>
-    </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A166" s="66"/>
-      <c r="B166" s="67"/>
-      <c r="C166" s="67"/>
-      <c r="D166" s="67"/>
-      <c r="E166" s="67"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="67"/>
-      <c r="H166" s="67"/>
-      <c r="I166" s="67"/>
-      <c r="J166" s="67"/>
-      <c r="K166" s="110"/>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A167" s="57" t="s">
+      <c r="G165" s="61"/>
+      <c r="H165" s="62"/>
+      <c r="I165" s="62"/>
+      <c r="J165" s="62"/>
+      <c r="K165" s="63"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="78"/>
+      <c r="B166" s="79"/>
+      <c r="C166" s="79"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="79"/>
+      <c r="F166" s="79"/>
+      <c r="G166" s="79"/>
+      <c r="H166" s="79"/>
+      <c r="I166" s="79"/>
+      <c r="J166" s="79"/>
+      <c r="K166" s="80"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B167" s="58"/>
-      <c r="C167" s="59"/>
+      <c r="B167" s="75"/>
+      <c r="C167" s="76"/>
       <c r="D167" s="14"/>
       <c r="E167" s="15" t="s">
         <v>2</v>
@@ -6831,138 +6841,138 @@
       <c r="F167" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G167" s="221" t="s">
+      <c r="G167" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H167" s="143"/>
-      <c r="I167" s="143"/>
-      <c r="J167" s="143"/>
-      <c r="K167" s="144"/>
-    </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A168" s="112" t="s">
+      <c r="H167" s="68"/>
+      <c r="I167" s="68"/>
+      <c r="J167" s="68"/>
+      <c r="K167" s="69"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="B168" s="113"/>
-      <c r="C168" s="113"/>
+      <c r="B168" s="71"/>
+      <c r="C168" s="71"/>
       <c r="D168" s="10"/>
       <c r="E168" s="16"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="112"/>
-      <c r="H168" s="113"/>
-      <c r="I168" s="113"/>
-      <c r="J168" s="113"/>
-      <c r="K168" s="114"/>
-    </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A169" s="62" t="s">
+      <c r="G168" s="70"/>
+      <c r="H168" s="71"/>
+      <c r="I168" s="71"/>
+      <c r="J168" s="71"/>
+      <c r="K168" s="81"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B169" s="63"/>
-      <c r="C169" s="63"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="64"/>
       <c r="D169" s="10"/>
       <c r="E169" s="18"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="62"/>
-      <c r="H169" s="63"/>
-      <c r="I169" s="63"/>
-      <c r="J169" s="63"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="64"/>
+      <c r="J169" s="64"/>
       <c r="K169" s="65"/>
     </row>
-    <row r="170" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A170" s="112" t="s">
+    <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B170" s="113"/>
-      <c r="C170" s="113"/>
+      <c r="B170" s="71"/>
+      <c r="C170" s="71"/>
       <c r="D170" s="10"/>
       <c r="E170" s="16"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="112"/>
-      <c r="H170" s="113"/>
-      <c r="I170" s="113"/>
-      <c r="J170" s="113"/>
-      <c r="K170" s="114"/>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A171" s="62" t="s">
+      <c r="G170" s="70"/>
+      <c r="H170" s="71"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="71"/>
+      <c r="K170" s="81"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B171" s="63"/>
-      <c r="C171" s="63"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="64"/>
       <c r="D171" s="10"/>
       <c r="E171" s="18"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="62"/>
-      <c r="H171" s="63"/>
-      <c r="I171" s="63"/>
-      <c r="J171" s="63"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
       <c r="K171" s="65"/>
     </row>
-    <row r="172" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A172" s="112" t="s">
+    <row r="172" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B172" s="113"/>
-      <c r="C172" s="113"/>
+      <c r="B172" s="71"/>
+      <c r="C172" s="71"/>
       <c r="D172" s="10"/>
       <c r="E172" s="16"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="62"/>
-      <c r="H172" s="63"/>
-      <c r="I172" s="63"/>
-      <c r="J172" s="63"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="64"/>
+      <c r="I172" s="64"/>
+      <c r="J172" s="64"/>
       <c r="K172" s="65"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A173" s="62" t="s">
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B173" s="70"/>
-      <c r="C173" s="71"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="60"/>
       <c r="D173" s="10"/>
       <c r="E173" s="47"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="78"/>
-      <c r="H173" s="79"/>
-      <c r="I173" s="79"/>
-      <c r="J173" s="79"/>
-      <c r="K173" s="80"/>
-    </row>
-    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A174" s="62" t="s">
+      <c r="G173" s="61"/>
+      <c r="H173" s="62"/>
+      <c r="I173" s="62"/>
+      <c r="J173" s="62"/>
+      <c r="K173" s="63"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B174" s="70"/>
-      <c r="C174" s="71"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="60"/>
       <c r="D174" s="10"/>
       <c r="E174" s="47"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="78"/>
-      <c r="H174" s="79"/>
-      <c r="I174" s="79"/>
-      <c r="J174" s="79"/>
-      <c r="K174" s="80"/>
-    </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A175" s="62"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
-      <c r="E175" s="63"/>
-      <c r="F175" s="63"/>
-      <c r="G175" s="63"/>
-      <c r="H175" s="63"/>
-      <c r="I175" s="63"/>
-      <c r="J175" s="63"/>
+      <c r="G174" s="61"/>
+      <c r="H174" s="62"/>
+      <c r="I174" s="62"/>
+      <c r="J174" s="62"/>
+      <c r="K174" s="63"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="58"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="64"/>
       <c r="K175" s="65"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A176" s="57" t="s">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B176" s="58"/>
-      <c r="C176" s="59"/>
+      <c r="B176" s="75"/>
+      <c r="C176" s="76"/>
       <c r="D176" s="14"/>
       <c r="E176" s="15" t="s">
         <v>2</v>
@@ -6970,138 +6980,138 @@
       <c r="F176" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G176" s="143" t="s">
+      <c r="G176" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H176" s="143"/>
-      <c r="I176" s="143"/>
-      <c r="J176" s="143"/>
-      <c r="K176" s="144"/>
-    </row>
-    <row r="177" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A177" s="112" t="s">
+      <c r="H176" s="68"/>
+      <c r="I176" s="68"/>
+      <c r="J176" s="68"/>
+      <c r="K176" s="69"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="113"/>
-      <c r="C177" s="113"/>
+      <c r="B177" s="71"/>
+      <c r="C177" s="71"/>
       <c r="D177" s="10"/>
       <c r="E177" s="16"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="66"/>
-      <c r="H177" s="67"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="67"/>
-      <c r="K177" s="110"/>
-    </row>
-    <row r="178" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A178" s="62" t="s">
+      <c r="G177" s="78"/>
+      <c r="H177" s="79"/>
+      <c r="I177" s="79"/>
+      <c r="J177" s="79"/>
+      <c r="K177" s="80"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B178" s="63"/>
-      <c r="C178" s="63"/>
+      <c r="B178" s="64"/>
+      <c r="C178" s="64"/>
       <c r="D178" s="10"/>
       <c r="E178" s="18"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="62"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
-      <c r="J178" s="63"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="64"/>
+      <c r="I178" s="64"/>
+      <c r="J178" s="64"/>
       <c r="K178" s="65"/>
     </row>
-    <row r="179" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A179" s="112" t="s">
+    <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B179" s="113"/>
-      <c r="C179" s="140"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="72"/>
       <c r="D179" s="10"/>
       <c r="E179" s="16"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="112"/>
-      <c r="H179" s="113"/>
-      <c r="I179" s="113"/>
-      <c r="J179" s="113"/>
-      <c r="K179" s="114"/>
-    </row>
-    <row r="180" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A180" s="62" t="s">
+      <c r="G179" s="70"/>
+      <c r="H179" s="71"/>
+      <c r="I179" s="71"/>
+      <c r="J179" s="71"/>
+      <c r="K179" s="81"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B180" s="63"/>
-      <c r="C180" s="111"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="77"/>
       <c r="D180" s="10"/>
       <c r="E180" s="18"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="62"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="64"/>
+      <c r="I180" s="64"/>
+      <c r="J180" s="64"/>
       <c r="K180" s="65"/>
     </row>
-    <row r="181" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A181" s="112" t="s">
+    <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="B181" s="113"/>
-      <c r="C181" s="140"/>
+      <c r="B181" s="71"/>
+      <c r="C181" s="72"/>
       <c r="D181" s="10"/>
       <c r="E181" s="16"/>
       <c r="F181" s="10"/>
-      <c r="G181" s="112"/>
-      <c r="H181" s="113"/>
-      <c r="I181" s="113"/>
-      <c r="J181" s="113"/>
-      <c r="K181" s="114"/>
-    </row>
-    <row r="182" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A182" s="62" t="s">
+      <c r="G181" s="70"/>
+      <c r="H181" s="71"/>
+      <c r="I181" s="71"/>
+      <c r="J181" s="71"/>
+      <c r="K181" s="81"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B182" s="70"/>
-      <c r="C182" s="71"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="60"/>
       <c r="D182" s="10"/>
       <c r="E182" s="47"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="63"/>
-      <c r="I182" s="63"/>
-      <c r="J182" s="63"/>
+      <c r="G182" s="58"/>
+      <c r="H182" s="64"/>
+      <c r="I182" s="64"/>
+      <c r="J182" s="64"/>
       <c r="K182" s="65"/>
     </row>
-    <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A183" s="62" t="s">
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B183" s="70"/>
-      <c r="C183" s="71"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="60"/>
       <c r="D183" s="10"/>
       <c r="E183" s="47"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="78"/>
-      <c r="H183" s="79"/>
-      <c r="I183" s="79"/>
-      <c r="J183" s="79"/>
-      <c r="K183" s="80"/>
-    </row>
-    <row r="184" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A184" s="66"/>
-      <c r="B184" s="67"/>
-      <c r="C184" s="67"/>
-      <c r="D184" s="67"/>
-      <c r="E184" s="67"/>
-      <c r="F184" s="67"/>
-      <c r="G184" s="67"/>
-      <c r="H184" s="67"/>
-      <c r="I184" s="67"/>
-      <c r="J184" s="67"/>
-      <c r="K184" s="110"/>
-    </row>
-    <row r="185" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A185" s="57" t="s">
+      <c r="G183" s="61"/>
+      <c r="H183" s="62"/>
+      <c r="I183" s="62"/>
+      <c r="J183" s="62"/>
+      <c r="K183" s="63"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="78"/>
+      <c r="B184" s="79"/>
+      <c r="C184" s="79"/>
+      <c r="D184" s="79"/>
+      <c r="E184" s="79"/>
+      <c r="F184" s="79"/>
+      <c r="G184" s="79"/>
+      <c r="H184" s="79"/>
+      <c r="I184" s="79"/>
+      <c r="J184" s="79"/>
+      <c r="K184" s="80"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B185" s="58"/>
-      <c r="C185" s="59"/>
+      <c r="B185" s="75"/>
+      <c r="C185" s="76"/>
       <c r="D185" s="11"/>
       <c r="E185" s="6" t="s">
         <v>2</v>
@@ -7109,93 +7119,93 @@
       <c r="F185" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G185" s="124" t="s">
+      <c r="G185" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H185" s="124"/>
-      <c r="I185" s="124"/>
-      <c r="J185" s="124"/>
-      <c r="K185" s="125"/>
-    </row>
-    <row r="186" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A186" s="112" t="s">
+      <c r="H185" s="93"/>
+      <c r="I185" s="93"/>
+      <c r="J185" s="93"/>
+      <c r="K185" s="94"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B186" s="113"/>
-      <c r="C186" s="129"/>
+      <c r="B186" s="71"/>
+      <c r="C186" s="95"/>
       <c r="D186" s="10"/>
       <c r="E186" s="16"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="66"/>
-      <c r="H186" s="67"/>
-      <c r="I186" s="67"/>
-      <c r="J186" s="67"/>
-      <c r="K186" s="110"/>
-    </row>
-    <row r="187" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A187" s="62" t="s">
+      <c r="G186" s="78"/>
+      <c r="H186" s="79"/>
+      <c r="I186" s="79"/>
+      <c r="J186" s="79"/>
+      <c r="K186" s="80"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="63"/>
-      <c r="C187" s="64"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="82"/>
       <c r="D187" s="10"/>
       <c r="E187" s="18"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="62"/>
-      <c r="H187" s="63"/>
-      <c r="I187" s="63"/>
-      <c r="J187" s="63"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="64"/>
+      <c r="I187" s="64"/>
+      <c r="J187" s="64"/>
       <c r="K187" s="65"/>
     </row>
-    <row r="188" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A188" s="62" t="s">
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B188" s="70"/>
-      <c r="C188" s="71"/>
+      <c r="B188" s="59"/>
+      <c r="C188" s="60"/>
       <c r="D188" s="10"/>
       <c r="E188" s="47"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="78"/>
-      <c r="H188" s="79"/>
-      <c r="I188" s="79"/>
-      <c r="J188" s="79"/>
-      <c r="K188" s="80"/>
-    </row>
-    <row r="189" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A189" s="62" t="s">
+      <c r="G188" s="61"/>
+      <c r="H188" s="62"/>
+      <c r="I188" s="62"/>
+      <c r="J188" s="62"/>
+      <c r="K188" s="63"/>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B189" s="70"/>
-      <c r="C189" s="71"/>
+      <c r="B189" s="59"/>
+      <c r="C189" s="60"/>
       <c r="D189" s="10"/>
       <c r="E189" s="47"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="78"/>
-      <c r="H189" s="79"/>
-      <c r="I189" s="79"/>
-      <c r="J189" s="79"/>
-      <c r="K189" s="80"/>
-    </row>
-    <row r="190" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A190" s="66"/>
-      <c r="B190" s="67"/>
-      <c r="C190" s="67"/>
-      <c r="D190" s="67"/>
-      <c r="E190" s="67"/>
-      <c r="F190" s="67"/>
-      <c r="G190" s="67"/>
-      <c r="H190" s="67"/>
-      <c r="I190" s="67"/>
-      <c r="J190" s="67"/>
-      <c r="K190" s="110"/>
-    </row>
-    <row r="191" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A191" s="57" t="s">
+      <c r="G189" s="61"/>
+      <c r="H189" s="62"/>
+      <c r="I189" s="62"/>
+      <c r="J189" s="62"/>
+      <c r="K189" s="63"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="78"/>
+      <c r="B190" s="79"/>
+      <c r="C190" s="79"/>
+      <c r="D190" s="79"/>
+      <c r="E190" s="79"/>
+      <c r="F190" s="79"/>
+      <c r="G190" s="79"/>
+      <c r="H190" s="79"/>
+      <c r="I190" s="79"/>
+      <c r="J190" s="79"/>
+      <c r="K190" s="80"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B191" s="58"/>
-      <c r="C191" s="59"/>
+      <c r="B191" s="75"/>
+      <c r="C191" s="76"/>
       <c r="D191" s="11"/>
       <c r="E191" s="6" t="s">
         <v>2</v>
@@ -7203,78 +7213,78 @@
       <c r="F191" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G191" s="124" t="s">
+      <c r="G191" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H191" s="124"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="124"/>
-      <c r="K191" s="125"/>
-    </row>
-    <row r="192" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A192" s="112" t="s">
+      <c r="H191" s="93"/>
+      <c r="I191" s="93"/>
+      <c r="J191" s="93"/>
+      <c r="K191" s="94"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="B192" s="113"/>
-      <c r="C192" s="129"/>
+      <c r="B192" s="71"/>
+      <c r="C192" s="95"/>
       <c r="D192" s="10"/>
       <c r="E192" s="16"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="130"/>
-      <c r="H192" s="131"/>
-      <c r="I192" s="131"/>
-      <c r="J192" s="131"/>
-      <c r="K192" s="132"/>
-    </row>
-    <row r="193" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A193" s="62" t="s">
+      <c r="G192" s="96"/>
+      <c r="H192" s="97"/>
+      <c r="I192" s="97"/>
+      <c r="J192" s="97"/>
+      <c r="K192" s="98"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B193" s="70"/>
-      <c r="C193" s="71"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="60"/>
       <c r="D193" s="10"/>
       <c r="E193" s="47"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="63"/>
-      <c r="I193" s="63"/>
-      <c r="J193" s="63"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="64"/>
+      <c r="I193" s="64"/>
+      <c r="J193" s="64"/>
       <c r="K193" s="65"/>
     </row>
-    <row r="194" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A194" s="62" t="s">
+    <row r="194" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B194" s="70"/>
-      <c r="C194" s="71"/>
+      <c r="B194" s="59"/>
+      <c r="C194" s="60"/>
       <c r="D194" s="10"/>
       <c r="E194" s="47"/>
       <c r="F194" s="10"/>
-      <c r="G194" s="78"/>
-      <c r="H194" s="79"/>
-      <c r="I194" s="79"/>
-      <c r="J194" s="79"/>
-      <c r="K194" s="80"/>
-    </row>
-    <row r="195" spans="1:11" ht="33" customHeight="1" thickBot="1">
-      <c r="A195" s="66"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="67"/>
-      <c r="D195" s="67"/>
-      <c r="E195" s="67"/>
-      <c r="F195" s="67"/>
-      <c r="G195" s="67"/>
-      <c r="H195" s="67"/>
-      <c r="I195" s="67"/>
-      <c r="J195" s="67"/>
-      <c r="K195" s="110"/>
-    </row>
-    <row r="196" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A196" s="141" t="s">
+      <c r="G194" s="61"/>
+      <c r="H194" s="62"/>
+      <c r="I194" s="62"/>
+      <c r="J194" s="62"/>
+      <c r="K194" s="63"/>
+    </row>
+    <row r="195" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="78"/>
+      <c r="B195" s="79"/>
+      <c r="C195" s="79"/>
+      <c r="D195" s="79"/>
+      <c r="E195" s="79"/>
+      <c r="F195" s="79"/>
+      <c r="G195" s="79"/>
+      <c r="H195" s="79"/>
+      <c r="I195" s="79"/>
+      <c r="J195" s="79"/>
+      <c r="K195" s="80"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B196" s="142"/>
-      <c r="C196" s="142"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="67"/>
       <c r="D196" s="38"/>
       <c r="E196" s="15" t="s">
         <v>2</v>
@@ -7282,138 +7292,138 @@
       <c r="F196" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G196" s="143" t="s">
+      <c r="G196" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H196" s="143"/>
-      <c r="I196" s="143"/>
-      <c r="J196" s="143"/>
-      <c r="K196" s="144"/>
-    </row>
-    <row r="197" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A197" s="112" t="s">
+      <c r="H196" s="68"/>
+      <c r="I196" s="68"/>
+      <c r="J196" s="68"/>
+      <c r="K196" s="69"/>
+    </row>
+    <row r="197" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B197" s="113"/>
-      <c r="C197" s="129"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="95"/>
       <c r="D197" s="10"/>
       <c r="E197" s="39"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="145"/>
-      <c r="H197" s="146"/>
-      <c r="I197" s="146"/>
-      <c r="J197" s="146"/>
-      <c r="K197" s="147"/>
-    </row>
-    <row r="198" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A198" s="62" t="s">
+      <c r="G197" s="172"/>
+      <c r="H197" s="173"/>
+      <c r="I197" s="173"/>
+      <c r="J197" s="173"/>
+      <c r="K197" s="174"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B198" s="63"/>
-      <c r="C198" s="64"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="82"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="148"/>
-      <c r="H198" s="149"/>
-      <c r="I198" s="149"/>
-      <c r="J198" s="149"/>
-      <c r="K198" s="150"/>
-    </row>
-    <row r="199" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A199" s="112" t="s">
+      <c r="G198" s="155"/>
+      <c r="H198" s="156"/>
+      <c r="I198" s="156"/>
+      <c r="J198" s="156"/>
+      <c r="K198" s="157"/>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="B199" s="113"/>
-      <c r="C199" s="129"/>
+      <c r="B199" s="71"/>
+      <c r="C199" s="95"/>
       <c r="D199" s="10"/>
       <c r="E199" s="22"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="151"/>
-      <c r="H199" s="152"/>
-      <c r="I199" s="152"/>
-      <c r="J199" s="152"/>
-      <c r="K199" s="153"/>
-    </row>
-    <row r="200" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A200" s="62" t="s">
+      <c r="G199" s="161"/>
+      <c r="H199" s="162"/>
+      <c r="I199" s="162"/>
+      <c r="J199" s="162"/>
+      <c r="K199" s="163"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B200" s="63"/>
-      <c r="C200" s="64"/>
+      <c r="B200" s="64"/>
+      <c r="C200" s="82"/>
       <c r="D200" s="10"/>
       <c r="E200" s="26"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="148"/>
-      <c r="H200" s="149"/>
-      <c r="I200" s="149"/>
-      <c r="J200" s="149"/>
-      <c r="K200" s="150"/>
-    </row>
-    <row r="201" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A201" s="112" t="s">
+      <c r="G200" s="155"/>
+      <c r="H200" s="156"/>
+      <c r="I200" s="156"/>
+      <c r="J200" s="156"/>
+      <c r="K200" s="157"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="B201" s="113"/>
-      <c r="C201" s="140"/>
+      <c r="B201" s="71"/>
+      <c r="C201" s="72"/>
       <c r="D201" s="10"/>
       <c r="E201" s="16"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="151"/>
-      <c r="H201" s="152"/>
-      <c r="I201" s="152"/>
-      <c r="J201" s="152"/>
-      <c r="K201" s="153"/>
-    </row>
-    <row r="202" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="62" t="s">
+      <c r="G201" s="161"/>
+      <c r="H201" s="162"/>
+      <c r="I201" s="162"/>
+      <c r="J201" s="162"/>
+      <c r="K201" s="163"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B202" s="70"/>
-      <c r="C202" s="71"/>
+      <c r="B202" s="59"/>
+      <c r="C202" s="60"/>
       <c r="D202" s="10"/>
       <c r="E202" s="47"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="62"/>
-      <c r="H202" s="63"/>
-      <c r="I202" s="63"/>
-      <c r="J202" s="63"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="64"/>
+      <c r="I202" s="64"/>
+      <c r="J202" s="64"/>
       <c r="K202" s="65"/>
     </row>
-    <row r="203" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A203" s="62" t="s">
+    <row r="203" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B203" s="70"/>
-      <c r="C203" s="71"/>
+      <c r="B203" s="59"/>
+      <c r="C203" s="60"/>
       <c r="D203" s="10"/>
       <c r="E203" s="47"/>
       <c r="F203" s="10"/>
-      <c r="G203" s="78"/>
-      <c r="H203" s="79"/>
-      <c r="I203" s="79"/>
-      <c r="J203" s="79"/>
-      <c r="K203" s="80"/>
-    </row>
-    <row r="204" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A204" s="66"/>
-      <c r="B204" s="67"/>
-      <c r="C204" s="67"/>
-      <c r="D204" s="67"/>
-      <c r="E204" s="67"/>
-      <c r="F204" s="67"/>
-      <c r="G204" s="67"/>
-      <c r="H204" s="67"/>
-      <c r="I204" s="67"/>
-      <c r="J204" s="67"/>
-      <c r="K204" s="110"/>
-    </row>
-    <row r="205" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A205" s="141" t="s">
+      <c r="G203" s="61"/>
+      <c r="H203" s="62"/>
+      <c r="I203" s="62"/>
+      <c r="J203" s="62"/>
+      <c r="K203" s="63"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="78"/>
+      <c r="B204" s="79"/>
+      <c r="C204" s="79"/>
+      <c r="D204" s="79"/>
+      <c r="E204" s="79"/>
+      <c r="F204" s="79"/>
+      <c r="G204" s="79"/>
+      <c r="H204" s="79"/>
+      <c r="I204" s="79"/>
+      <c r="J204" s="79"/>
+      <c r="K204" s="80"/>
+    </row>
+    <row r="205" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B205" s="142"/>
-      <c r="C205" s="142"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="67"/>
       <c r="D205" s="38"/>
       <c r="E205" s="15" t="s">
         <v>2</v>
@@ -7421,93 +7431,93 @@
       <c r="F205" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G205" s="143" t="s">
+      <c r="G205" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H205" s="143"/>
-      <c r="I205" s="143"/>
-      <c r="J205" s="143"/>
-      <c r="K205" s="144"/>
-    </row>
-    <row r="206" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A206" s="112" t="s">
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
+      <c r="J205" s="68"/>
+      <c r="K205" s="69"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B206" s="113"/>
-      <c r="C206" s="140"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="72"/>
       <c r="D206" s="10"/>
       <c r="E206" s="16"/>
       <c r="F206" s="10"/>
-      <c r="G206" s="133"/>
-      <c r="H206" s="134"/>
-      <c r="I206" s="134"/>
-      <c r="J206" s="134"/>
-      <c r="K206" s="135"/>
-    </row>
-    <row r="207" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A207" s="62" t="s">
+      <c r="G206" s="175"/>
+      <c r="H206" s="176"/>
+      <c r="I206" s="176"/>
+      <c r="J206" s="176"/>
+      <c r="K206" s="177"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B207" s="63"/>
-      <c r="C207" s="64"/>
+      <c r="B207" s="64"/>
+      <c r="C207" s="82"/>
       <c r="D207" s="10"/>
       <c r="E207" s="29"/>
       <c r="F207" s="10"/>
-      <c r="G207" s="136"/>
-      <c r="H207" s="88"/>
-      <c r="I207" s="88"/>
-      <c r="J207" s="88"/>
-      <c r="K207" s="89"/>
-    </row>
-    <row r="208" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A208" s="62" t="s">
+      <c r="G207" s="146"/>
+      <c r="H207" s="147"/>
+      <c r="I207" s="147"/>
+      <c r="J207" s="147"/>
+      <c r="K207" s="148"/>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B208" s="70"/>
-      <c r="C208" s="71"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="60"/>
       <c r="D208" s="10"/>
       <c r="E208" s="47"/>
       <c r="F208" s="10"/>
-      <c r="G208" s="62"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
-      <c r="J208" s="63"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="64"/>
+      <c r="I208" s="64"/>
+      <c r="J208" s="64"/>
       <c r="K208" s="65"/>
     </row>
-    <row r="209" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A209" s="62" t="s">
+    <row r="209" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B209" s="70"/>
-      <c r="C209" s="71"/>
+      <c r="B209" s="59"/>
+      <c r="C209" s="60"/>
       <c r="D209" s="10"/>
       <c r="E209" s="47"/>
       <c r="F209" s="10"/>
-      <c r="G209" s="78"/>
-      <c r="H209" s="79"/>
-      <c r="I209" s="79"/>
-      <c r="J209" s="79"/>
-      <c r="K209" s="80"/>
-    </row>
-    <row r="210" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A210" s="66"/>
-      <c r="B210" s="67"/>
-      <c r="C210" s="67"/>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
-      <c r="F210" s="67"/>
-      <c r="G210" s="67"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="67"/>
-      <c r="J210" s="67"/>
-      <c r="K210" s="110"/>
-    </row>
-    <row r="211" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A211" s="141" t="s">
+      <c r="G209" s="61"/>
+      <c r="H209" s="62"/>
+      <c r="I209" s="62"/>
+      <c r="J209" s="62"/>
+      <c r="K209" s="63"/>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="78"/>
+      <c r="B210" s="79"/>
+      <c r="C210" s="79"/>
+      <c r="D210" s="79"/>
+      <c r="E210" s="79"/>
+      <c r="F210" s="79"/>
+      <c r="G210" s="79"/>
+      <c r="H210" s="79"/>
+      <c r="I210" s="79"/>
+      <c r="J210" s="79"/>
+      <c r="K210" s="80"/>
+    </row>
+    <row r="211" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B211" s="142"/>
-      <c r="C211" s="142"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
       <c r="D211" s="38"/>
       <c r="E211" s="15" t="s">
         <v>2</v>
@@ -7515,198 +7525,198 @@
       <c r="F211" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G211" s="143" t="s">
+      <c r="G211" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H211" s="143"/>
-      <c r="I211" s="143"/>
-      <c r="J211" s="143"/>
-      <c r="K211" s="144"/>
-    </row>
-    <row r="212" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A212" s="112" t="s">
+      <c r="H211" s="68"/>
+      <c r="I211" s="68"/>
+      <c r="J211" s="68"/>
+      <c r="K211" s="69"/>
+    </row>
+    <row r="212" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="B212" s="113"/>
-      <c r="C212" s="129"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="95"/>
       <c r="D212" s="10"/>
       <c r="E212" s="40"/>
       <c r="F212" s="10"/>
-      <c r="G212" s="133"/>
-      <c r="H212" s="134"/>
-      <c r="I212" s="134"/>
-      <c r="J212" s="134"/>
-      <c r="K212" s="135"/>
-    </row>
-    <row r="213" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A213" s="66" t="s">
+      <c r="G212" s="175"/>
+      <c r="H212" s="176"/>
+      <c r="I212" s="176"/>
+      <c r="J212" s="176"/>
+      <c r="K212" s="177"/>
+    </row>
+    <row r="213" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B213" s="67"/>
-      <c r="C213" s="68"/>
+      <c r="B213" s="79"/>
+      <c r="C213" s="84"/>
       <c r="D213" s="10"/>
       <c r="E213" s="41"/>
       <c r="F213" s="10"/>
-      <c r="G213" s="133"/>
-      <c r="H213" s="134"/>
-      <c r="I213" s="134"/>
-      <c r="J213" s="134"/>
-      <c r="K213" s="135"/>
-    </row>
-    <row r="214" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A214" s="62" t="s">
+      <c r="G213" s="175"/>
+      <c r="H213" s="176"/>
+      <c r="I213" s="176"/>
+      <c r="J213" s="176"/>
+      <c r="K213" s="177"/>
+    </row>
+    <row r="214" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B214" s="63"/>
-      <c r="C214" s="64"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="82"/>
       <c r="D214" s="10"/>
       <c r="E214" s="29"/>
       <c r="F214" s="10"/>
-      <c r="G214" s="136"/>
-      <c r="H214" s="88"/>
-      <c r="I214" s="88"/>
-      <c r="J214" s="88"/>
-      <c r="K214" s="89"/>
-    </row>
-    <row r="215" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A215" s="62" t="s">
+      <c r="G214" s="146"/>
+      <c r="H214" s="147"/>
+      <c r="I214" s="147"/>
+      <c r="J214" s="147"/>
+      <c r="K214" s="148"/>
+    </row>
+    <row r="215" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B215" s="63"/>
-      <c r="C215" s="64"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="82"/>
       <c r="D215" s="10"/>
       <c r="E215" s="29"/>
       <c r="F215" s="10"/>
-      <c r="G215" s="136"/>
-      <c r="H215" s="88"/>
-      <c r="I215" s="88"/>
-      <c r="J215" s="88"/>
-      <c r="K215" s="89"/>
-    </row>
-    <row r="216" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A216" s="112" t="s">
+      <c r="G215" s="146"/>
+      <c r="H215" s="147"/>
+      <c r="I215" s="147"/>
+      <c r="J215" s="147"/>
+      <c r="K215" s="148"/>
+    </row>
+    <row r="216" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="113"/>
-      <c r="C216" s="129"/>
+      <c r="B216" s="71"/>
+      <c r="C216" s="95"/>
       <c r="D216" s="10"/>
       <c r="E216" s="42"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="137"/>
-      <c r="H216" s="138"/>
-      <c r="I216" s="138"/>
-      <c r="J216" s="138"/>
-      <c r="K216" s="139"/>
-    </row>
-    <row r="217" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A217" s="62" t="s">
+      <c r="G216" s="164"/>
+      <c r="H216" s="165"/>
+      <c r="I216" s="165"/>
+      <c r="J216" s="165"/>
+      <c r="K216" s="166"/>
+    </row>
+    <row r="217" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B217" s="63"/>
-      <c r="C217" s="111"/>
+      <c r="B217" s="64"/>
+      <c r="C217" s="77"/>
       <c r="D217" s="10"/>
       <c r="E217" s="29"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="136"/>
-      <c r="H217" s="88"/>
-      <c r="I217" s="88"/>
-      <c r="J217" s="88"/>
-      <c r="K217" s="89"/>
-    </row>
-    <row r="218" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A218" s="112" t="s">
+      <c r="G217" s="146"/>
+      <c r="H217" s="147"/>
+      <c r="I217" s="147"/>
+      <c r="J217" s="147"/>
+      <c r="K217" s="148"/>
+    </row>
+    <row r="218" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B218" s="113"/>
-      <c r="C218" s="140"/>
+      <c r="B218" s="71"/>
+      <c r="C218" s="72"/>
       <c r="D218" s="10"/>
       <c r="E218" s="27"/>
       <c r="F218" s="10"/>
-      <c r="G218" s="137"/>
-      <c r="H218" s="138"/>
-      <c r="I218" s="138"/>
-      <c r="J218" s="138"/>
-      <c r="K218" s="139"/>
-    </row>
-    <row r="219" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A219" s="62" t="s">
+      <c r="G218" s="164"/>
+      <c r="H218" s="165"/>
+      <c r="I218" s="165"/>
+      <c r="J218" s="165"/>
+      <c r="K218" s="166"/>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B219" s="63"/>
-      <c r="C219" s="63"/>
+      <c r="B219" s="64"/>
+      <c r="C219" s="64"/>
       <c r="D219" s="10"/>
       <c r="E219" s="28"/>
       <c r="F219" s="10"/>
-      <c r="G219" s="136"/>
-      <c r="H219" s="88"/>
-      <c r="I219" s="88"/>
-      <c r="J219" s="88"/>
-      <c r="K219" s="89"/>
-    </row>
-    <row r="220" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A220" s="112" t="s">
+      <c r="G219" s="146"/>
+      <c r="H219" s="147"/>
+      <c r="I219" s="147"/>
+      <c r="J219" s="147"/>
+      <c r="K219" s="148"/>
+    </row>
+    <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B220" s="113"/>
-      <c r="C220" s="113"/>
+      <c r="B220" s="71"/>
+      <c r="C220" s="71"/>
       <c r="D220" s="10"/>
       <c r="E220" s="42"/>
       <c r="F220" s="10"/>
-      <c r="G220" s="137"/>
-      <c r="H220" s="138"/>
-      <c r="I220" s="138"/>
-      <c r="J220" s="138"/>
-      <c r="K220" s="139"/>
-    </row>
-    <row r="221" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A221" s="62" t="s">
+      <c r="G220" s="164"/>
+      <c r="H220" s="165"/>
+      <c r="I220" s="165"/>
+      <c r="J220" s="165"/>
+      <c r="K220" s="166"/>
+    </row>
+    <row r="221" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B221" s="70"/>
-      <c r="C221" s="71"/>
+      <c r="B221" s="59"/>
+      <c r="C221" s="60"/>
       <c r="D221" s="10"/>
       <c r="E221" s="47"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="62"/>
-      <c r="H221" s="63"/>
-      <c r="I221" s="63"/>
-      <c r="J221" s="63"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="64"/>
+      <c r="I221" s="64"/>
+      <c r="J221" s="64"/>
       <c r="K221" s="65"/>
     </row>
-    <row r="222" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A222" s="62" t="s">
+    <row r="222" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B222" s="70"/>
-      <c r="C222" s="71"/>
+      <c r="B222" s="59"/>
+      <c r="C222" s="60"/>
       <c r="D222" s="10"/>
       <c r="E222" s="47"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="78"/>
-      <c r="H222" s="79"/>
-      <c r="I222" s="79"/>
-      <c r="J222" s="79"/>
-      <c r="K222" s="80"/>
-    </row>
-    <row r="223" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A223" s="66"/>
-      <c r="B223" s="67"/>
-      <c r="C223" s="67"/>
-      <c r="D223" s="67"/>
-      <c r="E223" s="67"/>
-      <c r="F223" s="67"/>
-      <c r="G223" s="67"/>
-      <c r="H223" s="67"/>
-      <c r="I223" s="67"/>
-      <c r="J223" s="67"/>
-      <c r="K223" s="110"/>
-    </row>
-    <row r="224" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A224" s="57" t="s">
+      <c r="G222" s="61"/>
+      <c r="H222" s="62"/>
+      <c r="I222" s="62"/>
+      <c r="J222" s="62"/>
+      <c r="K222" s="63"/>
+    </row>
+    <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="78"/>
+      <c r="B223" s="79"/>
+      <c r="C223" s="79"/>
+      <c r="D223" s="79"/>
+      <c r="E223" s="79"/>
+      <c r="F223" s="79"/>
+      <c r="G223" s="79"/>
+      <c r="H223" s="79"/>
+      <c r="I223" s="79"/>
+      <c r="J223" s="79"/>
+      <c r="K223" s="80"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B224" s="58"/>
-      <c r="C224" s="59"/>
+      <c r="B224" s="75"/>
+      <c r="C224" s="76"/>
       <c r="D224" s="11"/>
       <c r="E224" s="6" t="s">
         <v>2</v>
@@ -7714,78 +7724,78 @@
       <c r="F224" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G224" s="124" t="s">
+      <c r="G224" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="124"/>
-      <c r="I224" s="124"/>
-      <c r="J224" s="124"/>
-      <c r="K224" s="125"/>
-    </row>
-    <row r="225" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A225" s="62" t="s">
+      <c r="H224" s="93"/>
+      <c r="I224" s="93"/>
+      <c r="J224" s="93"/>
+      <c r="K224" s="94"/>
+    </row>
+    <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B225" s="63"/>
+      <c r="B225" s="64"/>
       <c r="C225" s="65"/>
       <c r="D225" s="10"/>
       <c r="E225" s="13"/>
       <c r="F225" s="10"/>
-      <c r="G225" s="62"/>
-      <c r="H225" s="63"/>
-      <c r="I225" s="63"/>
-      <c r="J225" s="63"/>
+      <c r="G225" s="58"/>
+      <c r="H225" s="64"/>
+      <c r="I225" s="64"/>
+      <c r="J225" s="64"/>
       <c r="K225" s="65"/>
     </row>
-    <row r="226" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A226" s="62" t="s">
+    <row r="226" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B226" s="70"/>
-      <c r="C226" s="71"/>
+      <c r="B226" s="59"/>
+      <c r="C226" s="60"/>
       <c r="D226" s="10"/>
       <c r="E226" s="47"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="62"/>
-      <c r="H226" s="63"/>
-      <c r="I226" s="63"/>
-      <c r="J226" s="63"/>
+      <c r="G226" s="58"/>
+      <c r="H226" s="64"/>
+      <c r="I226" s="64"/>
+      <c r="J226" s="64"/>
       <c r="K226" s="65"/>
     </row>
-    <row r="227" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A227" s="62" t="s">
+    <row r="227" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B227" s="70"/>
-      <c r="C227" s="71"/>
+      <c r="B227" s="59"/>
+      <c r="C227" s="60"/>
       <c r="D227" s="10"/>
       <c r="E227" s="47"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="78"/>
-      <c r="H227" s="79"/>
-      <c r="I227" s="79"/>
-      <c r="J227" s="79"/>
-      <c r="K227" s="80"/>
-    </row>
-    <row r="228" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A228" s="66"/>
-      <c r="B228" s="67"/>
-      <c r="C228" s="67"/>
-      <c r="D228" s="67"/>
-      <c r="E228" s="67"/>
-      <c r="F228" s="67"/>
-      <c r="G228" s="67"/>
-      <c r="H228" s="67"/>
-      <c r="I228" s="67"/>
-      <c r="J228" s="67"/>
-      <c r="K228" s="110"/>
-    </row>
-    <row r="229" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A229" s="57" t="s">
+      <c r="G227" s="61"/>
+      <c r="H227" s="62"/>
+      <c r="I227" s="62"/>
+      <c r="J227" s="62"/>
+      <c r="K227" s="63"/>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="78"/>
+      <c r="B228" s="79"/>
+      <c r="C228" s="79"/>
+      <c r="D228" s="79"/>
+      <c r="E228" s="79"/>
+      <c r="F228" s="79"/>
+      <c r="G228" s="79"/>
+      <c r="H228" s="79"/>
+      <c r="I228" s="79"/>
+      <c r="J228" s="79"/>
+      <c r="K228" s="80"/>
+    </row>
+    <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B229" s="58"/>
-      <c r="C229" s="59"/>
+      <c r="B229" s="75"/>
+      <c r="C229" s="76"/>
       <c r="D229" s="11"/>
       <c r="E229" s="6" t="s">
         <v>2</v>
@@ -7793,78 +7803,78 @@
       <c r="F229" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G229" s="124" t="s">
+      <c r="G229" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H229" s="124"/>
-      <c r="I229" s="124"/>
-      <c r="J229" s="124"/>
-      <c r="K229" s="125"/>
-    </row>
-    <row r="230" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A230" s="112" t="s">
+      <c r="H229" s="93"/>
+      <c r="I229" s="93"/>
+      <c r="J229" s="93"/>
+      <c r="K229" s="94"/>
+    </row>
+    <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B230" s="113"/>
-      <c r="C230" s="129"/>
+      <c r="B230" s="71"/>
+      <c r="C230" s="95"/>
       <c r="D230" s="10"/>
       <c r="E230" s="16"/>
       <c r="F230" s="10"/>
-      <c r="G230" s="130"/>
-      <c r="H230" s="131"/>
-      <c r="I230" s="131"/>
-      <c r="J230" s="131"/>
-      <c r="K230" s="132"/>
-    </row>
-    <row r="231" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="62" t="s">
+      <c r="G230" s="96"/>
+      <c r="H230" s="97"/>
+      <c r="I230" s="97"/>
+      <c r="J230" s="97"/>
+      <c r="K230" s="98"/>
+    </row>
+    <row r="231" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B231" s="70"/>
-      <c r="C231" s="71"/>
+      <c r="B231" s="59"/>
+      <c r="C231" s="60"/>
       <c r="D231" s="10"/>
       <c r="E231" s="47"/>
       <c r="F231" s="10"/>
-      <c r="G231" s="62"/>
-      <c r="H231" s="63"/>
-      <c r="I231" s="63"/>
-      <c r="J231" s="63"/>
+      <c r="G231" s="58"/>
+      <c r="H231" s="64"/>
+      <c r="I231" s="64"/>
+      <c r="J231" s="64"/>
       <c r="K231" s="65"/>
     </row>
-    <row r="232" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A232" s="62" t="s">
+    <row r="232" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B232" s="70"/>
-      <c r="C232" s="71"/>
+      <c r="B232" s="59"/>
+      <c r="C232" s="60"/>
       <c r="D232" s="10"/>
       <c r="E232" s="47"/>
       <c r="F232" s="10"/>
-      <c r="G232" s="78"/>
-      <c r="H232" s="79"/>
-      <c r="I232" s="79"/>
-      <c r="J232" s="79"/>
-      <c r="K232" s="80"/>
-    </row>
-    <row r="233" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A233" s="66"/>
-      <c r="B233" s="67"/>
-      <c r="C233" s="67"/>
-      <c r="D233" s="67"/>
-      <c r="E233" s="67"/>
-      <c r="F233" s="67"/>
-      <c r="G233" s="67"/>
-      <c r="H233" s="67"/>
-      <c r="I233" s="67"/>
-      <c r="J233" s="67"/>
-      <c r="K233" s="110"/>
-    </row>
-    <row r="234" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A234" s="105" t="s">
+      <c r="G232" s="61"/>
+      <c r="H232" s="62"/>
+      <c r="I232" s="62"/>
+      <c r="J232" s="62"/>
+      <c r="K232" s="63"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="78"/>
+      <c r="B233" s="79"/>
+      <c r="C233" s="79"/>
+      <c r="D233" s="79"/>
+      <c r="E233" s="79"/>
+      <c r="F233" s="79"/>
+      <c r="G233" s="79"/>
+      <c r="H233" s="79"/>
+      <c r="I233" s="79"/>
+      <c r="J233" s="79"/>
+      <c r="K233" s="80"/>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="197" t="s">
         <v>140</v>
       </c>
-      <c r="B234" s="106"/>
-      <c r="C234" s="106"/>
+      <c r="B234" s="198"/>
+      <c r="C234" s="198"/>
       <c r="D234" s="32"/>
       <c r="E234" s="43" t="s">
         <v>2</v>
@@ -7872,78 +7882,78 @@
       <c r="F234" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G234" s="124" t="s">
+      <c r="G234" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H234" s="124"/>
-      <c r="I234" s="124"/>
-      <c r="J234" s="124"/>
-      <c r="K234" s="125"/>
-    </row>
-    <row r="235" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A235" s="126" t="s">
+      <c r="H234" s="93"/>
+      <c r="I234" s="93"/>
+      <c r="J234" s="93"/>
+      <c r="K234" s="94"/>
+    </row>
+    <row r="235" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="B235" s="127"/>
-      <c r="C235" s="128"/>
+      <c r="B235" s="141"/>
+      <c r="C235" s="199"/>
       <c r="D235" s="10"/>
       <c r="E235" s="16"/>
       <c r="F235" s="10"/>
-      <c r="G235" s="66"/>
-      <c r="H235" s="67"/>
-      <c r="I235" s="67"/>
-      <c r="J235" s="67"/>
-      <c r="K235" s="110"/>
-    </row>
-    <row r="236" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A236" s="62" t="s">
+      <c r="G235" s="78"/>
+      <c r="H235" s="79"/>
+      <c r="I235" s="79"/>
+      <c r="J235" s="79"/>
+      <c r="K235" s="80"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B236" s="70"/>
-      <c r="C236" s="71"/>
+      <c r="B236" s="59"/>
+      <c r="C236" s="60"/>
       <c r="D236" s="10"/>
       <c r="E236" s="47"/>
       <c r="F236" s="10"/>
-      <c r="G236" s="62"/>
-      <c r="H236" s="63"/>
-      <c r="I236" s="63"/>
-      <c r="J236" s="63"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="64"/>
+      <c r="I236" s="64"/>
+      <c r="J236" s="64"/>
       <c r="K236" s="65"/>
     </row>
-    <row r="237" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A237" s="62" t="s">
+    <row r="237" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B237" s="70"/>
-      <c r="C237" s="71"/>
+      <c r="B237" s="59"/>
+      <c r="C237" s="60"/>
       <c r="D237" s="10"/>
       <c r="E237" s="47"/>
       <c r="F237" s="10"/>
-      <c r="G237" s="78"/>
-      <c r="H237" s="79"/>
-      <c r="I237" s="79"/>
-      <c r="J237" s="79"/>
-      <c r="K237" s="80"/>
-    </row>
-    <row r="238" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A238" s="62"/>
-      <c r="B238" s="63"/>
-      <c r="C238" s="63"/>
-      <c r="D238" s="63"/>
-      <c r="E238" s="63"/>
-      <c r="F238" s="63"/>
-      <c r="G238" s="63"/>
-      <c r="H238" s="63"/>
-      <c r="I238" s="63"/>
-      <c r="J238" s="63"/>
+      <c r="G237" s="61"/>
+      <c r="H237" s="62"/>
+      <c r="I237" s="62"/>
+      <c r="J237" s="62"/>
+      <c r="K237" s="63"/>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="58"/>
+      <c r="B238" s="64"/>
+      <c r="C238" s="64"/>
+      <c r="D238" s="64"/>
+      <c r="E238" s="64"/>
+      <c r="F238" s="64"/>
+      <c r="G238" s="64"/>
+      <c r="H238" s="64"/>
+      <c r="I238" s="64"/>
+      <c r="J238" s="64"/>
       <c r="K238" s="65"/>
     </row>
-    <row r="239" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A239" s="57" t="s">
+    <row r="239" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="B239" s="58"/>
-      <c r="C239" s="59"/>
+      <c r="B239" s="75"/>
+      <c r="C239" s="76"/>
       <c r="D239" s="34"/>
       <c r="E239" s="6" t="s">
         <v>2</v>
@@ -7951,78 +7961,78 @@
       <c r="F239" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G239" s="60" t="s">
+      <c r="G239" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H239" s="60"/>
-      <c r="I239" s="60"/>
-      <c r="J239" s="60"/>
-      <c r="K239" s="61"/>
-    </row>
-    <row r="240" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A240" s="62" t="s">
+      <c r="H239" s="88"/>
+      <c r="I239" s="88"/>
+      <c r="J239" s="88"/>
+      <c r="K239" s="89"/>
+    </row>
+    <row r="240" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="B240" s="63"/>
-      <c r="C240" s="64"/>
+      <c r="B240" s="64"/>
+      <c r="C240" s="82"/>
       <c r="D240" s="10"/>
       <c r="E240" s="19"/>
       <c r="F240" s="10"/>
-      <c r="G240" s="62"/>
-      <c r="H240" s="63"/>
-      <c r="I240" s="63"/>
-      <c r="J240" s="63"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="64"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="64"/>
       <c r="K240" s="65"/>
     </row>
-    <row r="241" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A241" s="66" t="s">
+    <row r="241" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="B241" s="67"/>
-      <c r="C241" s="68"/>
+      <c r="B241" s="79"/>
+      <c r="C241" s="84"/>
       <c r="D241" s="9"/>
       <c r="E241" s="10"/>
       <c r="F241" s="9"/>
-      <c r="G241" s="69"/>
-      <c r="H241" s="70"/>
-      <c r="I241" s="70"/>
-      <c r="J241" s="70"/>
-      <c r="K241" s="71"/>
-    </row>
-    <row r="242" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A242" s="72" t="s">
+      <c r="G241" s="92"/>
+      <c r="H241" s="59"/>
+      <c r="I241" s="59"/>
+      <c r="J241" s="59"/>
+      <c r="K241" s="60"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="218" t="s">
         <v>222</v>
       </c>
-      <c r="B242" s="73"/>
-      <c r="C242" s="74"/>
+      <c r="B242" s="184"/>
+      <c r="C242" s="219"/>
       <c r="D242" s="10"/>
       <c r="E242" s="50"/>
       <c r="F242" s="10"/>
-      <c r="G242" s="75"/>
-      <c r="H242" s="76"/>
-      <c r="I242" s="76"/>
-      <c r="J242" s="76"/>
-      <c r="K242" s="77"/>
-    </row>
-    <row r="243" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A243" s="62"/>
-      <c r="B243" s="63"/>
-      <c r="C243" s="63"/>
-      <c r="D243" s="63"/>
-      <c r="E243" s="63"/>
-      <c r="F243" s="63"/>
-      <c r="G243" s="63"/>
-      <c r="H243" s="63"/>
-      <c r="I243" s="63"/>
-      <c r="J243" s="63"/>
+      <c r="G242" s="220"/>
+      <c r="H242" s="221"/>
+      <c r="I242" s="221"/>
+      <c r="J242" s="221"/>
+      <c r="K242" s="222"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="58"/>
+      <c r="B243" s="64"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="64"/>
+      <c r="F243" s="64"/>
+      <c r="G243" s="64"/>
+      <c r="H243" s="64"/>
+      <c r="I243" s="64"/>
+      <c r="J243" s="64"/>
       <c r="K243" s="65"/>
     </row>
-    <row r="244" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A244" s="57" t="s">
+    <row r="244" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="B244" s="58"/>
-      <c r="C244" s="59"/>
+      <c r="B244" s="75"/>
+      <c r="C244" s="76"/>
       <c r="D244" s="34"/>
       <c r="E244" s="6" t="s">
         <v>2</v>
@@ -8030,60 +8040,60 @@
       <c r="F244" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G244" s="60" t="s">
+      <c r="G244" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H244" s="60"/>
-      <c r="I244" s="60"/>
-      <c r="J244" s="60"/>
-      <c r="K244" s="61"/>
-    </row>
-    <row r="245" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A245" s="62" t="s">
+      <c r="H244" s="88"/>
+      <c r="I244" s="88"/>
+      <c r="J244" s="88"/>
+      <c r="K244" s="89"/>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B245" s="63"/>
-      <c r="C245" s="64"/>
+      <c r="B245" s="64"/>
+      <c r="C245" s="82"/>
       <c r="D245" s="10"/>
       <c r="E245" s="19"/>
       <c r="F245" s="10"/>
-      <c r="G245" s="62"/>
-      <c r="H245" s="63"/>
-      <c r="I245" s="63"/>
-      <c r="J245" s="63"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="64"/>
+      <c r="I245" s="64"/>
+      <c r="J245" s="64"/>
       <c r="K245" s="65"/>
     </row>
-    <row r="246" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A246" s="66" t="s">
+    <row r="246" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="B246" s="67"/>
-      <c r="C246" s="68"/>
+      <c r="B246" s="79"/>
+      <c r="C246" s="84"/>
       <c r="D246" s="9"/>
       <c r="E246" s="10"/>
       <c r="F246" s="9"/>
-      <c r="G246" s="69"/>
-      <c r="H246" s="70"/>
-      <c r="I246" s="70"/>
-      <c r="J246" s="70"/>
-      <c r="K246" s="71"/>
-    </row>
-    <row r="247" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A247" s="72" t="s">
+      <c r="G246" s="92"/>
+      <c r="H246" s="59"/>
+      <c r="I246" s="59"/>
+      <c r="J246" s="59"/>
+      <c r="K246" s="60"/>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="218" t="s">
         <v>226</v>
       </c>
-      <c r="B247" s="73"/>
-      <c r="C247" s="74"/>
+      <c r="B247" s="184"/>
+      <c r="C247" s="219"/>
       <c r="D247" s="10"/>
       <c r="E247" s="50"/>
       <c r="F247" s="10"/>
-      <c r="G247" s="75"/>
-      <c r="H247" s="76"/>
-      <c r="I247" s="76"/>
-      <c r="J247" s="76"/>
-      <c r="K247" s="77"/>
-    </row>
-    <row r="248" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G247" s="220"/>
+      <c r="H247" s="221"/>
+      <c r="I247" s="221"/>
+      <c r="J247" s="221"/>
+      <c r="K247" s="222"/>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="48"/>
       <c r="B248" s="49"/>
       <c r="C248" s="51"/>
@@ -8096,203 +8106,660 @@
       <c r="J248" s="51"/>
       <c r="K248" s="52"/>
     </row>
-    <row r="249" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A249" s="102" t="s">
+    <row r="249" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="B249" s="103"/>
-      <c r="C249" s="103"/>
-      <c r="D249" s="103"/>
-      <c r="E249" s="103"/>
-      <c r="F249" s="103"/>
-      <c r="G249" s="103"/>
-      <c r="H249" s="103"/>
-      <c r="I249" s="103"/>
-      <c r="J249" s="103"/>
-      <c r="K249" s="104"/>
-    </row>
-    <row r="250" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A250" s="93" t="s">
+      <c r="B249" s="110"/>
+      <c r="C249" s="110"/>
+      <c r="D249" s="110"/>
+      <c r="E249" s="110"/>
+      <c r="F249" s="110"/>
+      <c r="G249" s="110"/>
+      <c r="H249" s="110"/>
+      <c r="I249" s="110"/>
+      <c r="J249" s="110"/>
+      <c r="K249" s="111"/>
+    </row>
+    <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="B250" s="94"/>
-      <c r="C250" s="94"/>
-      <c r="D250" s="94"/>
-      <c r="E250" s="94"/>
-      <c r="F250" s="94"/>
-      <c r="G250" s="94"/>
-      <c r="H250" s="94"/>
-      <c r="I250" s="94"/>
-      <c r="J250" s="94"/>
-      <c r="K250" s="95"/>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="A251" s="118" t="s">
+      <c r="B250" s="193"/>
+      <c r="C250" s="193"/>
+      <c r="D250" s="193"/>
+      <c r="E250" s="193"/>
+      <c r="F250" s="193"/>
+      <c r="G250" s="193"/>
+      <c r="H250" s="193"/>
+      <c r="I250" s="193"/>
+      <c r="J250" s="193"/>
+      <c r="K250" s="194"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B251" s="119"/>
-      <c r="C251" s="119"/>
-      <c r="D251" s="96"/>
-      <c r="E251" s="96"/>
-      <c r="F251" s="96"/>
-      <c r="G251" s="96"/>
-      <c r="H251" s="96"/>
-      <c r="I251" s="96"/>
-      <c r="J251" s="96"/>
-      <c r="K251" s="97"/>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" s="120" t="s">
+      <c r="B251" s="187"/>
+      <c r="C251" s="187"/>
+      <c r="D251" s="180"/>
+      <c r="E251" s="180"/>
+      <c r="F251" s="180"/>
+      <c r="G251" s="180"/>
+      <c r="H251" s="180"/>
+      <c r="I251" s="180"/>
+      <c r="J251" s="180"/>
+      <c r="K251" s="181"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B252" s="121"/>
-      <c r="C252" s="121"/>
-      <c r="D252" s="98"/>
-      <c r="E252" s="98"/>
-      <c r="F252" s="98"/>
-      <c r="G252" s="98"/>
-      <c r="H252" s="98"/>
-      <c r="I252" s="98"/>
-      <c r="J252" s="98"/>
-      <c r="K252" s="99"/>
-    </row>
-    <row r="253" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A253" s="122" t="s">
+      <c r="B252" s="189"/>
+      <c r="C252" s="189"/>
+      <c r="D252" s="182"/>
+      <c r="E252" s="182"/>
+      <c r="F252" s="182"/>
+      <c r="G252" s="182"/>
+      <c r="H252" s="182"/>
+      <c r="I252" s="182"/>
+      <c r="J252" s="182"/>
+      <c r="K252" s="183"/>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="123"/>
-      <c r="C253" s="123"/>
-      <c r="D253" s="100"/>
-      <c r="E253" s="100"/>
-      <c r="F253" s="100"/>
-      <c r="G253" s="100"/>
-      <c r="H253" s="100"/>
-      <c r="I253" s="100"/>
-      <c r="J253" s="100"/>
-      <c r="K253" s="101"/>
-    </row>
-    <row r="254" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A254" s="93" t="s">
+      <c r="B253" s="191"/>
+      <c r="C253" s="191"/>
+      <c r="D253" s="195"/>
+      <c r="E253" s="195"/>
+      <c r="F253" s="195"/>
+      <c r="G253" s="195"/>
+      <c r="H253" s="195"/>
+      <c r="I253" s="195"/>
+      <c r="J253" s="195"/>
+      <c r="K253" s="196"/>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="B254" s="94"/>
-      <c r="C254" s="94"/>
-      <c r="D254" s="94"/>
-      <c r="E254" s="94"/>
-      <c r="F254" s="94"/>
-      <c r="G254" s="94"/>
-      <c r="H254" s="94"/>
-      <c r="I254" s="94"/>
-      <c r="J254" s="94"/>
-      <c r="K254" s="95"/>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" s="118" t="s">
+      <c r="B254" s="193"/>
+      <c r="C254" s="193"/>
+      <c r="D254" s="193"/>
+      <c r="E254" s="193"/>
+      <c r="F254" s="193"/>
+      <c r="G254" s="193"/>
+      <c r="H254" s="193"/>
+      <c r="I254" s="193"/>
+      <c r="J254" s="193"/>
+      <c r="K254" s="194"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B255" s="119"/>
-      <c r="C255" s="119"/>
-      <c r="D255" s="96"/>
-      <c r="E255" s="96"/>
-      <c r="F255" s="96"/>
-      <c r="G255" s="96"/>
-      <c r="H255" s="96"/>
-      <c r="I255" s="96"/>
-      <c r="J255" s="96"/>
-      <c r="K255" s="97"/>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="120" t="s">
+      <c r="B255" s="187"/>
+      <c r="C255" s="187"/>
+      <c r="D255" s="180"/>
+      <c r="E255" s="180"/>
+      <c r="F255" s="180"/>
+      <c r="G255" s="180"/>
+      <c r="H255" s="180"/>
+      <c r="I255" s="180"/>
+      <c r="J255" s="180"/>
+      <c r="K255" s="181"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="B256" s="121"/>
-      <c r="C256" s="121"/>
-      <c r="D256" s="98"/>
-      <c r="E256" s="98"/>
-      <c r="F256" s="98"/>
-      <c r="G256" s="98"/>
-      <c r="H256" s="98"/>
-      <c r="I256" s="98"/>
-      <c r="J256" s="98"/>
-      <c r="K256" s="99"/>
-    </row>
-    <row r="257" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A257" s="122" t="s">
+      <c r="B256" s="189"/>
+      <c r="C256" s="189"/>
+      <c r="D256" s="182"/>
+      <c r="E256" s="182"/>
+      <c r="F256" s="182"/>
+      <c r="G256" s="182"/>
+      <c r="H256" s="182"/>
+      <c r="I256" s="182"/>
+      <c r="J256" s="182"/>
+      <c r="K256" s="183"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B257" s="123"/>
-      <c r="C257" s="123"/>
-      <c r="D257" s="100"/>
-      <c r="E257" s="100"/>
-      <c r="F257" s="100"/>
-      <c r="G257" s="100"/>
-      <c r="H257" s="100"/>
-      <c r="I257" s="100"/>
-      <c r="J257" s="100"/>
-      <c r="K257" s="101"/>
-    </row>
-    <row r="258" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A258" s="93" t="s">
+      <c r="B257" s="191"/>
+      <c r="C257" s="191"/>
+      <c r="D257" s="195"/>
+      <c r="E257" s="195"/>
+      <c r="F257" s="195"/>
+      <c r="G257" s="195"/>
+      <c r="H257" s="195"/>
+      <c r="I257" s="195"/>
+      <c r="J257" s="195"/>
+      <c r="K257" s="196"/>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="B258" s="94"/>
-      <c r="C258" s="94"/>
-      <c r="D258" s="94"/>
-      <c r="E258" s="94"/>
-      <c r="F258" s="94"/>
-      <c r="G258" s="94"/>
-      <c r="H258" s="94"/>
-      <c r="I258" s="94"/>
-      <c r="J258" s="94"/>
-      <c r="K258" s="95"/>
-    </row>
-    <row r="259" spans="1:11">
-      <c r="A259" s="118" t="s">
+      <c r="B258" s="193"/>
+      <c r="C258" s="193"/>
+      <c r="D258" s="193"/>
+      <c r="E258" s="193"/>
+      <c r="F258" s="193"/>
+      <c r="G258" s="193"/>
+      <c r="H258" s="193"/>
+      <c r="I258" s="193"/>
+      <c r="J258" s="193"/>
+      <c r="K258" s="194"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B259" s="119"/>
-      <c r="C259" s="119"/>
-      <c r="D259" s="96"/>
-      <c r="E259" s="96"/>
-      <c r="F259" s="96"/>
-      <c r="G259" s="96"/>
-      <c r="H259" s="96"/>
-      <c r="I259" s="96"/>
-      <c r="J259" s="96"/>
-      <c r="K259" s="97"/>
-    </row>
-    <row r="260" spans="1:11" ht="15" customHeight="1">
-      <c r="A260" s="120" t="s">
+      <c r="B259" s="187"/>
+      <c r="C259" s="187"/>
+      <c r="D259" s="180"/>
+      <c r="E259" s="180"/>
+      <c r="F259" s="180"/>
+      <c r="G259" s="180"/>
+      <c r="H259" s="180"/>
+      <c r="I259" s="180"/>
+      <c r="J259" s="180"/>
+      <c r="K259" s="181"/>
+    </row>
+    <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="B260" s="121"/>
-      <c r="C260" s="121"/>
-      <c r="D260" s="98"/>
-      <c r="E260" s="98"/>
-      <c r="F260" s="98"/>
-      <c r="G260" s="98"/>
-      <c r="H260" s="98"/>
-      <c r="I260" s="98"/>
-      <c r="J260" s="98"/>
-      <c r="K260" s="99"/>
-    </row>
-    <row r="261" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A261" s="115" t="s">
+      <c r="B260" s="189"/>
+      <c r="C260" s="189"/>
+      <c r="D260" s="182"/>
+      <c r="E260" s="182"/>
+      <c r="F260" s="182"/>
+      <c r="G260" s="182"/>
+      <c r="H260" s="182"/>
+      <c r="I260" s="182"/>
+      <c r="J260" s="182"/>
+      <c r="K260" s="183"/>
+    </row>
+    <row r="261" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B261" s="116"/>
-      <c r="C261" s="116"/>
-      <c r="D261" s="73"/>
-      <c r="E261" s="73"/>
-      <c r="F261" s="73"/>
-      <c r="G261" s="73"/>
-      <c r="H261" s="73"/>
-      <c r="I261" s="73"/>
-      <c r="J261" s="73"/>
-      <c r="K261" s="117"/>
+      <c r="B261" s="179"/>
+      <c r="C261" s="179"/>
+      <c r="D261" s="184"/>
+      <c r="E261" s="184"/>
+      <c r="F261" s="184"/>
+      <c r="G261" s="184"/>
+      <c r="H261" s="184"/>
+      <c r="I261" s="184"/>
+      <c r="J261" s="184"/>
+      <c r="K261" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="481">
+    <mergeCell ref="G244:K244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="G245:K245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="G246:K246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="G247:K247"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="G239:K239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="G240:K240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="G241:K241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="G242:K242"/>
+    <mergeCell ref="A243:K243"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A250:K250"/>
+    <mergeCell ref="D251:K251"/>
+    <mergeCell ref="D252:K252"/>
+    <mergeCell ref="G235:K235"/>
+    <mergeCell ref="G236:K236"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="G229:K229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="G230:K230"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="G227:K227"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="G231:K231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A249:K249"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="A175:K175"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A124:K124"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="D259:K259"/>
+    <mergeCell ref="D260:K260"/>
+    <mergeCell ref="D261:K261"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:K254"/>
+    <mergeCell ref="A258:K258"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="D255:K255"/>
+    <mergeCell ref="D256:K256"/>
+    <mergeCell ref="D257:K257"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="D253:K253"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="G212:K212"/>
+    <mergeCell ref="G213:K213"/>
+    <mergeCell ref="G214:K214"/>
+    <mergeCell ref="G215:K215"/>
+    <mergeCell ref="G216:K216"/>
+    <mergeCell ref="G217:K217"/>
+    <mergeCell ref="G219:K219"/>
+    <mergeCell ref="G218:K218"/>
+    <mergeCell ref="G220:K220"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="G148:K148"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="G198:K198"/>
+    <mergeCell ref="G199:K199"/>
+    <mergeCell ref="G200:K200"/>
+    <mergeCell ref="G201:K201"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G157:K157"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="G156:K156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G146:K146"/>
+    <mergeCell ref="G147:K147"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="G151:K151"/>
+    <mergeCell ref="A143:K143"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A166:K166"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="G150:K150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A149:K149"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A184:K184"/>
+    <mergeCell ref="A190:K190"/>
+    <mergeCell ref="A195:K195"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A210:K210"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A233:K233"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="G191:K191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="G185:K185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="G187:K187"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="G142:K142"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G138:K138"/>
+    <mergeCell ref="G139:K139"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="G141:K141"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="A136:K136"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="G165:K165"/>
+    <mergeCell ref="G173:K173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="G174:K174"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="G182:K182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="G181:K181"/>
+    <mergeCell ref="G180:K180"/>
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="G237:K237"/>
     <mergeCell ref="A189:C189"/>
@@ -8317,466 +8784,9 @@
     <mergeCell ref="G208:K208"/>
     <mergeCell ref="A211:C211"/>
     <mergeCell ref="G211:K211"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="G165:K165"/>
-    <mergeCell ref="G173:K173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="G174:K174"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="G182:K182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="G181:K181"/>
-    <mergeCell ref="G180:K180"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="G141:K141"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="A136:K136"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="G142:K142"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G138:K138"/>
-    <mergeCell ref="G139:K139"/>
-    <mergeCell ref="G140:K140"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="A184:K184"/>
-    <mergeCell ref="A190:K190"/>
-    <mergeCell ref="A195:K195"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A210:K210"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A233:K233"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="A223:K223"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="G191:K191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="G185:K185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="G187:K187"/>
-    <mergeCell ref="G188:K188"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="G164:K164"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="G129:K129"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="G133:K133"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="G146:K146"/>
-    <mergeCell ref="G147:K147"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="G153:K153"/>
-    <mergeCell ref="G151:K151"/>
-    <mergeCell ref="A143:K143"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A166:K166"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="G150:K150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="G144:K144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A149:K149"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G157:K157"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="G156:K156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="G148:K148"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="G154:K154"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="G197:K197"/>
-    <mergeCell ref="G198:K198"/>
-    <mergeCell ref="G199:K199"/>
-    <mergeCell ref="G200:K200"/>
-    <mergeCell ref="G201:K201"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="G232:K232"/>
-    <mergeCell ref="G212:K212"/>
-    <mergeCell ref="G213:K213"/>
-    <mergeCell ref="G214:K214"/>
-    <mergeCell ref="G215:K215"/>
-    <mergeCell ref="G216:K216"/>
-    <mergeCell ref="G217:K217"/>
-    <mergeCell ref="G219:K219"/>
-    <mergeCell ref="G218:K218"/>
-    <mergeCell ref="G220:K220"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="D259:K259"/>
-    <mergeCell ref="D260:K260"/>
-    <mergeCell ref="D261:K261"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:K254"/>
-    <mergeCell ref="A258:K258"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="D255:K255"/>
-    <mergeCell ref="D256:K256"/>
-    <mergeCell ref="D257:K257"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="D253:K253"/>
-    <mergeCell ref="A249:K249"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="A175:K175"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A124:K124"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="G234:K234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="A250:K250"/>
-    <mergeCell ref="D251:K251"/>
-    <mergeCell ref="D252:K252"/>
-    <mergeCell ref="G235:K235"/>
-    <mergeCell ref="G236:K236"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="G229:K229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="G230:K230"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="G227:K227"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="G231:K231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="G244:K244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="G245:K245"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="G246:K246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="G247:K247"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="G239:K239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="G240:K240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="G241:K241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="G242:K242"/>
-    <mergeCell ref="A243:K243"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D230:D232 D235:D237 D138:D142 D145:D148 D151:D154 D157:D165 D168:D174 D177:D183 D186:D189 D192:D194 D197:D203 D206:D209 D212:D222 D225:D227 D28:D34 D37:D48 D51:D56 D59:D73 D15:D16 D85:D89 D92:D94 D97:D123 D126:D135 D76:D82 D240:D242 D245:D248">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D230:D232 D235:D237 D138:D142 D145:D148 D151:D154 D157:D165 D168:D174 D177:D183 D186:D189 D192:D194 D197:D203 D206:D209 D212:D222 D225:D227 D28:D34 D37:D48 D51:D56 D59:D73 D245:D248 D85:D89 D92:D94 D97:D123 D126:D135 D76:D82 D240:D242 D15:D25">
       <formula1>$O$2:$O$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F230:F232 F235:F237 F138:F142 F145:F148 F151:F154 F157:F165 F168:F174 F177:F183 F186:F189 F192:F194 F197:F203 F206:F209 F212:F222 F225:F227 F28:F34 F37:F48 F51:F56 F59:F73 F15:F25 F85:F89 F92:F94 F97:F123 F126:F135 F76:F82 F240:F242 F245:F248">
@@ -8787,9 +8797,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
       <formula1>$P$2:$P$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D25">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.4375" right="0.35416666666666669" top="1.6875" bottom="0.75" header="0.3" footer="0.3"/>
